--- a/database/industries/palayesh/shetran/product/monthly.xlsx
+++ b/database/industries/palayesh/shetran/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\palayesh\shetran\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shetran\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E368857-CC49-46A7-A9AD-C83D34789E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>وکیوم باتوم</t>
   </si>
   <si>
@@ -279,7 +280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,7 +473,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -484,7 +485,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -531,6 +532,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -566,6 +584,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,17 +752,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -782,7 +817,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -839,7 +874,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -896,7 +931,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -951,7 +986,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1008,7 +1043,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1065,7 +1100,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1120,7 +1155,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1332,7 +1367,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1389,7 +1424,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1398,157 +1433,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>98079</v>
+        <v>126799</v>
       </c>
       <c r="F11" s="11">
-        <v>126799</v>
+        <v>107666</v>
       </c>
       <c r="G11" s="11">
-        <v>107666</v>
+        <v>53300</v>
       </c>
       <c r="H11" s="11">
-        <v>53300</v>
+        <v>97164</v>
       </c>
       <c r="I11" s="11">
-        <v>97164</v>
+        <v>132451</v>
       </c>
       <c r="J11" s="11">
-        <v>132451</v>
+        <v>58051</v>
       </c>
       <c r="K11" s="11">
-        <v>58051</v>
+        <v>99249</v>
       </c>
       <c r="L11" s="11">
-        <v>99249</v>
+        <v>69697</v>
       </c>
       <c r="M11" s="11">
-        <v>69697</v>
+        <v>175441</v>
       </c>
       <c r="N11" s="11">
-        <v>175441</v>
+        <v>79251</v>
       </c>
       <c r="O11" s="11">
-        <v>79251</v>
+        <v>83455</v>
       </c>
       <c r="P11" s="11">
-        <v>83455</v>
+        <v>73493</v>
       </c>
       <c r="Q11" s="11">
-        <v>73493</v>
+        <v>90909</v>
       </c>
       <c r="R11" s="11">
-        <v>90909</v>
+        <v>82201</v>
       </c>
       <c r="S11" s="11">
-        <v>82201</v>
+        <v>103589</v>
       </c>
       <c r="T11" s="11">
-        <v>103589</v>
+        <v>92318</v>
       </c>
       <c r="U11" s="11">
-        <v>92318</v>
+        <v>89131</v>
       </c>
       <c r="V11" s="11">
-        <v>89131</v>
+        <v>51312</v>
       </c>
       <c r="W11" s="11">
-        <v>51312</v>
+        <v>75955</v>
       </c>
       <c r="X11" s="11">
-        <v>75955</v>
+        <v>82814</v>
       </c>
       <c r="Y11" s="11">
-        <v>82814</v>
+        <v>79489</v>
       </c>
       <c r="Z11" s="11">
-        <v>79489</v>
+        <v>112614</v>
       </c>
       <c r="AA11" s="11">
-        <v>112614</v>
+        <v>86096</v>
       </c>
       <c r="AB11" s="11">
-        <v>86096</v>
+        <v>72893</v>
       </c>
       <c r="AC11" s="11">
-        <v>72893</v>
+        <v>89017</v>
       </c>
       <c r="AD11" s="11">
-        <v>89017</v>
+        <v>75917</v>
       </c>
       <c r="AE11" s="11">
-        <v>75917</v>
+        <v>82161</v>
       </c>
       <c r="AF11" s="11">
-        <v>82161</v>
+        <v>76159</v>
       </c>
       <c r="AG11" s="11">
-        <v>76159</v>
+        <v>84929</v>
       </c>
       <c r="AH11" s="11">
-        <v>84929</v>
+        <v>67339</v>
       </c>
       <c r="AI11" s="11">
-        <v>67339</v>
+        <v>113454</v>
       </c>
       <c r="AJ11" s="11">
-        <v>113454</v>
+        <v>53386</v>
       </c>
       <c r="AK11" s="11">
-        <v>53386</v>
+        <v>43852</v>
       </c>
       <c r="AL11" s="11">
-        <v>43852</v>
+        <v>72868</v>
       </c>
       <c r="AM11" s="11">
-        <v>72868</v>
+        <v>85520</v>
       </c>
       <c r="AN11" s="11">
-        <v>85520</v>
+        <v>64673</v>
       </c>
       <c r="AO11" s="11">
-        <v>64673</v>
+        <v>82415</v>
       </c>
       <c r="AP11" s="11">
-        <v>82415</v>
+        <v>67316</v>
       </c>
       <c r="AQ11" s="11">
-        <v>67316</v>
+        <v>75393</v>
       </c>
       <c r="AR11" s="11">
-        <v>75393</v>
+        <v>82961</v>
       </c>
       <c r="AS11" s="11">
-        <v>82961</v>
+        <v>82817</v>
       </c>
       <c r="AT11" s="11">
-        <v>82817</v>
+        <v>47783</v>
       </c>
       <c r="AU11" s="11">
-        <v>47783</v>
+        <v>74293</v>
       </c>
       <c r="AV11" s="11">
-        <v>74293</v>
+        <v>89338</v>
       </c>
       <c r="AW11" s="11">
-        <v>89338</v>
+        <v>97187</v>
       </c>
       <c r="AX11" s="11">
-        <v>97187</v>
+        <v>79620</v>
       </c>
       <c r="AY11" s="11">
-        <v>79620</v>
+        <v>90806</v>
       </c>
       <c r="AZ11" s="11">
-        <v>90806</v>
+        <v>87322</v>
       </c>
       <c r="BA11" s="11">
-        <v>87322</v>
+        <v>93994</v>
       </c>
       <c r="BB11" s="11">
-        <v>93994</v>
+        <v>96829</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1557,157 +1592,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>10659</v>
+        <v>38336</v>
       </c>
       <c r="F12" s="13">
-        <v>38336</v>
+        <v>30250</v>
       </c>
       <c r="G12" s="13">
-        <v>30250</v>
+        <v>16960</v>
       </c>
       <c r="H12" s="13">
-        <v>16960</v>
+        <v>42127</v>
       </c>
       <c r="I12" s="13">
-        <v>42127</v>
+        <v>47335</v>
       </c>
       <c r="J12" s="13">
-        <v>47335</v>
+        <v>44037</v>
       </c>
       <c r="K12" s="13">
-        <v>44037</v>
+        <v>35161</v>
       </c>
       <c r="L12" s="13">
-        <v>35161</v>
+        <v>40854</v>
       </c>
       <c r="M12" s="13">
-        <v>40854</v>
+        <v>21616</v>
       </c>
       <c r="N12" s="13">
-        <v>21616</v>
+        <v>3811</v>
       </c>
       <c r="O12" s="13">
-        <v>3811</v>
+        <v>2417</v>
       </c>
       <c r="P12" s="13">
-        <v>2417</v>
+        <v>13153</v>
       </c>
       <c r="Q12" s="13">
-        <v>13153</v>
+        <v>13955</v>
       </c>
       <c r="R12" s="13">
-        <v>13955</v>
+        <v>11123</v>
       </c>
       <c r="S12" s="13">
-        <v>11123</v>
+        <v>8880</v>
       </c>
       <c r="T12" s="13">
-        <v>8880</v>
+        <v>16589</v>
       </c>
       <c r="U12" s="13">
-        <v>16589</v>
+        <v>13030</v>
       </c>
       <c r="V12" s="13">
-        <v>13030</v>
+        <v>8937</v>
       </c>
       <c r="W12" s="13">
-        <v>8937</v>
+        <v>21300</v>
       </c>
       <c r="X12" s="13">
-        <v>21300</v>
+        <v>4784</v>
       </c>
       <c r="Y12" s="13">
-        <v>4784</v>
+        <v>23219</v>
       </c>
       <c r="Z12" s="13">
-        <v>23219</v>
+        <v>8496</v>
       </c>
       <c r="AA12" s="13">
-        <v>8496</v>
+        <v>12549</v>
       </c>
       <c r="AB12" s="13">
-        <v>12549</v>
+        <v>10135</v>
       </c>
       <c r="AC12" s="13">
-        <v>10135</v>
+        <v>578</v>
       </c>
       <c r="AD12" s="13">
-        <v>578</v>
+        <v>9964</v>
       </c>
       <c r="AE12" s="13">
-        <v>9964</v>
+        <v>11088</v>
       </c>
       <c r="AF12" s="13">
-        <v>11088</v>
+        <v>8269</v>
       </c>
       <c r="AG12" s="13">
-        <v>8269</v>
+        <v>12316</v>
       </c>
       <c r="AH12" s="13">
-        <v>12316</v>
+        <v>12639</v>
       </c>
       <c r="AI12" s="13">
-        <v>12639</v>
+        <v>1505</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1505</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="13">
-        <v>0</v>
+        <v>1156</v>
       </c>
       <c r="AL12" s="13">
-        <v>1156</v>
+        <v>8106</v>
       </c>
       <c r="AM12" s="13">
-        <v>8106</v>
+        <v>1367</v>
       </c>
       <c r="AN12" s="13">
-        <v>1367</v>
+        <v>4448</v>
       </c>
       <c r="AO12" s="13">
-        <v>4448</v>
+        <v>6561</v>
       </c>
       <c r="AP12" s="13">
-        <v>6561</v>
+        <v>13973</v>
       </c>
       <c r="AQ12" s="13">
-        <v>13973</v>
+        <v>5873</v>
       </c>
       <c r="AR12" s="13">
-        <v>5873</v>
+        <v>13761</v>
       </c>
       <c r="AS12" s="13">
-        <v>13761</v>
+        <v>11555</v>
       </c>
       <c r="AT12" s="13">
-        <v>11555</v>
+        <v>10117</v>
       </c>
       <c r="AU12" s="13">
-        <v>10117</v>
+        <v>7942</v>
       </c>
       <c r="AV12" s="13">
-        <v>7942</v>
+        <v>8108</v>
       </c>
       <c r="AW12" s="13">
-        <v>8108</v>
+        <v>1967</v>
       </c>
       <c r="AX12" s="13">
-        <v>1967</v>
+        <v>7209</v>
       </c>
       <c r="AY12" s="13">
-        <v>7209</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="13">
-        <v>0</v>
+        <v>2073</v>
       </c>
       <c r="BA12" s="13">
-        <v>2073</v>
+        <v>9864</v>
       </c>
       <c r="BB12" s="13">
-        <v>9864</v>
+        <v>2080</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1716,157 +1751,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>2462</v>
+        <v>2326</v>
       </c>
       <c r="F13" s="11">
-        <v>2326</v>
+        <v>2079</v>
       </c>
       <c r="G13" s="11">
-        <v>2079</v>
+        <v>2163</v>
       </c>
       <c r="H13" s="11">
-        <v>2163</v>
+        <v>849</v>
       </c>
       <c r="I13" s="11">
-        <v>849</v>
+        <v>555</v>
       </c>
       <c r="J13" s="11">
-        <v>555</v>
+        <v>2128</v>
       </c>
       <c r="K13" s="11">
-        <v>2128</v>
+        <v>2354</v>
       </c>
       <c r="L13" s="11">
-        <v>2354</v>
+        <v>2280</v>
       </c>
       <c r="M13" s="11">
-        <v>2280</v>
+        <v>2360</v>
       </c>
       <c r="N13" s="11">
-        <v>2360</v>
+        <v>2218</v>
       </c>
       <c r="O13" s="11">
-        <v>2218</v>
+        <v>2550</v>
       </c>
       <c r="P13" s="11">
-        <v>2550</v>
+        <v>2311</v>
       </c>
       <c r="Q13" s="11">
-        <v>2311</v>
+        <v>1745</v>
       </c>
       <c r="R13" s="11">
-        <v>1745</v>
+        <v>2186</v>
       </c>
       <c r="S13" s="11">
-        <v>2186</v>
+        <v>2306</v>
       </c>
       <c r="T13" s="11">
-        <v>2306</v>
+        <v>2210</v>
       </c>
       <c r="U13" s="11">
-        <v>2210</v>
+        <v>1631</v>
       </c>
       <c r="V13" s="11">
-        <v>1631</v>
+        <v>2375</v>
       </c>
       <c r="W13" s="11">
-        <v>2375</v>
+        <v>1671</v>
       </c>
       <c r="X13" s="11">
-        <v>1671</v>
+        <v>1940</v>
       </c>
       <c r="Y13" s="11">
-        <v>1940</v>
+        <v>2072</v>
       </c>
       <c r="Z13" s="11">
+        <v>2036</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>1944</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>1909</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>1818</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>2131</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>1546</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>1617</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>3060</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>3979</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>2389</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>1867</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>2441</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>3904</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>3720</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>3169</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>1461</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>2675</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>2747</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>3521</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>3246</v>
+      </c>
+      <c r="AT13" s="11">
         <v>2072</v>
       </c>
-      <c r="AA13" s="11">
-        <v>2036</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>1944</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>1909</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>1818</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>2131</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>1546</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>1617</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>3060</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>3979</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>2389</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>1867</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>2441</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>3904</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>3720</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>3169</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>1461</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>2675</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>2747</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>3521</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>3246</v>
-      </c>
       <c r="AU13" s="11">
-        <v>2072</v>
+        <v>3900</v>
       </c>
       <c r="AV13" s="11">
-        <v>3900</v>
+        <v>3535</v>
       </c>
       <c r="AW13" s="11">
-        <v>3535</v>
+        <v>1236</v>
       </c>
       <c r="AX13" s="11">
-        <v>1236</v>
+        <v>2733</v>
       </c>
       <c r="AY13" s="11">
-        <v>2733</v>
+        <v>4185</v>
       </c>
       <c r="AZ13" s="11">
-        <v>4185</v>
+        <v>4295</v>
       </c>
       <c r="BA13" s="11">
-        <v>4295</v>
+        <v>3575</v>
       </c>
       <c r="BB13" s="11">
-        <v>3575</v>
+        <v>2279</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -1875,157 +1910,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>47923</v>
+        <v>50393</v>
       </c>
       <c r="F14" s="13">
-        <v>50393</v>
+        <v>54106</v>
       </c>
       <c r="G14" s="13">
-        <v>54106</v>
+        <v>51486</v>
       </c>
       <c r="H14" s="13">
-        <v>51486</v>
+        <v>47171</v>
       </c>
       <c r="I14" s="13">
-        <v>47171</v>
+        <v>48821</v>
       </c>
       <c r="J14" s="13">
-        <v>48821</v>
+        <v>53454</v>
       </c>
       <c r="K14" s="13">
-        <v>53454</v>
+        <v>50826</v>
       </c>
       <c r="L14" s="13">
-        <v>50826</v>
+        <v>49644</v>
       </c>
       <c r="M14" s="13">
-        <v>49644</v>
+        <v>43539</v>
       </c>
       <c r="N14" s="13">
-        <v>43539</v>
+        <v>44386</v>
       </c>
       <c r="O14" s="13">
-        <v>44386</v>
+        <v>47886</v>
       </c>
       <c r="P14" s="13">
-        <v>47886</v>
+        <v>40837</v>
       </c>
       <c r="Q14" s="13">
-        <v>40837</v>
+        <v>28479</v>
       </c>
       <c r="R14" s="13">
-        <v>28479</v>
+        <v>47288</v>
       </c>
       <c r="S14" s="13">
-        <v>47288</v>
+        <v>45425</v>
       </c>
       <c r="T14" s="13">
-        <v>45425</v>
+        <v>33361</v>
       </c>
       <c r="U14" s="13">
-        <v>33361</v>
+        <v>38041</v>
       </c>
       <c r="V14" s="13">
-        <v>38041</v>
+        <v>46902</v>
       </c>
       <c r="W14" s="13">
-        <v>46902</v>
+        <v>46357</v>
       </c>
       <c r="X14" s="13">
-        <v>46357</v>
+        <v>42762</v>
       </c>
       <c r="Y14" s="13">
-        <v>42762</v>
+        <v>45043</v>
       </c>
       <c r="Z14" s="13">
-        <v>45043</v>
+        <v>42923</v>
       </c>
       <c r="AA14" s="13">
-        <v>42923</v>
+        <v>43741</v>
       </c>
       <c r="AB14" s="13">
-        <v>43741</v>
+        <v>50130</v>
       </c>
       <c r="AC14" s="13">
-        <v>50130</v>
+        <v>51183</v>
       </c>
       <c r="AD14" s="13">
-        <v>51183</v>
+        <v>53834</v>
       </c>
       <c r="AE14" s="13">
-        <v>53834</v>
+        <v>57053</v>
       </c>
       <c r="AF14" s="13">
-        <v>57053</v>
+        <v>56590</v>
       </c>
       <c r="AG14" s="13">
-        <v>56590</v>
+        <v>51384</v>
       </c>
       <c r="AH14" s="13">
-        <v>51384</v>
+        <v>48216</v>
       </c>
       <c r="AI14" s="13">
-        <v>48216</v>
+        <v>46072</v>
       </c>
       <c r="AJ14" s="13">
-        <v>46072</v>
+        <v>32110</v>
       </c>
       <c r="AK14" s="13">
-        <v>32110</v>
+        <v>30552</v>
       </c>
       <c r="AL14" s="13">
-        <v>30552</v>
+        <v>47469</v>
       </c>
       <c r="AM14" s="13">
-        <v>47469</v>
+        <v>49864</v>
       </c>
       <c r="AN14" s="13">
-        <v>49864</v>
+        <v>46746</v>
       </c>
       <c r="AO14" s="13">
-        <v>46746</v>
+        <v>41941</v>
       </c>
       <c r="AP14" s="13">
-        <v>41941</v>
+        <v>33319</v>
       </c>
       <c r="AQ14" s="13">
-        <v>33319</v>
+        <v>35613</v>
       </c>
       <c r="AR14" s="13">
-        <v>35613</v>
+        <v>38559</v>
       </c>
       <c r="AS14" s="13">
-        <v>38559</v>
+        <v>36144</v>
       </c>
       <c r="AT14" s="13">
-        <v>36144</v>
+        <v>53996</v>
       </c>
       <c r="AU14" s="13">
-        <v>53996</v>
+        <v>43361</v>
       </c>
       <c r="AV14" s="13">
-        <v>43293</v>
+        <v>41250</v>
       </c>
       <c r="AW14" s="13">
-        <v>41250</v>
+        <v>38065</v>
       </c>
       <c r="AX14" s="13">
-        <v>38065</v>
+        <v>35855</v>
       </c>
       <c r="AY14" s="13">
-        <v>35855</v>
+        <v>39141</v>
       </c>
       <c r="AZ14" s="13">
-        <v>39141</v>
+        <v>43224</v>
       </c>
       <c r="BA14" s="13">
-        <v>43224</v>
+        <v>44866</v>
       </c>
       <c r="BB14" s="13">
-        <v>44866</v>
+        <v>37741</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>60</v>
       </c>
@@ -2144,23 +2179,23 @@
       <c r="AO15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AP15" s="11" t="s">
-        <v>61</v>
+      <c r="AP15" s="11">
+        <v>153</v>
       </c>
       <c r="AQ15" s="11">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="11">
         <v>0</v>
       </c>
       <c r="AS15" s="11">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="AT15" s="11">
-        <v>764</v>
+        <v>68</v>
       </c>
       <c r="AU15" s="11">
-        <v>68</v>
+        <v>-68</v>
       </c>
       <c r="AV15" s="11">
         <v>0</v>
@@ -2184,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2193,157 +2228,157 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>12811</v>
+        <v>13963</v>
       </c>
       <c r="F16" s="13">
-        <v>13963</v>
+        <v>5339</v>
       </c>
       <c r="G16" s="13">
-        <v>5339</v>
+        <v>12605</v>
       </c>
       <c r="H16" s="13">
-        <v>12605</v>
+        <v>28978</v>
       </c>
       <c r="I16" s="13">
-        <v>28978</v>
+        <v>16654</v>
       </c>
       <c r="J16" s="13">
-        <v>16654</v>
+        <v>17374</v>
       </c>
       <c r="K16" s="13">
-        <v>17374</v>
+        <v>15870</v>
       </c>
       <c r="L16" s="13">
-        <v>15870</v>
+        <v>13114</v>
       </c>
       <c r="M16" s="13">
-        <v>13114</v>
+        <v>10737</v>
       </c>
       <c r="N16" s="13">
-        <v>10737</v>
+        <v>6346</v>
       </c>
       <c r="O16" s="13">
-        <v>6346</v>
+        <v>5618</v>
       </c>
       <c r="P16" s="13">
-        <v>5618</v>
+        <v>5055</v>
       </c>
       <c r="Q16" s="13">
-        <v>5055</v>
+        <v>1079</v>
       </c>
       <c r="R16" s="13">
-        <v>1079</v>
+        <v>7424</v>
       </c>
       <c r="S16" s="13">
-        <v>7424</v>
+        <v>6395</v>
       </c>
       <c r="T16" s="13">
-        <v>6395</v>
+        <v>10407</v>
       </c>
       <c r="U16" s="13">
-        <v>10407</v>
+        <v>17948</v>
       </c>
       <c r="V16" s="13">
-        <v>17948</v>
+        <v>7311</v>
       </c>
       <c r="W16" s="13">
-        <v>7311</v>
+        <v>15830</v>
       </c>
       <c r="X16" s="13">
-        <v>15830</v>
+        <v>21334</v>
       </c>
       <c r="Y16" s="13">
-        <v>21334</v>
+        <v>7862</v>
       </c>
       <c r="Z16" s="13">
-        <v>7862</v>
+        <v>5122</v>
       </c>
       <c r="AA16" s="13">
-        <v>5122</v>
+        <v>11134</v>
       </c>
       <c r="AB16" s="13">
-        <v>11134</v>
+        <v>15936</v>
       </c>
       <c r="AC16" s="13">
-        <v>15936</v>
+        <v>15806</v>
       </c>
       <c r="AD16" s="13">
-        <v>15806</v>
+        <v>15568</v>
       </c>
       <c r="AE16" s="13">
-        <v>15568</v>
+        <v>12847</v>
       </c>
       <c r="AF16" s="13">
-        <v>12847</v>
+        <v>22615</v>
       </c>
       <c r="AG16" s="13">
-        <v>22615</v>
+        <v>7324</v>
       </c>
       <c r="AH16" s="13">
-        <v>7324</v>
+        <v>7056</v>
       </c>
       <c r="AI16" s="13">
-        <v>7056</v>
+        <v>5127</v>
       </c>
       <c r="AJ16" s="13">
-        <v>5127</v>
+        <v>14432</v>
       </c>
       <c r="AK16" s="13">
-        <v>14432</v>
+        <v>34669</v>
       </c>
       <c r="AL16" s="13">
-        <v>34669</v>
+        <v>46444</v>
       </c>
       <c r="AM16" s="13">
-        <v>46444</v>
+        <v>43968</v>
       </c>
       <c r="AN16" s="13">
-        <v>43968</v>
+        <v>35084</v>
       </c>
       <c r="AO16" s="13">
-        <v>35084</v>
+        <v>48794</v>
       </c>
       <c r="AP16" s="13">
-        <v>48794</v>
+        <v>39165</v>
       </c>
       <c r="AQ16" s="13">
-        <v>39165</v>
+        <v>17401</v>
       </c>
       <c r="AR16" s="13">
-        <v>17401</v>
+        <v>50215</v>
       </c>
       <c r="AS16" s="13">
-        <v>50215</v>
+        <v>23111</v>
       </c>
       <c r="AT16" s="13">
-        <v>23111</v>
+        <v>21878</v>
       </c>
       <c r="AU16" s="13">
-        <v>21878</v>
+        <v>10568</v>
       </c>
       <c r="AV16" s="13">
-        <v>10568</v>
+        <v>60594</v>
       </c>
       <c r="AW16" s="13">
-        <v>60594</v>
+        <v>42348</v>
       </c>
       <c r="AX16" s="13">
-        <v>42348</v>
+        <v>36767</v>
       </c>
       <c r="AY16" s="13">
-        <v>36767</v>
+        <v>25145</v>
       </c>
       <c r="AZ16" s="13">
-        <v>25145</v>
+        <v>17980</v>
       </c>
       <c r="BA16" s="13">
-        <v>17980</v>
+        <v>22787</v>
       </c>
       <c r="BB16" s="13">
-        <v>22787</v>
+        <v>25796</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2352,157 +2387,157 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>1859</v>
+        <v>984</v>
       </c>
       <c r="F17" s="11">
-        <v>984</v>
+        <v>474</v>
       </c>
       <c r="G17" s="11">
-        <v>474</v>
+        <v>1010</v>
       </c>
       <c r="H17" s="11">
-        <v>1010</v>
+        <v>1266</v>
       </c>
       <c r="I17" s="11">
-        <v>1266</v>
+        <v>742</v>
       </c>
       <c r="J17" s="11">
-        <v>742</v>
+        <v>1116</v>
       </c>
       <c r="K17" s="11">
-        <v>1116</v>
+        <v>2260</v>
       </c>
       <c r="L17" s="11">
-        <v>2260</v>
+        <v>780</v>
       </c>
       <c r="M17" s="11">
-        <v>780</v>
+        <v>952</v>
       </c>
       <c r="N17" s="11">
-        <v>952</v>
+        <v>304</v>
       </c>
       <c r="O17" s="11">
-        <v>304</v>
+        <v>992</v>
       </c>
       <c r="P17" s="11">
-        <v>992</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="11">
-        <v>339</v>
+        <v>124</v>
       </c>
       <c r="R17" s="11">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="S17" s="11">
-        <v>265</v>
+        <v>809</v>
       </c>
       <c r="T17" s="11">
-        <v>809</v>
+        <v>293</v>
       </c>
       <c r="U17" s="11">
-        <v>293</v>
+        <v>508</v>
       </c>
       <c r="V17" s="11">
-        <v>508</v>
+        <v>776</v>
       </c>
       <c r="W17" s="11">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="X17" s="11">
-        <v>803</v>
+        <v>699</v>
       </c>
       <c r="Y17" s="11">
-        <v>699</v>
+        <v>1034</v>
       </c>
       <c r="Z17" s="11">
-        <v>1034</v>
+        <v>861</v>
       </c>
       <c r="AA17" s="11">
-        <v>861</v>
+        <v>1581</v>
       </c>
       <c r="AB17" s="11">
-        <v>1581</v>
+        <v>2349</v>
       </c>
       <c r="AC17" s="11">
-        <v>2349</v>
+        <v>1608</v>
       </c>
       <c r="AD17" s="11">
-        <v>1608</v>
+        <v>422</v>
       </c>
       <c r="AE17" s="11">
-        <v>422</v>
+        <v>972</v>
       </c>
       <c r="AF17" s="11">
-        <v>972</v>
+        <v>1182</v>
       </c>
       <c r="AG17" s="11">
-        <v>1182</v>
+        <v>344</v>
       </c>
       <c r="AH17" s="11">
-        <v>344</v>
+        <v>1446</v>
       </c>
       <c r="AI17" s="11">
-        <v>1446</v>
+        <v>181</v>
       </c>
       <c r="AJ17" s="11">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="11">
         <v>0</v>
       </c>
       <c r="AL17" s="11">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AM17" s="11">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AN17" s="11">
-        <v>326</v>
+        <v>823</v>
       </c>
       <c r="AO17" s="11">
-        <v>823</v>
+        <v>199</v>
       </c>
       <c r="AP17" s="11">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="11">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="AR17" s="11">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="AS17" s="11">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AT17" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="11">
         <v>0</v>
       </c>
       <c r="AV17" s="11">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AW17" s="11">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="11">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="AY17" s="11">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BA17" s="11">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="BB17" s="11">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2511,157 +2546,157 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>199001</v>
+        <v>146450</v>
       </c>
       <c r="F18" s="13">
-        <v>146450</v>
+        <v>176826</v>
       </c>
       <c r="G18" s="13">
-        <v>176826</v>
+        <v>228894</v>
       </c>
       <c r="H18" s="13">
-        <v>228894</v>
+        <v>214082</v>
       </c>
       <c r="I18" s="13">
-        <v>214082</v>
+        <v>150411</v>
       </c>
       <c r="J18" s="13">
-        <v>150411</v>
+        <v>240539</v>
       </c>
       <c r="K18" s="13">
-        <v>240539</v>
+        <v>166584</v>
       </c>
       <c r="L18" s="13">
-        <v>166584</v>
+        <v>213601</v>
       </c>
       <c r="M18" s="13">
-        <v>213601</v>
+        <v>147595</v>
       </c>
       <c r="N18" s="13">
-        <v>147595</v>
+        <v>217803</v>
       </c>
       <c r="O18" s="13">
-        <v>217803</v>
+        <v>228227</v>
       </c>
       <c r="P18" s="13">
-        <v>228227</v>
+        <v>159536</v>
       </c>
       <c r="Q18" s="13">
-        <v>159536</v>
+        <v>131869</v>
       </c>
       <c r="R18" s="13">
-        <v>131869</v>
+        <v>211646</v>
       </c>
       <c r="S18" s="13">
-        <v>211646</v>
+        <v>178008</v>
       </c>
       <c r="T18" s="13">
-        <v>178008</v>
+        <v>198311</v>
       </c>
       <c r="U18" s="13">
-        <v>198311</v>
+        <v>147892</v>
       </c>
       <c r="V18" s="13">
-        <v>147892</v>
+        <v>215920</v>
       </c>
       <c r="W18" s="13">
-        <v>215920</v>
+        <v>174974</v>
       </c>
       <c r="X18" s="13">
-        <v>174974</v>
+        <v>168206</v>
       </c>
       <c r="Y18" s="13">
-        <v>168206</v>
+        <v>201385</v>
       </c>
       <c r="Z18" s="13">
-        <v>201385</v>
+        <v>149698</v>
       </c>
       <c r="AA18" s="13">
-        <v>149698</v>
+        <v>200104</v>
       </c>
       <c r="AB18" s="13">
-        <v>200104</v>
+        <v>195552</v>
       </c>
       <c r="AC18" s="13">
-        <v>195552</v>
+        <v>167481</v>
       </c>
       <c r="AD18" s="13">
-        <v>167481</v>
+        <v>174419</v>
       </c>
       <c r="AE18" s="13">
-        <v>174419</v>
+        <v>178024</v>
       </c>
       <c r="AF18" s="13">
-        <v>178024</v>
+        <v>193561</v>
       </c>
       <c r="AG18" s="13">
-        <v>193561</v>
+        <v>153232</v>
       </c>
       <c r="AH18" s="13">
-        <v>153232</v>
+        <v>175199</v>
       </c>
       <c r="AI18" s="13">
-        <v>175199</v>
+        <v>131748</v>
       </c>
       <c r="AJ18" s="13">
-        <v>131748</v>
+        <v>138347</v>
       </c>
       <c r="AK18" s="13">
-        <v>138347</v>
+        <v>170876</v>
       </c>
       <c r="AL18" s="13">
-        <v>170876</v>
+        <v>223563</v>
       </c>
       <c r="AM18" s="13">
-        <v>223563</v>
+        <v>198504</v>
       </c>
       <c r="AN18" s="13">
-        <v>198504</v>
+        <v>205855</v>
       </c>
       <c r="AO18" s="13">
-        <v>205855</v>
+        <v>225835</v>
       </c>
       <c r="AP18" s="13">
-        <v>225835</v>
+        <v>237909</v>
       </c>
       <c r="AQ18" s="13">
-        <v>237909</v>
+        <v>223654</v>
       </c>
       <c r="AR18" s="13">
-        <v>223654</v>
+        <v>223056</v>
       </c>
       <c r="AS18" s="13">
-        <v>223056</v>
+        <v>223186</v>
       </c>
       <c r="AT18" s="13">
-        <v>223186</v>
+        <v>280773</v>
       </c>
       <c r="AU18" s="13">
-        <v>280773</v>
+        <v>223242</v>
       </c>
       <c r="AV18" s="13">
-        <v>223242</v>
+        <v>188479</v>
       </c>
       <c r="AW18" s="13">
-        <v>188479</v>
+        <v>198473</v>
       </c>
       <c r="AX18" s="13">
-        <v>198473</v>
+        <v>190023</v>
       </c>
       <c r="AY18" s="13">
-        <v>190023</v>
+        <v>239348</v>
       </c>
       <c r="AZ18" s="13">
-        <v>239348</v>
+        <v>220058</v>
       </c>
       <c r="BA18" s="13">
-        <v>220058</v>
+        <v>203470</v>
       </c>
       <c r="BB18" s="13">
-        <v>203470</v>
+        <v>191232</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2670,157 +2705,157 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>204916</v>
+        <v>196770</v>
       </c>
       <c r="F19" s="11">
-        <v>196770</v>
+        <v>205881</v>
       </c>
       <c r="G19" s="11">
-        <v>205881</v>
+        <v>208356</v>
       </c>
       <c r="H19" s="11">
-        <v>208356</v>
+        <v>192561</v>
       </c>
       <c r="I19" s="11">
-        <v>192561</v>
+        <v>185458</v>
       </c>
       <c r="J19" s="11">
-        <v>185458</v>
+        <v>219091</v>
       </c>
       <c r="K19" s="11">
-        <v>219091</v>
+        <v>197853</v>
       </c>
       <c r="L19" s="11">
-        <v>197853</v>
+        <v>189297</v>
       </c>
       <c r="M19" s="11">
-        <v>189297</v>
+        <v>198899</v>
       </c>
       <c r="N19" s="11">
-        <v>198899</v>
+        <v>231542</v>
       </c>
       <c r="O19" s="11">
-        <v>231542</v>
+        <v>215198</v>
       </c>
       <c r="P19" s="11">
-        <v>215198</v>
+        <v>204240</v>
       </c>
       <c r="Q19" s="11">
-        <v>204240</v>
+        <v>170838</v>
       </c>
       <c r="R19" s="11">
-        <v>170838</v>
+        <v>202634</v>
       </c>
       <c r="S19" s="11">
-        <v>202634</v>
+        <v>202649</v>
       </c>
       <c r="T19" s="11">
-        <v>202649</v>
+        <v>195451</v>
       </c>
       <c r="U19" s="11">
-        <v>195451</v>
+        <v>163590</v>
       </c>
       <c r="V19" s="11">
-        <v>163590</v>
+        <v>198647</v>
       </c>
       <c r="W19" s="11">
-        <v>198647</v>
+        <v>188795</v>
       </c>
       <c r="X19" s="11">
-        <v>188795</v>
+        <v>189974</v>
       </c>
       <c r="Y19" s="11">
-        <v>189974</v>
+        <v>196883</v>
       </c>
       <c r="Z19" s="11">
-        <v>196883</v>
+        <v>199920</v>
       </c>
       <c r="AA19" s="11">
-        <v>199920</v>
+        <v>207174</v>
       </c>
       <c r="AB19" s="11">
-        <v>207174</v>
+        <v>201134</v>
       </c>
       <c r="AC19" s="11">
-        <v>201134</v>
+        <v>198178</v>
       </c>
       <c r="AD19" s="11">
-        <v>198178</v>
+        <v>195914</v>
       </c>
       <c r="AE19" s="11">
-        <v>195914</v>
+        <v>203332</v>
       </c>
       <c r="AF19" s="11">
-        <v>203332</v>
+        <v>207901</v>
       </c>
       <c r="AG19" s="11">
-        <v>207901</v>
+        <v>211106</v>
       </c>
       <c r="AH19" s="11">
-        <v>211106</v>
+        <v>212955</v>
       </c>
       <c r="AI19" s="11">
-        <v>212955</v>
+        <v>190587</v>
       </c>
       <c r="AJ19" s="11">
-        <v>190587</v>
+        <v>153803</v>
       </c>
       <c r="AK19" s="11">
-        <v>153803</v>
+        <v>126800</v>
       </c>
       <c r="AL19" s="11">
-        <v>126800</v>
+        <v>174195</v>
       </c>
       <c r="AM19" s="11">
-        <v>174195</v>
+        <v>207277</v>
       </c>
       <c r="AN19" s="11">
-        <v>207277</v>
+        <v>175016</v>
       </c>
       <c r="AO19" s="11">
-        <v>175016</v>
+        <v>200941</v>
       </c>
       <c r="AP19" s="11">
-        <v>200941</v>
+        <v>196464</v>
       </c>
       <c r="AQ19" s="11">
-        <v>196464</v>
+        <v>196235</v>
       </c>
       <c r="AR19" s="11">
-        <v>196235</v>
+        <v>197542</v>
       </c>
       <c r="AS19" s="11">
-        <v>197542</v>
+        <v>184808</v>
       </c>
       <c r="AT19" s="11">
-        <v>184808</v>
+        <v>193636</v>
       </c>
       <c r="AU19" s="11">
-        <v>193636</v>
+        <v>195779</v>
       </c>
       <c r="AV19" s="11">
-        <v>195779</v>
+        <v>188785</v>
       </c>
       <c r="AW19" s="11">
-        <v>188785</v>
+        <v>149717</v>
       </c>
       <c r="AX19" s="11">
-        <v>149717</v>
+        <v>152186</v>
       </c>
       <c r="AY19" s="11">
-        <v>152186</v>
+        <v>206557</v>
       </c>
       <c r="AZ19" s="11">
-        <v>206557</v>
+        <v>202901</v>
       </c>
       <c r="BA19" s="11">
-        <v>202901</v>
+        <v>200909</v>
       </c>
       <c r="BB19" s="11">
-        <v>200909</v>
+        <v>182764</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2829,34 +2864,34 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>0</v>
+        <v>4762</v>
       </c>
       <c r="F20" s="13">
-        <v>4762</v>
+        <v>0</v>
       </c>
       <c r="G20" s="13">
-        <v>0</v>
+        <v>10387</v>
       </c>
       <c r="H20" s="13">
-        <v>10387</v>
+        <v>0</v>
       </c>
       <c r="I20" s="13">
         <v>0</v>
       </c>
       <c r="J20" s="13">
-        <v>0</v>
+        <v>4920</v>
       </c>
       <c r="K20" s="13">
-        <v>4920</v>
+        <v>220</v>
       </c>
       <c r="L20" s="13">
-        <v>220</v>
+        <v>8734</v>
       </c>
       <c r="M20" s="13">
-        <v>8734</v>
+        <v>1644</v>
       </c>
       <c r="N20" s="13">
-        <v>1644</v>
+        <v>0</v>
       </c>
       <c r="O20" s="13">
         <v>0</v>
@@ -2865,67 +2900,67 @@
         <v>0</v>
       </c>
       <c r="Q20" s="13">
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="R20" s="13">
-        <v>1281</v>
+        <v>0</v>
       </c>
       <c r="S20" s="13">
-        <v>0</v>
+        <v>5353</v>
       </c>
       <c r="T20" s="13">
-        <v>5353</v>
+        <v>0</v>
       </c>
       <c r="U20" s="13">
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="V20" s="13">
-        <v>3072</v>
+        <v>303</v>
       </c>
       <c r="W20" s="13">
-        <v>303</v>
+        <v>3724</v>
       </c>
       <c r="X20" s="13">
-        <v>3724</v>
+        <v>1052</v>
       </c>
       <c r="Y20" s="13">
-        <v>1052</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="AA20" s="13">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="13">
-        <v>0</v>
+        <v>1605</v>
       </c>
       <c r="AC20" s="13">
-        <v>1605</v>
+        <v>3651</v>
       </c>
       <c r="AD20" s="13">
-        <v>3651</v>
+        <v>1773</v>
       </c>
       <c r="AE20" s="13">
-        <v>1773</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="13">
-        <v>0</v>
+        <v>4945</v>
       </c>
       <c r="AG20" s="13">
-        <v>4945</v>
+        <v>4329</v>
       </c>
       <c r="AH20" s="13">
-        <v>4329</v>
+        <v>3288</v>
       </c>
       <c r="AI20" s="13">
-        <v>3288</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AK20" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="13">
         <v>0</v>
@@ -2940,25 +2975,25 @@
         <v>0</v>
       </c>
       <c r="AP20" s="13">
-        <v>0</v>
+        <v>4346</v>
       </c>
       <c r="AQ20" s="13">
-        <v>4346</v>
+        <v>58</v>
       </c>
       <c r="AR20" s="13">
-        <v>58</v>
+        <v>2917</v>
       </c>
       <c r="AS20" s="13">
-        <v>2917</v>
+        <v>1655</v>
       </c>
       <c r="AT20" s="13">
-        <v>1655</v>
+        <v>4536</v>
       </c>
       <c r="AU20" s="13">
-        <v>4536</v>
+        <v>4740</v>
       </c>
       <c r="AV20" s="13">
-        <v>4740</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="13">
         <v>0</v>
@@ -2970,16 +3005,16 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="13">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="BA20" s="13">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="BB20" s="13">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -2988,157 +3023,157 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>75409</v>
+        <v>68922</v>
       </c>
       <c r="F21" s="11">
-        <v>68922</v>
+        <v>74358</v>
       </c>
       <c r="G21" s="11">
-        <v>74358</v>
+        <v>75256</v>
       </c>
       <c r="H21" s="11">
-        <v>75256</v>
+        <v>44730</v>
       </c>
       <c r="I21" s="11">
-        <v>44730</v>
+        <v>44002</v>
       </c>
       <c r="J21" s="11">
-        <v>44002</v>
+        <v>75446</v>
       </c>
       <c r="K21" s="11">
-        <v>75446</v>
+        <v>69718</v>
       </c>
       <c r="L21" s="11">
-        <v>69718</v>
+        <v>44805</v>
       </c>
       <c r="M21" s="11">
-        <v>44805</v>
+        <v>61310</v>
       </c>
       <c r="N21" s="11">
-        <v>61310</v>
+        <v>69626</v>
       </c>
       <c r="O21" s="11">
-        <v>69626</v>
+        <v>56851</v>
       </c>
       <c r="P21" s="11">
-        <v>56851</v>
+        <v>51010</v>
       </c>
       <c r="Q21" s="11">
-        <v>51010</v>
+        <v>40707</v>
       </c>
       <c r="R21" s="11">
-        <v>40707</v>
+        <v>56742</v>
       </c>
       <c r="S21" s="11">
-        <v>56742</v>
+        <v>65770</v>
       </c>
       <c r="T21" s="11">
-        <v>65770</v>
+        <v>69765</v>
       </c>
       <c r="U21" s="11">
-        <v>69765</v>
+        <v>60850</v>
       </c>
       <c r="V21" s="11">
-        <v>60850</v>
+        <v>41514</v>
       </c>
       <c r="W21" s="11">
-        <v>41514</v>
+        <v>18019</v>
       </c>
       <c r="X21" s="11">
-        <v>18019</v>
+        <v>34240</v>
       </c>
       <c r="Y21" s="11">
-        <v>34240</v>
+        <v>24738</v>
       </c>
       <c r="Z21" s="11">
-        <v>24738</v>
+        <v>18792</v>
       </c>
       <c r="AA21" s="11">
-        <v>18792</v>
+        <v>45470</v>
       </c>
       <c r="AB21" s="11">
-        <v>45470</v>
+        <v>60753</v>
       </c>
       <c r="AC21" s="11">
-        <v>60753</v>
+        <v>59216</v>
       </c>
       <c r="AD21" s="11">
-        <v>59216</v>
+        <v>50537</v>
       </c>
       <c r="AE21" s="11">
-        <v>50537</v>
+        <v>34337</v>
       </c>
       <c r="AF21" s="11">
-        <v>34337</v>
+        <v>49127</v>
       </c>
       <c r="AG21" s="11">
-        <v>49127</v>
+        <v>50094</v>
       </c>
       <c r="AH21" s="11">
-        <v>50094</v>
+        <v>61975</v>
       </c>
       <c r="AI21" s="11">
-        <v>61975</v>
+        <v>57665</v>
       </c>
       <c r="AJ21" s="11">
-        <v>57665</v>
+        <v>49196</v>
       </c>
       <c r="AK21" s="11">
-        <v>49196</v>
+        <v>68635</v>
       </c>
       <c r="AL21" s="11">
-        <v>68635</v>
+        <v>68238</v>
       </c>
       <c r="AM21" s="11">
-        <v>68238</v>
+        <v>73977</v>
       </c>
       <c r="AN21" s="11">
-        <v>73977</v>
+        <v>71702</v>
       </c>
       <c r="AO21" s="11">
-        <v>71702</v>
+        <v>60219</v>
       </c>
       <c r="AP21" s="11">
-        <v>60219</v>
+        <v>57746</v>
       </c>
       <c r="AQ21" s="11">
-        <v>57746</v>
+        <v>65288</v>
       </c>
       <c r="AR21" s="11">
-        <v>65288</v>
+        <v>62735</v>
       </c>
       <c r="AS21" s="11">
-        <v>62735</v>
+        <v>61515</v>
       </c>
       <c r="AT21" s="11">
-        <v>61515</v>
+        <v>57277</v>
       </c>
       <c r="AU21" s="11">
-        <v>57277</v>
+        <v>59722</v>
       </c>
       <c r="AV21" s="11">
-        <v>59722</v>
+        <v>64294</v>
       </c>
       <c r="AW21" s="11">
-        <v>64294</v>
+        <v>32830</v>
       </c>
       <c r="AX21" s="11">
-        <v>32830</v>
+        <v>49256</v>
       </c>
       <c r="AY21" s="11">
-        <v>49256</v>
+        <v>53645</v>
       </c>
       <c r="AZ21" s="11">
-        <v>53645</v>
+        <v>51206</v>
       </c>
       <c r="BA21" s="11">
-        <v>51206</v>
+        <v>48476</v>
       </c>
       <c r="BB21" s="11">
-        <v>48476</v>
+        <v>47026</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3147,157 +3182,157 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>72939</v>
+        <v>74509</v>
       </c>
       <c r="F22" s="13">
-        <v>74509</v>
+        <v>81756</v>
       </c>
       <c r="G22" s="13">
-        <v>81756</v>
+        <v>82281</v>
       </c>
       <c r="H22" s="13">
-        <v>82281</v>
+        <v>62024</v>
       </c>
       <c r="I22" s="13">
-        <v>62024</v>
+        <v>72717</v>
       </c>
       <c r="J22" s="13">
-        <v>72717</v>
+        <v>70914</v>
       </c>
       <c r="K22" s="13">
-        <v>70914</v>
+        <v>73679</v>
       </c>
       <c r="L22" s="13">
-        <v>73679</v>
+        <v>70193</v>
       </c>
       <c r="M22" s="13">
-        <v>70193</v>
+        <v>70482</v>
       </c>
       <c r="N22" s="13">
-        <v>70482</v>
+        <v>69097</v>
       </c>
       <c r="O22" s="13">
-        <v>69097</v>
+        <v>85975</v>
       </c>
       <c r="P22" s="13">
-        <v>85975</v>
+        <v>53720</v>
       </c>
       <c r="Q22" s="13">
-        <v>53720</v>
+        <v>39682</v>
       </c>
       <c r="R22" s="13">
-        <v>39682</v>
+        <v>71351</v>
       </c>
       <c r="S22" s="13">
-        <v>71351</v>
+        <v>52476</v>
       </c>
       <c r="T22" s="13">
-        <v>52476</v>
+        <v>69296</v>
       </c>
       <c r="U22" s="13">
-        <v>69296</v>
+        <v>66465</v>
       </c>
       <c r="V22" s="13">
-        <v>66465</v>
+        <v>48250</v>
       </c>
       <c r="W22" s="13">
-        <v>48250</v>
+        <v>52740</v>
       </c>
       <c r="X22" s="13">
-        <v>52740</v>
+        <v>63139</v>
       </c>
       <c r="Y22" s="13">
-        <v>63139</v>
+        <v>73672</v>
       </c>
       <c r="Z22" s="13">
-        <v>73672</v>
+        <v>83341</v>
       </c>
       <c r="AA22" s="13">
-        <v>83341</v>
+        <v>68103</v>
       </c>
       <c r="AB22" s="13">
-        <v>68103</v>
+        <v>65412</v>
       </c>
       <c r="AC22" s="13">
-        <v>65412</v>
+        <v>76436</v>
       </c>
       <c r="AD22" s="13">
-        <v>76436</v>
+        <v>71463</v>
       </c>
       <c r="AE22" s="13">
-        <v>71463</v>
+        <v>72917</v>
       </c>
       <c r="AF22" s="13">
-        <v>72917</v>
+        <v>79516</v>
       </c>
       <c r="AG22" s="13">
-        <v>79516</v>
+        <v>77550</v>
       </c>
       <c r="AH22" s="13">
-        <v>77550</v>
+        <v>65050</v>
       </c>
       <c r="AI22" s="13">
-        <v>65050</v>
+        <v>66347</v>
       </c>
       <c r="AJ22" s="13">
-        <v>66347</v>
+        <v>55436</v>
       </c>
       <c r="AK22" s="13">
-        <v>55436</v>
+        <v>42113</v>
       </c>
       <c r="AL22" s="13">
-        <v>42113</v>
+        <v>74906</v>
       </c>
       <c r="AM22" s="13">
-        <v>74906</v>
+        <v>82494</v>
       </c>
       <c r="AN22" s="13">
-        <v>82494</v>
+        <v>72350</v>
       </c>
       <c r="AO22" s="13">
-        <v>72350</v>
+        <v>74586</v>
       </c>
       <c r="AP22" s="13">
-        <v>74586</v>
+        <v>71941</v>
       </c>
       <c r="AQ22" s="13">
-        <v>71941</v>
+        <v>79801</v>
       </c>
       <c r="AR22" s="13">
-        <v>79801</v>
+        <v>68952</v>
       </c>
       <c r="AS22" s="13">
-        <v>68952</v>
+        <v>69010</v>
       </c>
       <c r="AT22" s="13">
-        <v>69010</v>
+        <v>70356</v>
       </c>
       <c r="AU22" s="13">
-        <v>70356</v>
+        <v>71871</v>
       </c>
       <c r="AV22" s="13">
-        <v>71871</v>
+        <v>61397</v>
       </c>
       <c r="AW22" s="13">
-        <v>61397</v>
+        <v>79285</v>
       </c>
       <c r="AX22" s="13">
-        <v>79285</v>
+        <v>73338</v>
       </c>
       <c r="AY22" s="13">
-        <v>73338</v>
+        <v>83286</v>
       </c>
       <c r="AZ22" s="13">
-        <v>83286</v>
+        <v>82932</v>
       </c>
       <c r="BA22" s="13">
-        <v>82932</v>
+        <v>78657</v>
       </c>
       <c r="BB22" s="13">
-        <v>78657</v>
+        <v>69617</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3306,157 +3341,157 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>429019</v>
+        <v>432367</v>
       </c>
       <c r="F23" s="11">
-        <v>432367</v>
+        <v>419351</v>
       </c>
       <c r="G23" s="11">
-        <v>419351</v>
+        <v>393593</v>
       </c>
       <c r="H23" s="11">
-        <v>393593</v>
+        <v>430497</v>
       </c>
       <c r="I23" s="11">
-        <v>430497</v>
+        <v>410070</v>
       </c>
       <c r="J23" s="11">
-        <v>410070</v>
+        <v>415623</v>
       </c>
       <c r="K23" s="11">
-        <v>415623</v>
+        <v>427030</v>
       </c>
       <c r="L23" s="11">
-        <v>427030</v>
+        <v>423014</v>
       </c>
       <c r="M23" s="11">
-        <v>423014</v>
+        <v>442556</v>
       </c>
       <c r="N23" s="11">
-        <v>442556</v>
+        <v>480967</v>
       </c>
       <c r="O23" s="11">
-        <v>480967</v>
+        <v>471444</v>
       </c>
       <c r="P23" s="11">
-        <v>471444</v>
+        <v>413592</v>
       </c>
       <c r="Q23" s="11">
-        <v>413592</v>
+        <v>333419</v>
       </c>
       <c r="R23" s="11">
-        <v>333419</v>
+        <v>466585</v>
       </c>
       <c r="S23" s="11">
-        <v>466585</v>
+        <v>438759</v>
       </c>
       <c r="T23" s="11">
-        <v>438759</v>
+        <v>431597</v>
       </c>
       <c r="U23" s="11">
-        <v>431597</v>
+        <v>407844</v>
       </c>
       <c r="V23" s="11">
-        <v>407844</v>
+        <v>393508</v>
       </c>
       <c r="W23" s="11">
-        <v>393508</v>
+        <v>403334</v>
       </c>
       <c r="X23" s="11">
-        <v>403334</v>
+        <v>423813</v>
       </c>
       <c r="Y23" s="11">
-        <v>423813</v>
+        <v>383491</v>
       </c>
       <c r="Z23" s="11">
-        <v>383491</v>
+        <v>416944</v>
       </c>
       <c r="AA23" s="11">
-        <v>416944</v>
+        <v>452374</v>
       </c>
       <c r="AB23" s="11">
-        <v>452374</v>
+        <v>441597</v>
       </c>
       <c r="AC23" s="11">
-        <v>441597</v>
+        <v>446322</v>
       </c>
       <c r="AD23" s="11">
-        <v>446322</v>
+        <v>419887</v>
       </c>
       <c r="AE23" s="11">
-        <v>419887</v>
+        <v>417179</v>
       </c>
       <c r="AF23" s="11">
-        <v>417179</v>
+        <v>474053</v>
       </c>
       <c r="AG23" s="11">
-        <v>474053</v>
+        <v>390342</v>
       </c>
       <c r="AH23" s="11">
-        <v>390342</v>
+        <v>419525</v>
       </c>
       <c r="AI23" s="11">
-        <v>419525</v>
+        <v>382843</v>
       </c>
       <c r="AJ23" s="11">
-        <v>382843</v>
+        <v>310681</v>
       </c>
       <c r="AK23" s="11">
-        <v>310681</v>
+        <v>288076</v>
       </c>
       <c r="AL23" s="11">
-        <v>288076</v>
+        <v>431591</v>
       </c>
       <c r="AM23" s="11">
-        <v>431591</v>
+        <v>461922</v>
       </c>
       <c r="AN23" s="11">
-        <v>461922</v>
+        <v>391224</v>
       </c>
       <c r="AO23" s="11">
-        <v>391224</v>
+        <v>408008</v>
       </c>
       <c r="AP23" s="11">
-        <v>408008</v>
+        <v>427295</v>
       </c>
       <c r="AQ23" s="11">
-        <v>427295</v>
+        <v>391403</v>
       </c>
       <c r="AR23" s="11">
-        <v>391403</v>
+        <v>432689</v>
       </c>
       <c r="AS23" s="11">
-        <v>432689</v>
+        <v>410656</v>
       </c>
       <c r="AT23" s="11">
-        <v>410656</v>
+        <v>447877</v>
       </c>
       <c r="AU23" s="11">
-        <v>447877</v>
+        <v>427697</v>
       </c>
       <c r="AV23" s="11">
-        <v>427697</v>
+        <v>434015</v>
       </c>
       <c r="AW23" s="11">
-        <v>434015</v>
+        <v>462373</v>
       </c>
       <c r="AX23" s="11">
-        <v>462373</v>
+        <v>406143</v>
       </c>
       <c r="AY23" s="11">
-        <v>406143</v>
+        <v>462602</v>
       </c>
       <c r="AZ23" s="11">
-        <v>462602</v>
+        <v>455928</v>
       </c>
       <c r="BA23" s="11">
-        <v>455928</v>
+        <v>438950</v>
       </c>
       <c r="BB23" s="11">
-        <v>438950</v>
+        <v>398633</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>70</v>
       </c>
@@ -3513,7 +3548,7 @@
       <c r="BA24" s="15"/>
       <c r="BB24" s="15"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3579,8 +3614,8 @@
       <c r="X25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Y25" s="17" t="s">
-        <v>61</v>
+      <c r="Y25" s="17">
+        <v>0</v>
       </c>
       <c r="Z25" s="17">
         <v>0</v>
@@ -3670,164 +3705,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
-        <v>1155077</v>
+        <v>1156581</v>
       </c>
       <c r="F26" s="19">
-        <v>1156581</v>
+        <v>1158086</v>
       </c>
       <c r="G26" s="19">
-        <v>1158086</v>
+        <v>1136291</v>
       </c>
       <c r="H26" s="19">
-        <v>1136291</v>
+        <v>1161449</v>
       </c>
       <c r="I26" s="19">
-        <v>1161449</v>
+        <v>1109216</v>
       </c>
       <c r="J26" s="19">
-        <v>1109216</v>
+        <v>1202693</v>
       </c>
       <c r="K26" s="19">
-        <v>1202693</v>
+        <v>1140804</v>
       </c>
       <c r="L26" s="19">
-        <v>1140804</v>
+        <v>1126013</v>
       </c>
       <c r="M26" s="19">
-        <v>1126013</v>
+        <v>1177131</v>
       </c>
       <c r="N26" s="19">
-        <v>1177131</v>
+        <v>1205351</v>
       </c>
       <c r="O26" s="19">
-        <v>1205351</v>
+        <v>1200613</v>
       </c>
       <c r="P26" s="19">
-        <v>1200613</v>
+        <v>1017286</v>
       </c>
       <c r="Q26" s="19">
-        <v>1017286</v>
+        <v>854087</v>
       </c>
       <c r="R26" s="19">
-        <v>854087</v>
+        <v>1159445</v>
       </c>
       <c r="S26" s="19">
-        <v>1159445</v>
+        <v>1110419</v>
       </c>
       <c r="T26" s="19">
-        <v>1110419</v>
+        <v>1119598</v>
       </c>
       <c r="U26" s="19">
-        <v>1119598</v>
+        <v>1010002</v>
       </c>
       <c r="V26" s="19">
-        <v>1010002</v>
+        <v>1015755</v>
       </c>
       <c r="W26" s="19">
-        <v>1015755</v>
+        <v>1003502</v>
       </c>
       <c r="X26" s="19">
-        <v>1003502</v>
+        <v>1034757</v>
       </c>
       <c r="Y26" s="19">
-        <v>1034757</v>
+        <v>1038888</v>
       </c>
       <c r="Z26" s="19">
-        <v>1038888</v>
+        <v>1040890</v>
       </c>
       <c r="AA26" s="19">
-        <v>1040890</v>
+        <v>1130270</v>
       </c>
       <c r="AB26" s="19">
-        <v>1130270</v>
+        <v>1119405</v>
       </c>
       <c r="AC26" s="19">
-        <v>1119405</v>
+        <v>1111294</v>
       </c>
       <c r="AD26" s="19">
-        <v>1111294</v>
+        <v>1071829</v>
       </c>
       <c r="AE26" s="19">
-        <v>1071829</v>
+        <v>1071456</v>
       </c>
       <c r="AF26" s="19">
-        <v>1071456</v>
+        <v>1175535</v>
       </c>
       <c r="AG26" s="19">
-        <v>1175535</v>
+        <v>1046010</v>
       </c>
       <c r="AH26" s="19">
-        <v>1046010</v>
+        <v>1078667</v>
       </c>
       <c r="AI26" s="19">
-        <v>1078667</v>
+        <v>997918</v>
       </c>
       <c r="AJ26" s="19">
-        <v>997918</v>
+        <v>809295</v>
       </c>
       <c r="AK26" s="19">
-        <v>809295</v>
+        <v>809170</v>
       </c>
       <c r="AL26" s="19">
-        <v>809170</v>
+        <v>1151410</v>
       </c>
       <c r="AM26" s="19">
-        <v>1151410</v>
+        <v>1208939</v>
       </c>
       <c r="AN26" s="19">
-        <v>1208939</v>
+        <v>1071090</v>
       </c>
       <c r="AO26" s="19">
-        <v>1071090</v>
+        <v>1150960</v>
       </c>
       <c r="AP26" s="19">
-        <v>1150960</v>
+        <v>1152302</v>
       </c>
       <c r="AQ26" s="19">
-        <v>1152302</v>
+        <v>1093660</v>
       </c>
       <c r="AR26" s="19">
-        <v>1093660</v>
+        <v>1176965</v>
       </c>
       <c r="AS26" s="19">
-        <v>1176965</v>
+        <v>1108516</v>
       </c>
       <c r="AT26" s="19">
-        <v>1108516</v>
+        <v>1190369</v>
       </c>
       <c r="AU26" s="19">
-        <v>1190369</v>
+        <v>1123047</v>
       </c>
       <c r="AV26" s="19">
-        <v>1123047</v>
+        <v>1139925</v>
       </c>
       <c r="AW26" s="19">
-        <v>1139925</v>
+        <v>1103481</v>
       </c>
       <c r="AX26" s="19">
-        <v>1103481</v>
+        <v>1033422</v>
       </c>
       <c r="AY26" s="19">
-        <v>1033422</v>
+        <v>1204715</v>
       </c>
       <c r="AZ26" s="19">
-        <v>1204715</v>
+        <v>1168917</v>
       </c>
       <c r="BA26" s="19">
-        <v>1168917</v>
+        <v>1145681</v>
       </c>
       <c r="BB26" s="19">
-        <v>1145681</v>
+        <v>1053997</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3882,7 +3917,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3937,7 +3972,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3992,7 +4027,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>73</v>
       </c>
@@ -4149,7 +4184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4204,7 +4239,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>73</v>
       </c>
@@ -4261,7 +4296,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
@@ -4270,157 +4305,157 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>96658</v>
+        <v>131722</v>
       </c>
       <c r="F33" s="11">
-        <v>131722</v>
+        <v>101432</v>
       </c>
       <c r="G33" s="11">
-        <v>101432</v>
+        <v>57978</v>
       </c>
       <c r="H33" s="11">
-        <v>57978</v>
+        <v>99276</v>
       </c>
       <c r="I33" s="11">
-        <v>99276</v>
+        <v>133193</v>
       </c>
       <c r="J33" s="11">
-        <v>133193</v>
+        <v>55790</v>
       </c>
       <c r="K33" s="11">
-        <v>55790</v>
+        <v>97123</v>
       </c>
       <c r="L33" s="11">
-        <v>97123</v>
+        <v>67234</v>
       </c>
       <c r="M33" s="11">
-        <v>67234</v>
+        <v>177005</v>
       </c>
       <c r="N33" s="11">
-        <v>177005</v>
+        <v>80252</v>
       </c>
       <c r="O33" s="11">
-        <v>80252</v>
+        <v>84579</v>
       </c>
       <c r="P33" s="11">
-        <v>84579</v>
+        <v>74782</v>
       </c>
       <c r="Q33" s="11">
-        <v>74782</v>
+        <v>85483</v>
       </c>
       <c r="R33" s="11">
-        <v>85483</v>
+        <v>87240</v>
       </c>
       <c r="S33" s="11">
-        <v>87240</v>
+        <v>99723</v>
       </c>
       <c r="T33" s="11">
-        <v>99723</v>
+        <v>98625</v>
       </c>
       <c r="U33" s="11">
-        <v>98625</v>
+        <v>83925</v>
       </c>
       <c r="V33" s="11">
-        <v>83925</v>
+        <v>56342</v>
       </c>
       <c r="W33" s="11">
-        <v>56342</v>
+        <v>76395</v>
       </c>
       <c r="X33" s="11">
-        <v>76395</v>
+        <v>75572</v>
       </c>
       <c r="Y33" s="11">
-        <v>75572</v>
+        <v>84811</v>
       </c>
       <c r="Z33" s="11">
-        <v>84811</v>
+        <v>108592</v>
       </c>
       <c r="AA33" s="11">
-        <v>108592</v>
+        <v>91509</v>
       </c>
       <c r="AB33" s="11">
-        <v>91509</v>
+        <v>71280</v>
       </c>
       <c r="AC33" s="11">
-        <v>71280</v>
+        <v>86175</v>
       </c>
       <c r="AD33" s="11">
-        <v>86175</v>
+        <v>79144</v>
       </c>
       <c r="AE33" s="11">
-        <v>79144</v>
+        <v>82857</v>
       </c>
       <c r="AF33" s="11">
-        <v>82857</v>
+        <v>72914</v>
       </c>
       <c r="AG33" s="11">
-        <v>72914</v>
+        <v>85671</v>
       </c>
       <c r="AH33" s="11">
-        <v>85671</v>
+        <v>71769</v>
       </c>
       <c r="AI33" s="11">
-        <v>71769</v>
+        <v>105283</v>
       </c>
       <c r="AJ33" s="11">
-        <v>105283</v>
+        <v>59070</v>
       </c>
       <c r="AK33" s="11">
-        <v>59070</v>
+        <v>39991</v>
       </c>
       <c r="AL33" s="11">
-        <v>39991</v>
+        <v>71845</v>
       </c>
       <c r="AM33" s="11">
-        <v>71845</v>
+        <v>84624</v>
       </c>
       <c r="AN33" s="11">
-        <v>84624</v>
+        <v>63951</v>
       </c>
       <c r="AO33" s="11">
-        <v>63951</v>
+        <v>83016</v>
       </c>
       <c r="AP33" s="11">
-        <v>83016</v>
+        <v>69348</v>
       </c>
       <c r="AQ33" s="11">
-        <v>69348</v>
+        <v>75336</v>
       </c>
       <c r="AR33" s="11">
-        <v>75336</v>
+        <v>86544</v>
       </c>
       <c r="AS33" s="11">
-        <v>86563</v>
+        <v>81757</v>
       </c>
       <c r="AT33" s="11">
-        <v>81757</v>
+        <v>45577</v>
       </c>
       <c r="AU33" s="11">
-        <v>45577</v>
+        <v>78703</v>
       </c>
       <c r="AV33" s="11">
-        <v>78622</v>
+        <v>87140</v>
       </c>
       <c r="AW33" s="11">
-        <v>87140</v>
+        <v>98435</v>
       </c>
       <c r="AX33" s="11">
-        <v>98435</v>
+        <v>75019</v>
       </c>
       <c r="AY33" s="11">
-        <v>75019</v>
+        <v>96850</v>
       </c>
       <c r="AZ33" s="11">
-        <v>96850</v>
+        <v>84583</v>
       </c>
       <c r="BA33" s="11">
-        <v>84583</v>
+        <v>92713</v>
       </c>
       <c r="BB33" s="11">
-        <v>92713</v>
+        <v>94952</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>57</v>
       </c>
@@ -4429,157 +4464,157 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>18068</v>
+        <v>31995</v>
       </c>
       <c r="F34" s="13">
-        <v>31995</v>
+        <v>34181</v>
       </c>
       <c r="G34" s="13">
-        <v>34181</v>
+        <v>21756</v>
       </c>
       <c r="H34" s="13">
-        <v>21756</v>
+        <v>42047</v>
       </c>
       <c r="I34" s="13">
-        <v>42047</v>
+        <v>47426</v>
       </c>
       <c r="J34" s="13">
-        <v>47426</v>
+        <v>38046</v>
       </c>
       <c r="K34" s="13">
-        <v>38046</v>
+        <v>36877</v>
       </c>
       <c r="L34" s="13">
-        <v>36877</v>
+        <v>38239</v>
       </c>
       <c r="M34" s="13">
-        <v>38239</v>
+        <v>29239</v>
       </c>
       <c r="N34" s="13">
-        <v>29239</v>
+        <v>3593</v>
       </c>
       <c r="O34" s="13">
-        <v>3593</v>
+        <v>0</v>
       </c>
       <c r="P34" s="13">
-        <v>0</v>
+        <v>15266</v>
       </c>
       <c r="Q34" s="13">
-        <v>15266</v>
+        <v>9856</v>
       </c>
       <c r="R34" s="13">
-        <v>9856</v>
+        <v>15329</v>
       </c>
       <c r="S34" s="13">
-        <v>15329</v>
+        <v>9381</v>
       </c>
       <c r="T34" s="13">
-        <v>9381</v>
+        <v>14560</v>
       </c>
       <c r="U34" s="13">
-        <v>14560</v>
+        <v>10179</v>
       </c>
       <c r="V34" s="13">
-        <v>10179</v>
+        <v>10193</v>
       </c>
       <c r="W34" s="13">
-        <v>10193</v>
+        <v>24880</v>
       </c>
       <c r="X34" s="13">
-        <v>24880</v>
+        <v>4732</v>
       </c>
       <c r="Y34" s="13">
-        <v>4732</v>
+        <v>19633</v>
       </c>
       <c r="Z34" s="13">
-        <v>19633</v>
+        <v>9966</v>
       </c>
       <c r="AA34" s="13">
-        <v>9966</v>
+        <v>9988</v>
       </c>
       <c r="AB34" s="13">
-        <v>9988</v>
+        <v>9807</v>
       </c>
       <c r="AC34" s="13">
-        <v>9807</v>
+        <v>5224</v>
       </c>
       <c r="AD34" s="13">
-        <v>5224</v>
+        <v>9937</v>
       </c>
       <c r="AE34" s="13">
+        <v>9720</v>
+      </c>
+      <c r="AF34" s="13">
         <v>9937</v>
       </c>
-      <c r="AF34" s="13">
-        <v>9720</v>
-      </c>
       <c r="AG34" s="13">
-        <v>9937</v>
+        <v>10080</v>
       </c>
       <c r="AH34" s="13">
-        <v>10080</v>
+        <v>9922</v>
       </c>
       <c r="AI34" s="13">
-        <v>9922</v>
+        <v>5154</v>
       </c>
       <c r="AJ34" s="13">
-        <v>5154</v>
+        <v>49</v>
       </c>
       <c r="AK34" s="13">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="13">
-        <v>0</v>
+        <v>9738</v>
       </c>
       <c r="AM34" s="13">
-        <v>9738</v>
+        <v>38</v>
       </c>
       <c r="AN34" s="13">
-        <v>38</v>
+        <v>5008</v>
       </c>
       <c r="AO34" s="13">
-        <v>5008</v>
+        <v>4968</v>
       </c>
       <c r="AP34" s="13">
-        <v>4968</v>
+        <v>14046</v>
       </c>
       <c r="AQ34" s="13">
-        <v>14046</v>
+        <v>5047</v>
       </c>
       <c r="AR34" s="13">
-        <v>5047</v>
+        <v>11687</v>
       </c>
       <c r="AS34" s="13">
-        <v>17782</v>
+        <v>9328</v>
       </c>
       <c r="AT34" s="13">
-        <v>9328</v>
+        <v>9529</v>
       </c>
       <c r="AU34" s="13">
-        <v>9529</v>
+        <v>-1722</v>
       </c>
       <c r="AV34" s="13">
-        <v>9492</v>
+        <v>3250</v>
       </c>
       <c r="AW34" s="13">
-        <v>3250</v>
+        <v>4997</v>
       </c>
       <c r="AX34" s="13">
-        <v>4997</v>
+        <v>1523</v>
       </c>
       <c r="AY34" s="13">
-        <v>1523</v>
+        <v>4511</v>
       </c>
       <c r="AZ34" s="13">
-        <v>4511</v>
+        <v>4876</v>
       </c>
       <c r="BA34" s="13">
-        <v>4876</v>
+        <v>9476</v>
       </c>
       <c r="BB34" s="13">
-        <v>9476</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>58</v>
       </c>
@@ -4588,157 +4623,157 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>2364</v>
+        <v>2845</v>
       </c>
       <c r="F35" s="11">
-        <v>2845</v>
+        <v>1646</v>
       </c>
       <c r="G35" s="11">
-        <v>1646</v>
+        <v>945</v>
       </c>
       <c r="H35" s="11">
-        <v>945</v>
+        <v>5353</v>
       </c>
       <c r="I35" s="11">
-        <v>5353</v>
+        <v>392</v>
       </c>
       <c r="J35" s="11">
-        <v>392</v>
+        <v>985</v>
       </c>
       <c r="K35" s="11">
-        <v>985</v>
+        <v>1432</v>
       </c>
       <c r="L35" s="11">
-        <v>1432</v>
+        <v>1125</v>
       </c>
       <c r="M35" s="11">
-        <v>1125</v>
+        <v>946</v>
       </c>
       <c r="N35" s="11">
-        <v>946</v>
+        <v>4071</v>
       </c>
       <c r="O35" s="11">
-        <v>4071</v>
+        <v>1256</v>
       </c>
       <c r="P35" s="11">
-        <v>1256</v>
+        <v>1727</v>
       </c>
       <c r="Q35" s="11">
-        <v>1727</v>
+        <v>2039</v>
       </c>
       <c r="R35" s="11">
-        <v>2039</v>
+        <v>1308</v>
       </c>
       <c r="S35" s="11">
-        <v>1308</v>
+        <v>3114</v>
       </c>
       <c r="T35" s="11">
-        <v>3114</v>
+        <v>2150</v>
       </c>
       <c r="U35" s="11">
-        <v>2150</v>
+        <v>4978</v>
       </c>
       <c r="V35" s="11">
-        <v>4978</v>
+        <v>665</v>
       </c>
       <c r="W35" s="11">
-        <v>665</v>
+        <v>1627</v>
       </c>
       <c r="X35" s="11">
-        <v>1627</v>
+        <v>2520</v>
       </c>
       <c r="Y35" s="11">
-        <v>2520</v>
+        <v>2373</v>
       </c>
       <c r="Z35" s="11">
-        <v>2373</v>
+        <v>1385</v>
       </c>
       <c r="AA35" s="11">
-        <v>1385</v>
+        <v>2502</v>
       </c>
       <c r="AB35" s="11">
-        <v>2502</v>
+        <v>2555</v>
       </c>
       <c r="AC35" s="11">
-        <v>2555</v>
+        <v>1882</v>
       </c>
       <c r="AD35" s="11">
-        <v>1882</v>
+        <v>1593</v>
       </c>
       <c r="AE35" s="11">
-        <v>1593</v>
+        <v>1660</v>
       </c>
       <c r="AF35" s="11">
-        <v>1660</v>
+        <v>2951</v>
       </c>
       <c r="AG35" s="11">
-        <v>2951</v>
+        <v>2456</v>
       </c>
       <c r="AH35" s="11">
-        <v>2456</v>
+        <v>1324</v>
       </c>
       <c r="AI35" s="11">
-        <v>1324</v>
+        <v>2058</v>
       </c>
       <c r="AJ35" s="11">
-        <v>2058</v>
+        <v>1886</v>
       </c>
       <c r="AK35" s="11">
-        <v>1886</v>
+        <v>1936</v>
       </c>
       <c r="AL35" s="11">
-        <v>1936</v>
+        <v>1872</v>
       </c>
       <c r="AM35" s="11">
-        <v>1872</v>
+        <v>8928</v>
       </c>
       <c r="AN35" s="11">
-        <v>8928</v>
+        <v>2444</v>
       </c>
       <c r="AO35" s="11">
-        <v>2444</v>
+        <v>2185</v>
       </c>
       <c r="AP35" s="11">
-        <v>2185</v>
+        <v>2746</v>
       </c>
       <c r="AQ35" s="11">
-        <v>2746</v>
+        <v>2715</v>
       </c>
       <c r="AR35" s="11">
-        <v>2715</v>
+        <v>1517</v>
       </c>
       <c r="AS35" s="11">
-        <v>1518</v>
+        <v>3116</v>
       </c>
       <c r="AT35" s="11">
-        <v>3116</v>
+        <v>1615</v>
       </c>
       <c r="AU35" s="11">
-        <v>1615</v>
+        <v>4057</v>
       </c>
       <c r="AV35" s="11">
-        <v>4057</v>
+        <v>3630</v>
       </c>
       <c r="AW35" s="11">
-        <v>3630</v>
+        <v>2345</v>
       </c>
       <c r="AX35" s="11">
-        <v>2345</v>
+        <v>1985</v>
       </c>
       <c r="AY35" s="11">
-        <v>1985</v>
+        <v>3922</v>
       </c>
       <c r="AZ35" s="11">
-        <v>3922</v>
+        <v>5114</v>
       </c>
       <c r="BA35" s="11">
-        <v>5114</v>
+        <v>3634</v>
       </c>
       <c r="BB35" s="11">
-        <v>3634</v>
+        <v>3870</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>59</v>
       </c>
@@ -4747,157 +4782,157 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>47695</v>
+        <v>50610</v>
       </c>
       <c r="F36" s="13">
-        <v>50610</v>
+        <v>52126</v>
       </c>
       <c r="G36" s="13">
-        <v>52126</v>
+        <v>51027</v>
       </c>
       <c r="H36" s="13">
-        <v>51027</v>
+        <v>45552</v>
       </c>
       <c r="I36" s="13">
-        <v>45552</v>
+        <v>51959</v>
       </c>
       <c r="J36" s="13">
-        <v>51959</v>
+        <v>51152</v>
       </c>
       <c r="K36" s="13">
-        <v>51152</v>
+        <v>52002</v>
       </c>
       <c r="L36" s="13">
-        <v>52002</v>
+        <v>48802</v>
       </c>
       <c r="M36" s="13">
-        <v>48802</v>
+        <v>46257</v>
       </c>
       <c r="N36" s="13">
-        <v>46257</v>
+        <v>44179</v>
       </c>
       <c r="O36" s="13">
-        <v>44179</v>
+        <v>48601</v>
       </c>
       <c r="P36" s="13">
-        <v>48601</v>
+        <v>41654</v>
       </c>
       <c r="Q36" s="13">
-        <v>41654</v>
+        <v>22499</v>
       </c>
       <c r="R36" s="13">
-        <v>22499</v>
+        <v>48387</v>
       </c>
       <c r="S36" s="13">
-        <v>48387</v>
+        <v>44988</v>
       </c>
       <c r="T36" s="13">
-        <v>44988</v>
+        <v>37872</v>
       </c>
       <c r="U36" s="13">
-        <v>37872</v>
+        <v>36589</v>
       </c>
       <c r="V36" s="13">
-        <v>36589</v>
+        <v>48432</v>
       </c>
       <c r="W36" s="13">
-        <v>48432</v>
+        <v>46321</v>
       </c>
       <c r="X36" s="13">
-        <v>46321</v>
+        <v>39239</v>
       </c>
       <c r="Y36" s="13">
-        <v>39239</v>
+        <v>45325</v>
       </c>
       <c r="Z36" s="13">
-        <v>45325</v>
+        <v>45177</v>
       </c>
       <c r="AA36" s="13">
-        <v>45177</v>
+        <v>43737</v>
       </c>
       <c r="AB36" s="13">
-        <v>43737</v>
+        <v>49702</v>
       </c>
       <c r="AC36" s="13">
-        <v>49702</v>
+        <v>47247</v>
       </c>
       <c r="AD36" s="13">
-        <v>47247</v>
+        <v>58199</v>
       </c>
       <c r="AE36" s="13">
-        <v>58199</v>
+        <v>56791</v>
       </c>
       <c r="AF36" s="13">
-        <v>56791</v>
+        <v>53401</v>
       </c>
       <c r="AG36" s="13">
-        <v>53401</v>
+        <v>49983</v>
       </c>
       <c r="AH36" s="13">
-        <v>49983</v>
+        <v>47625</v>
       </c>
       <c r="AI36" s="13">
-        <v>47625</v>
+        <v>49775</v>
       </c>
       <c r="AJ36" s="13">
-        <v>49775</v>
+        <v>35255</v>
       </c>
       <c r="AK36" s="13">
-        <v>35255</v>
+        <v>30120</v>
       </c>
       <c r="AL36" s="13">
-        <v>30120</v>
+        <v>47791</v>
       </c>
       <c r="AM36" s="13">
-        <v>47791</v>
+        <v>47499</v>
       </c>
       <c r="AN36" s="13">
-        <v>47499</v>
+        <v>46860</v>
       </c>
       <c r="AO36" s="13">
-        <v>46860</v>
+        <v>38611</v>
       </c>
       <c r="AP36" s="13">
-        <v>38611</v>
+        <v>34366</v>
       </c>
       <c r="AQ36" s="13">
-        <v>34366</v>
+        <v>39897</v>
       </c>
       <c r="AR36" s="13">
-        <v>39897</v>
+        <v>25705</v>
       </c>
       <c r="AS36" s="13">
-        <v>34635</v>
+        <v>41000</v>
       </c>
       <c r="AT36" s="13">
-        <v>41000</v>
+        <v>51223</v>
       </c>
       <c r="AU36" s="13">
-        <v>51223</v>
+        <v>41948</v>
       </c>
       <c r="AV36" s="13">
-        <v>44460</v>
+        <v>43342</v>
       </c>
       <c r="AW36" s="13">
-        <v>43342</v>
+        <v>40588</v>
       </c>
       <c r="AX36" s="13">
-        <v>40588</v>
+        <v>43212</v>
       </c>
       <c r="AY36" s="13">
-        <v>43212</v>
+        <v>41670</v>
       </c>
       <c r="AZ36" s="13">
-        <v>41670</v>
+        <v>43631</v>
       </c>
       <c r="BA36" s="13">
-        <v>43631</v>
+        <v>45961</v>
       </c>
       <c r="BB36" s="13">
-        <v>45961</v>
+        <v>37461</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>60</v>
       </c>
@@ -5016,23 +5051,23 @@
       <c r="AO37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AP37" s="11" t="s">
-        <v>61</v>
+      <c r="AP37" s="11">
+        <v>153</v>
       </c>
       <c r="AQ37" s="11">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="11">
         <v>0</v>
       </c>
       <c r="AS37" s="11">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="AT37" s="11">
-        <v>764</v>
+        <v>68</v>
       </c>
       <c r="AU37" s="11">
-        <v>68</v>
+        <v>-68</v>
       </c>
       <c r="AV37" s="11">
         <v>0</v>
@@ -5056,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>62</v>
       </c>
@@ -5065,157 +5100,157 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>12811</v>
+        <v>13963</v>
       </c>
       <c r="F38" s="13">
-        <v>13963</v>
+        <v>5339</v>
       </c>
       <c r="G38" s="13">
-        <v>5339</v>
+        <v>12605</v>
       </c>
       <c r="H38" s="13">
-        <v>12605</v>
+        <v>28978</v>
       </c>
       <c r="I38" s="13">
-        <v>28978</v>
+        <v>16654</v>
       </c>
       <c r="J38" s="13">
-        <v>16654</v>
+        <v>17374</v>
       </c>
       <c r="K38" s="13">
-        <v>17374</v>
+        <v>15870</v>
       </c>
       <c r="L38" s="13">
-        <v>15870</v>
+        <v>13114</v>
       </c>
       <c r="M38" s="13">
-        <v>13114</v>
+        <v>10737</v>
       </c>
       <c r="N38" s="13">
-        <v>10737</v>
+        <v>6346</v>
       </c>
       <c r="O38" s="13">
-        <v>6346</v>
+        <v>5618</v>
       </c>
       <c r="P38" s="13">
-        <v>5618</v>
+        <v>5055</v>
       </c>
       <c r="Q38" s="13">
-        <v>5055</v>
+        <v>1079</v>
       </c>
       <c r="R38" s="13">
-        <v>1079</v>
+        <v>7424</v>
       </c>
       <c r="S38" s="13">
-        <v>7424</v>
+        <v>6395</v>
       </c>
       <c r="T38" s="13">
-        <v>6395</v>
+        <v>10407</v>
       </c>
       <c r="U38" s="13">
-        <v>10407</v>
+        <v>17948</v>
       </c>
       <c r="V38" s="13">
-        <v>17948</v>
+        <v>7311</v>
       </c>
       <c r="W38" s="13">
-        <v>7311</v>
+        <v>15830</v>
       </c>
       <c r="X38" s="13">
-        <v>15830</v>
+        <v>21334</v>
       </c>
       <c r="Y38" s="13">
-        <v>21334</v>
+        <v>7862</v>
       </c>
       <c r="Z38" s="13">
-        <v>7862</v>
+        <v>5122</v>
       </c>
       <c r="AA38" s="13">
-        <v>5122</v>
+        <v>11134</v>
       </c>
       <c r="AB38" s="13">
-        <v>11134</v>
+        <v>15936</v>
       </c>
       <c r="AC38" s="13">
-        <v>15936</v>
+        <v>15806</v>
       </c>
       <c r="AD38" s="13">
-        <v>15806</v>
+        <v>15568</v>
       </c>
       <c r="AE38" s="13">
-        <v>15568</v>
+        <v>12847</v>
       </c>
       <c r="AF38" s="13">
-        <v>12847</v>
+        <v>22615</v>
       </c>
       <c r="AG38" s="13">
-        <v>22615</v>
+        <v>7324</v>
       </c>
       <c r="AH38" s="13">
-        <v>7324</v>
+        <v>7056</v>
       </c>
       <c r="AI38" s="13">
-        <v>7056</v>
+        <v>5127</v>
       </c>
       <c r="AJ38" s="13">
-        <v>5127</v>
+        <v>14432</v>
       </c>
       <c r="AK38" s="13">
-        <v>14432</v>
+        <v>34669</v>
       </c>
       <c r="AL38" s="13">
-        <v>34669</v>
+        <v>46444</v>
       </c>
       <c r="AM38" s="13">
-        <v>46444</v>
+        <v>43968</v>
       </c>
       <c r="AN38" s="13">
-        <v>43968</v>
+        <v>35084</v>
       </c>
       <c r="AO38" s="13">
-        <v>35084</v>
+        <v>48794</v>
       </c>
       <c r="AP38" s="13">
-        <v>48794</v>
+        <v>39165</v>
       </c>
       <c r="AQ38" s="13">
-        <v>39165</v>
+        <v>17401</v>
       </c>
       <c r="AR38" s="13">
-        <v>17401</v>
+        <v>50215</v>
       </c>
       <c r="AS38" s="13">
-        <v>50215</v>
+        <v>23111</v>
       </c>
       <c r="AT38" s="13">
-        <v>23111</v>
+        <v>21878</v>
       </c>
       <c r="AU38" s="13">
-        <v>21878</v>
+        <v>10568</v>
       </c>
       <c r="AV38" s="13">
-        <v>10568</v>
+        <v>60594</v>
       </c>
       <c r="AW38" s="13">
-        <v>60594</v>
+        <v>42348</v>
       </c>
       <c r="AX38" s="13">
-        <v>42348</v>
+        <v>36767</v>
       </c>
       <c r="AY38" s="13">
-        <v>36767</v>
+        <v>25145</v>
       </c>
       <c r="AZ38" s="13">
-        <v>25145</v>
+        <v>17980</v>
       </c>
       <c r="BA38" s="13">
-        <v>17980</v>
+        <v>22787</v>
       </c>
       <c r="BB38" s="13">
-        <v>22787</v>
+        <v>25796</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -5224,157 +5259,157 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>1859</v>
+        <v>984</v>
       </c>
       <c r="F39" s="11">
-        <v>984</v>
+        <v>474</v>
       </c>
       <c r="G39" s="11">
-        <v>474</v>
+        <v>1010</v>
       </c>
       <c r="H39" s="11">
-        <v>1010</v>
+        <v>1266</v>
       </c>
       <c r="I39" s="11">
-        <v>1266</v>
+        <v>742</v>
       </c>
       <c r="J39" s="11">
-        <v>742</v>
+        <v>1116</v>
       </c>
       <c r="K39" s="11">
-        <v>1116</v>
+        <v>2260</v>
       </c>
       <c r="L39" s="11">
-        <v>2260</v>
+        <v>780</v>
       </c>
       <c r="M39" s="11">
-        <v>780</v>
+        <v>952</v>
       </c>
       <c r="N39" s="11">
-        <v>952</v>
+        <v>304</v>
       </c>
       <c r="O39" s="11">
-        <v>304</v>
+        <v>992</v>
       </c>
       <c r="P39" s="11">
-        <v>992</v>
+        <v>339</v>
       </c>
       <c r="Q39" s="11">
-        <v>339</v>
+        <v>124</v>
       </c>
       <c r="R39" s="11">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="S39" s="11">
-        <v>265</v>
+        <v>809</v>
       </c>
       <c r="T39" s="11">
-        <v>809</v>
+        <v>293</v>
       </c>
       <c r="U39" s="11">
-        <v>293</v>
+        <v>508</v>
       </c>
       <c r="V39" s="11">
-        <v>508</v>
+        <v>776</v>
       </c>
       <c r="W39" s="11">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="X39" s="11">
-        <v>803</v>
+        <v>699</v>
       </c>
       <c r="Y39" s="11">
-        <v>699</v>
+        <v>1034</v>
       </c>
       <c r="Z39" s="11">
-        <v>1034</v>
+        <v>861</v>
       </c>
       <c r="AA39" s="11">
-        <v>861</v>
+        <v>1581</v>
       </c>
       <c r="AB39" s="11">
-        <v>1581</v>
+        <v>2349</v>
       </c>
       <c r="AC39" s="11">
-        <v>2349</v>
+        <v>1608</v>
       </c>
       <c r="AD39" s="11">
-        <v>1608</v>
+        <v>422</v>
       </c>
       <c r="AE39" s="11">
-        <v>422</v>
+        <v>972</v>
       </c>
       <c r="AF39" s="11">
-        <v>972</v>
+        <v>1182</v>
       </c>
       <c r="AG39" s="11">
-        <v>1182</v>
+        <v>344</v>
       </c>
       <c r="AH39" s="11">
-        <v>344</v>
+        <v>1446</v>
       </c>
       <c r="AI39" s="11">
-        <v>1446</v>
+        <v>181</v>
       </c>
       <c r="AJ39" s="11">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="11">
         <v>0</v>
       </c>
       <c r="AL39" s="11">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AM39" s="11">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AN39" s="11">
-        <v>326</v>
+        <v>823</v>
       </c>
       <c r="AO39" s="11">
-        <v>823</v>
+        <v>199</v>
       </c>
       <c r="AP39" s="11">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="11">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="AR39" s="11">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="AS39" s="11">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AT39" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="11">
         <v>0</v>
       </c>
       <c r="AV39" s="11">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AW39" s="11">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="11">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="AY39" s="11">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BA39" s="11">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="BB39" s="11">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>64</v>
       </c>
@@ -5383,157 +5418,157 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>177622</v>
+        <v>134024</v>
       </c>
       <c r="F40" s="13">
-        <v>134024</v>
+        <v>176456</v>
       </c>
       <c r="G40" s="13">
-        <v>176456</v>
+        <v>231288</v>
       </c>
       <c r="H40" s="13">
-        <v>231288</v>
+        <v>225163</v>
       </c>
       <c r="I40" s="13">
-        <v>225163</v>
+        <v>158251</v>
       </c>
       <c r="J40" s="13">
-        <v>158251</v>
+        <v>219269</v>
       </c>
       <c r="K40" s="13">
-        <v>219269</v>
+        <v>183950</v>
       </c>
       <c r="L40" s="13">
-        <v>183950</v>
+        <v>191408</v>
       </c>
       <c r="M40" s="13">
-        <v>191408</v>
+        <v>180622</v>
       </c>
       <c r="N40" s="13">
-        <v>180622</v>
+        <v>230995</v>
       </c>
       <c r="O40" s="13">
-        <v>230995</v>
+        <v>187269</v>
       </c>
       <c r="P40" s="13">
-        <v>187269</v>
+        <v>161646</v>
       </c>
       <c r="Q40" s="13">
-        <v>161646</v>
+        <v>165096</v>
       </c>
       <c r="R40" s="13">
-        <v>165096</v>
+        <v>173879</v>
       </c>
       <c r="S40" s="13">
-        <v>173879</v>
+        <v>214531</v>
       </c>
       <c r="T40" s="13">
-        <v>214531</v>
+        <v>203757</v>
       </c>
       <c r="U40" s="13">
-        <v>203757</v>
+        <v>153373</v>
       </c>
       <c r="V40" s="13">
-        <v>153373</v>
+        <v>215585</v>
       </c>
       <c r="W40" s="13">
-        <v>215585</v>
+        <v>163026</v>
       </c>
       <c r="X40" s="13">
-        <v>163026</v>
+        <v>170636</v>
       </c>
       <c r="Y40" s="13">
-        <v>170636</v>
+        <v>211040</v>
       </c>
       <c r="Z40" s="13">
-        <v>211040</v>
+        <v>138402</v>
       </c>
       <c r="AA40" s="13">
-        <v>138402</v>
+        <v>184487</v>
       </c>
       <c r="AB40" s="13">
-        <v>184487</v>
+        <v>213567</v>
       </c>
       <c r="AC40" s="13">
-        <v>213567</v>
+        <v>163676</v>
       </c>
       <c r="AD40" s="13">
-        <v>163676</v>
+        <v>161451</v>
       </c>
       <c r="AE40" s="13">
-        <v>161451</v>
+        <v>196931</v>
       </c>
       <c r="AF40" s="13">
-        <v>196931</v>
+        <v>182662</v>
       </c>
       <c r="AG40" s="13">
-        <v>182662</v>
+        <v>169087</v>
       </c>
       <c r="AH40" s="13">
-        <v>169087</v>
+        <v>170300</v>
       </c>
       <c r="AI40" s="13">
-        <v>170300</v>
+        <v>122720</v>
       </c>
       <c r="AJ40" s="13">
-        <v>122720</v>
+        <v>145215</v>
       </c>
       <c r="AK40" s="13">
-        <v>145215</v>
+        <v>164449</v>
       </c>
       <c r="AL40" s="13">
-        <v>164449</v>
+        <v>226034</v>
       </c>
       <c r="AM40" s="13">
-        <v>226034</v>
+        <v>190888</v>
       </c>
       <c r="AN40" s="13">
-        <v>190888</v>
+        <v>216864</v>
       </c>
       <c r="AO40" s="13">
-        <v>216864</v>
+        <v>215016</v>
       </c>
       <c r="AP40" s="13">
-        <v>215016</v>
+        <v>239992</v>
       </c>
       <c r="AQ40" s="13">
-        <v>239992</v>
+        <v>228548</v>
       </c>
       <c r="AR40" s="13">
-        <v>228548</v>
+        <v>289947</v>
       </c>
       <c r="AS40" s="13">
-        <v>244926</v>
+        <v>209273</v>
       </c>
       <c r="AT40" s="13">
-        <v>209273</v>
+        <v>271284</v>
       </c>
       <c r="AU40" s="13">
-        <v>271284</v>
+        <v>-17646</v>
       </c>
       <c r="AV40" s="13">
-        <v>232236</v>
+        <v>85862</v>
       </c>
       <c r="AW40" s="13">
-        <v>85862</v>
+        <v>188550</v>
       </c>
       <c r="AX40" s="13">
-        <v>188550</v>
+        <v>420951</v>
       </c>
       <c r="AY40" s="13">
-        <v>420951</v>
+        <v>296910</v>
       </c>
       <c r="AZ40" s="13">
-        <v>296910</v>
+        <v>216490</v>
       </c>
       <c r="BA40" s="13">
-        <v>216490</v>
+        <v>208322</v>
       </c>
       <c r="BB40" s="13">
-        <v>208322</v>
+        <v>199670</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>65</v>
       </c>
@@ -5542,157 +5577,157 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>205143</v>
+        <v>201834</v>
       </c>
       <c r="F41" s="11">
-        <v>201834</v>
+        <v>189039</v>
       </c>
       <c r="G41" s="11">
-        <v>189039</v>
+        <v>215200</v>
       </c>
       <c r="H41" s="11">
-        <v>215200</v>
+        <v>197116</v>
       </c>
       <c r="I41" s="11">
-        <v>197116</v>
+        <v>182279</v>
       </c>
       <c r="J41" s="11">
-        <v>182279</v>
+        <v>223394</v>
       </c>
       <c r="K41" s="11">
-        <v>223394</v>
+        <v>210093</v>
       </c>
       <c r="L41" s="11">
-        <v>210093</v>
+        <v>183290</v>
       </c>
       <c r="M41" s="11">
-        <v>183290</v>
+        <v>199091</v>
       </c>
       <c r="N41" s="11">
-        <v>199091</v>
+        <v>233795</v>
       </c>
       <c r="O41" s="11">
-        <v>233795</v>
+        <v>214390</v>
       </c>
       <c r="P41" s="11">
-        <v>214390</v>
+        <v>210542</v>
       </c>
       <c r="Q41" s="11">
-        <v>210542</v>
+        <v>161784</v>
       </c>
       <c r="R41" s="11">
-        <v>161784</v>
+        <v>205866</v>
       </c>
       <c r="S41" s="11">
-        <v>205866</v>
+        <v>203075</v>
       </c>
       <c r="T41" s="11">
-        <v>203075</v>
+        <v>192666</v>
       </c>
       <c r="U41" s="11">
-        <v>192666</v>
+        <v>152930</v>
       </c>
       <c r="V41" s="11">
-        <v>152930</v>
+        <v>213504</v>
       </c>
       <c r="W41" s="11">
-        <v>213504</v>
+        <v>192930</v>
       </c>
       <c r="X41" s="11">
-        <v>192930</v>
+        <v>181097</v>
       </c>
       <c r="Y41" s="11">
-        <v>181097</v>
+        <v>199166</v>
       </c>
       <c r="Z41" s="11">
-        <v>199166</v>
+        <v>200208</v>
       </c>
       <c r="AA41" s="11">
-        <v>200208</v>
+        <v>206747</v>
       </c>
       <c r="AB41" s="11">
-        <v>206747</v>
+        <v>197504</v>
       </c>
       <c r="AC41" s="11">
-        <v>197504</v>
+        <v>194636</v>
       </c>
       <c r="AD41" s="11">
-        <v>194636</v>
+        <v>203605</v>
       </c>
       <c r="AE41" s="11">
-        <v>203605</v>
+        <v>202235</v>
       </c>
       <c r="AF41" s="11">
-        <v>202235</v>
+        <v>207290</v>
       </c>
       <c r="AG41" s="11">
-        <v>207290</v>
+        <v>204811</v>
       </c>
       <c r="AH41" s="11">
-        <v>204811</v>
+        <v>213598</v>
       </c>
       <c r="AI41" s="11">
-        <v>213598</v>
+        <v>193936</v>
       </c>
       <c r="AJ41" s="11">
-        <v>193936</v>
+        <v>157089</v>
       </c>
       <c r="AK41" s="11">
-        <v>157089</v>
+        <v>129700</v>
       </c>
       <c r="AL41" s="11">
-        <v>129700</v>
+        <v>169683</v>
       </c>
       <c r="AM41" s="11">
-        <v>169683</v>
+        <v>206199</v>
       </c>
       <c r="AN41" s="11">
-        <v>206199</v>
+        <v>181718</v>
       </c>
       <c r="AO41" s="11">
-        <v>181718</v>
+        <v>197777</v>
       </c>
       <c r="AP41" s="11">
-        <v>197777</v>
+        <v>197679</v>
       </c>
       <c r="AQ41" s="11">
-        <v>197679</v>
+        <v>196712</v>
       </c>
       <c r="AR41" s="11">
-        <v>196712</v>
+        <v>167924</v>
       </c>
       <c r="AS41" s="11">
-        <v>200215</v>
+        <v>185069</v>
       </c>
       <c r="AT41" s="11">
-        <v>185069</v>
+        <v>194424</v>
       </c>
       <c r="AU41" s="11">
-        <v>194424</v>
+        <v>211570</v>
       </c>
       <c r="AV41" s="11">
-        <v>197207</v>
+        <v>213998</v>
       </c>
       <c r="AW41" s="11">
-        <v>213998</v>
+        <v>151646</v>
       </c>
       <c r="AX41" s="11">
-        <v>151646</v>
+        <v>156207</v>
       </c>
       <c r="AY41" s="11">
-        <v>156207</v>
+        <v>173768</v>
       </c>
       <c r="AZ41" s="11">
-        <v>173768</v>
+        <v>205442</v>
       </c>
       <c r="BA41" s="11">
-        <v>205442</v>
+        <v>205212</v>
       </c>
       <c r="BB41" s="11">
-        <v>205212</v>
+        <v>176995</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>66</v>
       </c>
@@ -5701,16 +5736,16 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>0</v>
+        <v>4896</v>
       </c>
       <c r="F42" s="13">
-        <v>4896</v>
+        <v>0</v>
       </c>
       <c r="G42" s="13">
-        <v>0</v>
+        <v>5322</v>
       </c>
       <c r="H42" s="13">
-        <v>5322</v>
+        <v>0</v>
       </c>
       <c r="I42" s="13">
         <v>0</v>
@@ -5719,16 +5754,16 @@
         <v>0</v>
       </c>
       <c r="K42" s="13">
-        <v>0</v>
+        <v>5085</v>
       </c>
       <c r="L42" s="13">
-        <v>5085</v>
+        <v>5192</v>
       </c>
       <c r="M42" s="13">
-        <v>5192</v>
+        <v>5247</v>
       </c>
       <c r="N42" s="13">
-        <v>5247</v>
+        <v>0</v>
       </c>
       <c r="O42" s="13">
         <v>0</v>
@@ -5743,19 +5778,19 @@
         <v>0</v>
       </c>
       <c r="S42" s="13">
-        <v>0</v>
+        <v>4981</v>
       </c>
       <c r="T42" s="13">
-        <v>4981</v>
+        <v>0</v>
       </c>
       <c r="U42" s="13">
-        <v>0</v>
+        <v>5387</v>
       </c>
       <c r="V42" s="13">
-        <v>5387</v>
+        <v>5332</v>
       </c>
       <c r="W42" s="13">
-        <v>5332</v>
+        <v>0</v>
       </c>
       <c r="X42" s="13">
         <v>0</v>
@@ -5764,10 +5799,10 @@
         <v>0</v>
       </c>
       <c r="Z42" s="13">
-        <v>0</v>
+        <v>4816</v>
       </c>
       <c r="AA42" s="13">
-        <v>4816</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="13">
         <v>0</v>
@@ -5776,19 +5811,19 @@
         <v>0</v>
       </c>
       <c r="AD42" s="13">
-        <v>0</v>
+        <v>5288</v>
       </c>
       <c r="AE42" s="13">
-        <v>5288</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="13">
-        <v>0</v>
+        <v>4823</v>
       </c>
       <c r="AG42" s="13">
-        <v>4823</v>
+        <v>4830</v>
       </c>
       <c r="AH42" s="13">
-        <v>4830</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="13">
         <v>0</v>
@@ -5809,49 +5844,49 @@
         <v>0</v>
       </c>
       <c r="AO42" s="13">
-        <v>0</v>
+        <v>4513</v>
       </c>
       <c r="AP42" s="13">
-        <v>4513</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="13">
-        <v>0</v>
+        <v>4533</v>
       </c>
       <c r="AR42" s="13">
-        <v>4533</v>
+        <v>2703</v>
       </c>
       <c r="AS42" s="13">
-        <v>0</v>
+        <v>1429</v>
       </c>
       <c r="AT42" s="13">
-        <v>1429</v>
+        <v>4672</v>
       </c>
       <c r="AU42" s="13">
-        <v>4672</v>
+        <v>-2922</v>
       </c>
       <c r="AV42" s="13">
-        <v>4770</v>
+        <v>1454</v>
       </c>
       <c r="AW42" s="13">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="13">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="AY42" s="13">
-        <v>701</v>
+        <v>-435</v>
       </c>
       <c r="AZ42" s="13">
-        <v>-435</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="13">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="BB42" s="13">
-        <v>5447</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>67</v>
       </c>
@@ -5860,157 +5895,157 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>74248</v>
+        <v>64705</v>
       </c>
       <c r="F43" s="11">
-        <v>64705</v>
+        <v>74079</v>
       </c>
       <c r="G43" s="11">
-        <v>74079</v>
+        <v>69477</v>
       </c>
       <c r="H43" s="11">
-        <v>69477</v>
+        <v>54301</v>
       </c>
       <c r="I43" s="11">
-        <v>54301</v>
+        <v>40115</v>
       </c>
       <c r="J43" s="11">
-        <v>40115</v>
+        <v>68603</v>
       </c>
       <c r="K43" s="11">
-        <v>68603</v>
+        <v>73640</v>
       </c>
       <c r="L43" s="11">
-        <v>73640</v>
+        <v>58501</v>
       </c>
       <c r="M43" s="11">
-        <v>58501</v>
+        <v>44221</v>
       </c>
       <c r="N43" s="11">
-        <v>44221</v>
+        <v>72996</v>
       </c>
       <c r="O43" s="11">
-        <v>72996</v>
+        <v>53129</v>
       </c>
       <c r="P43" s="11">
-        <v>53129</v>
+        <v>59523</v>
       </c>
       <c r="Q43" s="11">
-        <v>59523</v>
+        <v>43216</v>
       </c>
       <c r="R43" s="11">
-        <v>43216</v>
+        <v>49495</v>
       </c>
       <c r="S43" s="11">
-        <v>49495</v>
+        <v>65271</v>
       </c>
       <c r="T43" s="11">
-        <v>65271</v>
+        <v>64376</v>
       </c>
       <c r="U43" s="11">
-        <v>64376</v>
+        <v>68797</v>
       </c>
       <c r="V43" s="11">
-        <v>68797</v>
+        <v>39339</v>
       </c>
       <c r="W43" s="11">
-        <v>39339</v>
+        <v>24933</v>
       </c>
       <c r="X43" s="11">
-        <v>24933</v>
+        <v>29575</v>
       </c>
       <c r="Y43" s="11">
-        <v>29575</v>
+        <v>34662</v>
       </c>
       <c r="Z43" s="11">
-        <v>34662</v>
+        <v>9312</v>
       </c>
       <c r="AA43" s="11">
-        <v>9312</v>
+        <v>44181</v>
       </c>
       <c r="AB43" s="11">
-        <v>44181</v>
+        <v>68872</v>
       </c>
       <c r="AC43" s="11">
-        <v>68872</v>
+        <v>53276</v>
       </c>
       <c r="AD43" s="11">
-        <v>53276</v>
+        <v>53475</v>
       </c>
       <c r="AE43" s="11">
-        <v>53475</v>
+        <v>33817</v>
       </c>
       <c r="AF43" s="11">
-        <v>33817</v>
+        <v>49203</v>
       </c>
       <c r="AG43" s="11">
-        <v>49203</v>
+        <v>48879</v>
       </c>
       <c r="AH43" s="11">
-        <v>48879</v>
+        <v>63497</v>
       </c>
       <c r="AI43" s="11">
-        <v>63497</v>
+        <v>59047</v>
       </c>
       <c r="AJ43" s="11">
-        <v>59047</v>
+        <v>47759</v>
       </c>
       <c r="AK43" s="11">
-        <v>47759</v>
+        <v>68437</v>
       </c>
       <c r="AL43" s="11">
-        <v>68437</v>
+        <v>68519</v>
       </c>
       <c r="AM43" s="11">
-        <v>68519</v>
+        <v>73268</v>
       </c>
       <c r="AN43" s="11">
-        <v>73268</v>
+        <v>68445</v>
       </c>
       <c r="AO43" s="11">
-        <v>68445</v>
+        <v>63881</v>
       </c>
       <c r="AP43" s="11">
-        <v>63881</v>
+        <v>58056</v>
       </c>
       <c r="AQ43" s="11">
-        <v>58056</v>
+        <v>64326</v>
       </c>
       <c r="AR43" s="11">
-        <v>64326</v>
+        <v>47006</v>
       </c>
       <c r="AS43" s="11">
-        <v>64106</v>
+        <v>59462</v>
       </c>
       <c r="AT43" s="11">
-        <v>59462</v>
+        <v>57123</v>
       </c>
       <c r="AU43" s="11">
-        <v>57123</v>
+        <v>62213</v>
       </c>
       <c r="AV43" s="11">
-        <v>57772</v>
+        <v>60298</v>
       </c>
       <c r="AW43" s="11">
-        <v>60298</v>
+        <v>33531</v>
       </c>
       <c r="AX43" s="11">
-        <v>33531</v>
+        <v>72915</v>
       </c>
       <c r="AY43" s="11">
-        <v>72915</v>
+        <v>56329</v>
       </c>
       <c r="AZ43" s="11">
-        <v>56329</v>
+        <v>48776</v>
       </c>
       <c r="BA43" s="11">
-        <v>48776</v>
+        <v>49113</v>
       </c>
       <c r="BB43" s="11">
-        <v>49113</v>
+        <v>48648</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>68</v>
       </c>
@@ -6019,157 +6054,157 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>72563</v>
+        <v>74836</v>
       </c>
       <c r="F44" s="13">
-        <v>74836</v>
+        <v>81533</v>
       </c>
       <c r="G44" s="13">
-        <v>81533</v>
+        <v>77312</v>
       </c>
       <c r="H44" s="13">
-        <v>77312</v>
+        <v>66721</v>
       </c>
       <c r="I44" s="13">
-        <v>66721</v>
+        <v>72833</v>
       </c>
       <c r="J44" s="13">
-        <v>72833</v>
+        <v>71348</v>
       </c>
       <c r="K44" s="13">
-        <v>71348</v>
+        <v>69249</v>
       </c>
       <c r="L44" s="13">
-        <v>69249</v>
+        <v>70081</v>
       </c>
       <c r="M44" s="13">
-        <v>70081</v>
+        <v>74329</v>
       </c>
       <c r="N44" s="13">
-        <v>74329</v>
+        <v>69204</v>
       </c>
       <c r="O44" s="13">
-        <v>69204</v>
+        <v>81667</v>
       </c>
       <c r="P44" s="13">
-        <v>81667</v>
+        <v>53637</v>
       </c>
       <c r="Q44" s="13">
-        <v>53637</v>
+        <v>40129</v>
       </c>
       <c r="R44" s="13">
-        <v>40129</v>
+        <v>71049</v>
       </c>
       <c r="S44" s="13">
-        <v>71049</v>
+        <v>56951</v>
       </c>
       <c r="T44" s="13">
-        <v>56951</v>
+        <v>69438</v>
       </c>
       <c r="U44" s="13">
-        <v>69438</v>
+        <v>66186</v>
       </c>
       <c r="V44" s="13">
-        <v>66186</v>
+        <v>48275</v>
       </c>
       <c r="W44" s="13">
-        <v>48275</v>
+        <v>52750</v>
       </c>
       <c r="X44" s="13">
-        <v>52750</v>
+        <v>63087</v>
       </c>
       <c r="Y44" s="13">
-        <v>63087</v>
+        <v>73470</v>
       </c>
       <c r="Z44" s="13">
-        <v>73470</v>
+        <v>83915</v>
       </c>
       <c r="AA44" s="13">
-        <v>83915</v>
+        <v>67884</v>
       </c>
       <c r="AB44" s="13">
-        <v>67884</v>
+        <v>65298</v>
       </c>
       <c r="AC44" s="13">
-        <v>65298</v>
+        <v>76662</v>
       </c>
       <c r="AD44" s="13">
-        <v>76662</v>
+        <v>71385</v>
       </c>
       <c r="AE44" s="13">
-        <v>71385</v>
+        <v>72879</v>
       </c>
       <c r="AF44" s="13">
-        <v>72879</v>
+        <v>79631</v>
       </c>
       <c r="AG44" s="13">
-        <v>79631</v>
+        <v>77297</v>
       </c>
       <c r="AH44" s="13">
-        <v>77297</v>
+        <v>65531</v>
       </c>
       <c r="AI44" s="13">
-        <v>65531</v>
+        <v>66082</v>
       </c>
       <c r="AJ44" s="13">
-        <v>66082</v>
+        <v>55702</v>
       </c>
       <c r="AK44" s="13">
-        <v>55702</v>
+        <v>41694</v>
       </c>
       <c r="AL44" s="13">
-        <v>41694</v>
+        <v>74969</v>
       </c>
       <c r="AM44" s="13">
-        <v>74969</v>
+        <v>83023</v>
       </c>
       <c r="AN44" s="13">
-        <v>83023</v>
+        <v>72123</v>
       </c>
       <c r="AO44" s="13">
-        <v>72123</v>
+        <v>74811</v>
       </c>
       <c r="AP44" s="13">
-        <v>74811</v>
+        <v>71739</v>
       </c>
       <c r="AQ44" s="13">
-        <v>71739</v>
+        <v>79523</v>
       </c>
       <c r="AR44" s="13">
-        <v>79523</v>
+        <v>69079</v>
       </c>
       <c r="AS44" s="13">
-        <v>69063</v>
+        <v>69105</v>
       </c>
       <c r="AT44" s="13">
-        <v>69105</v>
+        <v>70340</v>
       </c>
       <c r="AU44" s="13">
-        <v>70340</v>
+        <v>72574</v>
       </c>
       <c r="AV44" s="13">
-        <v>71916</v>
+        <v>61184</v>
       </c>
       <c r="AW44" s="13">
-        <v>61184</v>
+        <v>79164</v>
       </c>
       <c r="AX44" s="13">
-        <v>79164</v>
+        <v>73208</v>
       </c>
       <c r="AY44" s="13">
-        <v>73208</v>
+        <v>82739</v>
       </c>
       <c r="AZ44" s="13">
-        <v>82739</v>
+        <v>83419</v>
       </c>
       <c r="BA44" s="13">
-        <v>83419</v>
+        <v>78002</v>
       </c>
       <c r="BB44" s="13">
-        <v>78002</v>
+        <v>70239</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>69</v>
       </c>
@@ -6178,157 +6213,157 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>425454</v>
+        <v>434518</v>
       </c>
       <c r="F45" s="11">
-        <v>434518</v>
+        <v>415163</v>
       </c>
       <c r="G45" s="11">
-        <v>415163</v>
+        <v>399322</v>
       </c>
       <c r="H45" s="11">
-        <v>399322</v>
+        <v>426988</v>
       </c>
       <c r="I45" s="11">
-        <v>426988</v>
+        <v>414328</v>
       </c>
       <c r="J45" s="11">
-        <v>414328</v>
+        <v>408579</v>
       </c>
       <c r="K45" s="11">
-        <v>408579</v>
+        <v>441699</v>
       </c>
       <c r="L45" s="11">
-        <v>441699</v>
+        <v>422732</v>
       </c>
       <c r="M45" s="11">
-        <v>422732</v>
+        <v>434186</v>
       </c>
       <c r="N45" s="11">
-        <v>434186</v>
+        <v>490212</v>
       </c>
       <c r="O45" s="11">
-        <v>490212</v>
+        <v>466230</v>
       </c>
       <c r="P45" s="11">
-        <v>466230</v>
+        <v>418653</v>
       </c>
       <c r="Q45" s="11">
-        <v>418653</v>
+        <v>330888</v>
       </c>
       <c r="R45" s="11">
-        <v>330888</v>
+        <v>465219</v>
       </c>
       <c r="S45" s="11">
-        <v>465219</v>
+        <v>450131</v>
       </c>
       <c r="T45" s="11">
-        <v>450131</v>
+        <v>413490</v>
       </c>
       <c r="U45" s="11">
-        <v>413490</v>
+        <v>415518</v>
       </c>
       <c r="V45" s="11">
-        <v>415518</v>
+        <v>401775</v>
       </c>
       <c r="W45" s="11">
-        <v>401775</v>
+        <v>399066</v>
       </c>
       <c r="X45" s="11">
-        <v>399066</v>
+        <v>418682</v>
       </c>
       <c r="Y45" s="11">
-        <v>418682</v>
+        <v>386900</v>
       </c>
       <c r="Z45" s="11">
-        <v>386900</v>
+        <v>414177</v>
       </c>
       <c r="AA45" s="11">
-        <v>414177</v>
+        <v>457687</v>
       </c>
       <c r="AB45" s="11">
-        <v>457687</v>
+        <v>428900</v>
       </c>
       <c r="AC45" s="11">
-        <v>428900</v>
+        <v>456574</v>
       </c>
       <c r="AD45" s="11">
-        <v>456574</v>
+        <v>420706</v>
       </c>
       <c r="AE45" s="11">
-        <v>420706</v>
+        <v>419830</v>
       </c>
       <c r="AF45" s="11">
-        <v>419830</v>
+        <v>469868</v>
       </c>
       <c r="AG45" s="11">
-        <v>469868</v>
+        <v>389504</v>
       </c>
       <c r="AH45" s="11">
-        <v>389504</v>
+        <v>416892</v>
       </c>
       <c r="AI45" s="11">
-        <v>416892</v>
+        <v>385525</v>
       </c>
       <c r="AJ45" s="11">
-        <v>385525</v>
+        <v>319038</v>
       </c>
       <c r="AK45" s="11">
-        <v>319038</v>
+        <v>271548</v>
       </c>
       <c r="AL45" s="11">
-        <v>271548</v>
+        <v>433873</v>
       </c>
       <c r="AM45" s="11">
-        <v>433873</v>
+        <v>471762</v>
       </c>
       <c r="AN45" s="11">
-        <v>471762</v>
+        <v>394365</v>
       </c>
       <c r="AO45" s="11">
-        <v>394365</v>
+        <v>405902</v>
       </c>
       <c r="AP45" s="11">
-        <v>405902</v>
+        <v>429147</v>
       </c>
       <c r="AQ45" s="11">
-        <v>429147</v>
+        <v>387969</v>
       </c>
       <c r="AR45" s="11">
-        <v>387969</v>
+        <v>396962</v>
       </c>
       <c r="AS45" s="11">
-        <v>433915</v>
+        <v>389540</v>
       </c>
       <c r="AT45" s="11">
-        <v>389540</v>
+        <v>452184</v>
       </c>
       <c r="AU45" s="11">
-        <v>452184</v>
+        <v>366031</v>
       </c>
       <c r="AV45" s="11">
-        <v>429883</v>
+        <v>427607</v>
       </c>
       <c r="AW45" s="11">
-        <v>427607</v>
+        <v>466203</v>
       </c>
       <c r="AX45" s="11">
-        <v>466203</v>
+        <v>427663</v>
       </c>
       <c r="AY45" s="11">
-        <v>427663</v>
+        <v>469891</v>
       </c>
       <c r="AZ45" s="11">
-        <v>469891</v>
+        <v>452133</v>
       </c>
       <c r="BA45" s="11">
-        <v>452133</v>
+        <v>446721</v>
       </c>
       <c r="BB45" s="11">
-        <v>446721</v>
+        <v>397455</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>70</v>
       </c>
@@ -6385,7 +6420,7 @@
       <c r="BA46" s="15"/>
       <c r="BB46" s="15"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
         <v>71</v>
       </c>
@@ -6451,8 +6486,8 @@
       <c r="X47" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Y47" s="17" t="s">
-        <v>61</v>
+      <c r="Y47" s="17">
+        <v>0</v>
       </c>
       <c r="Z47" s="17">
         <v>0</v>
@@ -6542,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>74</v>
       </c>
@@ -6599,7 +6634,7 @@
       <c r="BA48" s="15"/>
       <c r="BB48" s="15"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>75</v>
       </c>
@@ -6665,8 +6700,8 @@
       <c r="X49" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Y49" s="17" t="s">
-        <v>61</v>
+      <c r="Y49" s="17">
+        <v>0</v>
       </c>
       <c r="Z49" s="17">
         <v>0</v>
@@ -6756,164 +6791,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19">
-        <v>1134485</v>
+        <v>1146932</v>
       </c>
       <c r="F50" s="19">
-        <v>1146932</v>
+        <v>1131468</v>
       </c>
       <c r="G50" s="19">
-        <v>1131468</v>
+        <v>1143242</v>
       </c>
       <c r="H50" s="19">
-        <v>1143242</v>
+        <v>1192761</v>
       </c>
       <c r="I50" s="19">
-        <v>1192761</v>
+        <v>1118172</v>
       </c>
       <c r="J50" s="19">
-        <v>1118172</v>
+        <v>1155656</v>
       </c>
       <c r="K50" s="19">
-        <v>1155656</v>
+        <v>1189280</v>
       </c>
       <c r="L50" s="19">
-        <v>1189280</v>
+        <v>1100498</v>
       </c>
       <c r="M50" s="19">
-        <v>1100498</v>
+        <v>1202832</v>
       </c>
       <c r="N50" s="19">
-        <v>1202832</v>
+        <v>1235947</v>
       </c>
       <c r="O50" s="19">
-        <v>1235947</v>
+        <v>1143731</v>
       </c>
       <c r="P50" s="19">
-        <v>1143731</v>
+        <v>1042824</v>
       </c>
       <c r="Q50" s="19">
-        <v>1042824</v>
+        <v>862193</v>
       </c>
       <c r="R50" s="19">
-        <v>862193</v>
+        <v>1125461</v>
       </c>
       <c r="S50" s="19">
-        <v>1125461</v>
+        <v>1159350</v>
       </c>
       <c r="T50" s="19">
-        <v>1159350</v>
+        <v>1107634</v>
       </c>
       <c r="U50" s="19">
-        <v>1107634</v>
+        <v>1016318</v>
       </c>
       <c r="V50" s="19">
-        <v>1016318</v>
+        <v>1047529</v>
       </c>
       <c r="W50" s="19">
-        <v>1047529</v>
+        <v>998561</v>
       </c>
       <c r="X50" s="19">
-        <v>998561</v>
+        <v>1007173</v>
       </c>
       <c r="Y50" s="19">
-        <v>1007173</v>
+        <v>1066276</v>
       </c>
       <c r="Z50" s="19">
-        <v>1066276</v>
+        <v>1021933</v>
       </c>
       <c r="AA50" s="19">
-        <v>1021933</v>
+        <v>1121437</v>
       </c>
       <c r="AB50" s="19">
-        <v>1121437</v>
+        <v>1125770</v>
       </c>
       <c r="AC50" s="19">
-        <v>1125770</v>
+        <v>1102766</v>
       </c>
       <c r="AD50" s="19">
-        <v>1102766</v>
+        <v>1080773</v>
       </c>
       <c r="AE50" s="19">
-        <v>1080773</v>
+        <v>1090539</v>
       </c>
       <c r="AF50" s="19">
-        <v>1090539</v>
+        <v>1156477</v>
       </c>
       <c r="AG50" s="19">
-        <v>1156477</v>
+        <v>1050266</v>
       </c>
       <c r="AH50" s="19">
-        <v>1050266</v>
+        <v>1068960</v>
       </c>
       <c r="AI50" s="19">
-        <v>1068960</v>
+        <v>994888</v>
       </c>
       <c r="AJ50" s="19">
-        <v>994888</v>
+        <v>835495</v>
       </c>
       <c r="AK50" s="19">
-        <v>835495</v>
+        <v>782544</v>
       </c>
       <c r="AL50" s="19">
-        <v>782544</v>
+        <v>1150894</v>
       </c>
       <c r="AM50" s="19">
-        <v>1150894</v>
+        <v>1210523</v>
       </c>
       <c r="AN50" s="19">
-        <v>1210523</v>
+        <v>1087685</v>
       </c>
       <c r="AO50" s="19">
-        <v>1087685</v>
+        <v>1139673</v>
       </c>
       <c r="AP50" s="19">
-        <v>1139673</v>
+        <v>1156437</v>
       </c>
       <c r="AQ50" s="19">
-        <v>1156437</v>
+        <v>1102201</v>
       </c>
       <c r="AR50" s="19">
-        <v>1102201</v>
+        <v>1149346</v>
       </c>
       <c r="AS50" s="19">
-        <v>1202995</v>
+        <v>1073003</v>
       </c>
       <c r="AT50" s="19">
-        <v>1073003</v>
+        <v>1179917</v>
       </c>
       <c r="AU50" s="19">
-        <v>1179917</v>
+        <v>825306</v>
       </c>
       <c r="AV50" s="19">
-        <v>1140983</v>
+        <v>1048489</v>
       </c>
       <c r="AW50" s="19">
-        <v>1048489</v>
+        <v>1107807</v>
       </c>
       <c r="AX50" s="19">
-        <v>1107807</v>
+        <v>1310443</v>
       </c>
       <c r="AY50" s="19">
-        <v>1310443</v>
+        <v>1251300</v>
       </c>
       <c r="AZ50" s="19">
-        <v>1251300</v>
+        <v>1162487</v>
       </c>
       <c r="BA50" s="19">
-        <v>1162487</v>
+        <v>1167478</v>
       </c>
       <c r="BB50" s="19">
-        <v>1167478</v>
+        <v>1055086</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6968,7 +7003,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -7023,7 +7058,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7078,7 +7113,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>76</v>
       </c>
@@ -7235,7 +7270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7290,7 +7325,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>76</v>
       </c>
@@ -7347,7 +7382,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>55</v>
       </c>
@@ -7473,40 +7508,40 @@
         <v>0</v>
       </c>
       <c r="AR57" s="11">
-        <v>0</v>
+        <v>58011737</v>
       </c>
       <c r="AS57" s="11">
-        <v>0</v>
+        <v>6935392</v>
       </c>
       <c r="AT57" s="11">
-        <v>6935392</v>
+        <v>0</v>
       </c>
       <c r="AU57" s="11">
-        <v>0</v>
+        <v>12397154</v>
       </c>
       <c r="AV57" s="11">
-        <v>0</v>
+        <v>7540192</v>
       </c>
       <c r="AW57" s="11">
-        <v>7540192</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="11">
-        <v>0</v>
+        <v>14592002</v>
       </c>
       <c r="AY57" s="11">
-        <v>14592002</v>
+        <v>7783013</v>
       </c>
       <c r="AZ57" s="11">
-        <v>7783013</v>
+        <v>0</v>
       </c>
       <c r="BA57" s="11">
-        <v>0</v>
+        <v>-42312361</v>
       </c>
       <c r="BB57" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>57</v>
       </c>
@@ -7632,40 +7667,40 @@
         <v>0</v>
       </c>
       <c r="AR58" s="13">
-        <v>0</v>
+        <v>8234928</v>
       </c>
       <c r="AS58" s="13">
-        <v>0</v>
+        <v>1694246</v>
       </c>
       <c r="AT58" s="13">
-        <v>1694246</v>
+        <v>0</v>
       </c>
       <c r="AU58" s="13">
-        <v>0</v>
+        <v>1617843</v>
       </c>
       <c r="AV58" s="13">
-        <v>0</v>
+        <v>780771</v>
       </c>
       <c r="AW58" s="13">
-        <v>780771</v>
+        <v>0</v>
       </c>
       <c r="AX58" s="13">
-        <v>0</v>
+        <v>1372625</v>
       </c>
       <c r="AY58" s="13">
-        <v>1372625</v>
+        <v>941099</v>
       </c>
       <c r="AZ58" s="13">
-        <v>941099</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="13">
-        <v>0</v>
+        <v>-4712338</v>
       </c>
       <c r="BB58" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>58</v>
       </c>
@@ -7722,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="U59" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" s="11">
         <v>0</v>
@@ -7791,40 +7826,40 @@
         <v>0</v>
       </c>
       <c r="AR59" s="11">
-        <v>0</v>
+        <v>1309708</v>
       </c>
       <c r="AS59" s="11">
-        <v>0</v>
+        <v>241313</v>
       </c>
       <c r="AT59" s="11">
-        <v>241313</v>
+        <v>0</v>
       </c>
       <c r="AU59" s="11">
-        <v>0</v>
+        <v>522859</v>
       </c>
       <c r="AV59" s="11">
-        <v>0</v>
+        <v>396920</v>
       </c>
       <c r="AW59" s="11">
-        <v>396920</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="11">
-        <v>0</v>
+        <v>402032</v>
       </c>
       <c r="AY59" s="11">
-        <v>402032</v>
+        <v>131260</v>
       </c>
       <c r="AZ59" s="11">
-        <v>131260</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="11">
-        <v>0</v>
+        <v>-1453071</v>
       </c>
       <c r="BB59" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7950,40 +7985,40 @@
         <v>0</v>
       </c>
       <c r="AR60" s="13">
-        <v>0</v>
+        <v>36029073</v>
       </c>
       <c r="AS60" s="13">
-        <v>0</v>
+        <v>4759684</v>
       </c>
       <c r="AT60" s="13">
-        <v>4759684</v>
+        <v>0</v>
       </c>
       <c r="AU60" s="13">
-        <v>0</v>
+        <v>10348747</v>
       </c>
       <c r="AV60" s="13">
-        <v>0</v>
+        <v>4311170</v>
       </c>
       <c r="AW60" s="13">
-        <v>4311170</v>
+        <v>0</v>
       </c>
       <c r="AX60" s="13">
-        <v>0</v>
+        <v>7218713</v>
       </c>
       <c r="AY60" s="13">
-        <v>7218713</v>
+        <v>4030069</v>
       </c>
       <c r="AZ60" s="13">
-        <v>4030069</v>
+        <v>0</v>
       </c>
       <c r="BA60" s="13">
-        <v>0</v>
+        <v>-25908699</v>
       </c>
       <c r="BB60" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
@@ -8102,20 +8137,20 @@
       <c r="AO61" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AP61" s="11" t="s">
-        <v>61</v>
+      <c r="AP61" s="11">
+        <v>0</v>
       </c>
       <c r="AQ61" s="11">
         <v>0</v>
       </c>
       <c r="AR61" s="11">
-        <v>0</v>
+        <v>16699</v>
       </c>
       <c r="AS61" s="11">
-        <v>0</v>
+        <v>87981</v>
       </c>
       <c r="AT61" s="11">
-        <v>87981</v>
+        <v>0</v>
       </c>
       <c r="AU61" s="11">
         <v>0</v>
@@ -8142,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>62</v>
       </c>
@@ -8268,40 +8303,40 @@
         <v>0</v>
       </c>
       <c r="AR62" s="13">
-        <v>0</v>
+        <v>30646745</v>
       </c>
       <c r="AS62" s="13">
-        <v>0</v>
+        <v>2767856</v>
       </c>
       <c r="AT62" s="13">
-        <v>2767856</v>
+        <v>0</v>
       </c>
       <c r="AU62" s="13">
-        <v>0</v>
+        <v>4390374</v>
       </c>
       <c r="AV62" s="13">
-        <v>0</v>
+        <v>7354974</v>
       </c>
       <c r="AW62" s="13">
-        <v>7354974</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="13">
-        <v>0</v>
+        <v>9657581</v>
       </c>
       <c r="AY62" s="13">
-        <v>9657581</v>
+        <v>2787304</v>
       </c>
       <c r="AZ62" s="13">
-        <v>2787304</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="13">
-        <v>0</v>
+        <v>-24190233</v>
       </c>
       <c r="BB62" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>63</v>
       </c>
@@ -8427,40 +8462,40 @@
         <v>0</v>
       </c>
       <c r="AR63" s="11">
-        <v>0</v>
+        <v>319406</v>
       </c>
       <c r="AS63" s="11">
-        <v>0</v>
+        <v>6108</v>
       </c>
       <c r="AT63" s="11">
-        <v>6108</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="11">
         <v>0</v>
       </c>
       <c r="AV63" s="11">
-        <v>0</v>
+        <v>22554</v>
       </c>
       <c r="AW63" s="11">
-        <v>22554</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="11">
-        <v>0</v>
+        <v>55160</v>
       </c>
       <c r="AY63" s="11">
-        <v>55160</v>
+        <v>0</v>
       </c>
       <c r="AZ63" s="11">
         <v>0</v>
       </c>
       <c r="BA63" s="11">
-        <v>0</v>
+        <v>-77714</v>
       </c>
       <c r="BB63" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>64</v>
       </c>
@@ -8586,40 +8621,40 @@
         <v>0</v>
       </c>
       <c r="AR64" s="13">
-        <v>0</v>
+        <v>207084792</v>
       </c>
       <c r="AS64" s="13">
-        <v>0</v>
+        <v>28352761</v>
       </c>
       <c r="AT64" s="13">
-        <v>28352761</v>
+        <v>0</v>
       </c>
       <c r="AU64" s="13">
-        <v>0</v>
+        <v>37723022</v>
       </c>
       <c r="AV64" s="13">
-        <v>0</v>
+        <v>11905438</v>
       </c>
       <c r="AW64" s="13">
-        <v>11905438</v>
+        <v>0</v>
       </c>
       <c r="AX64" s="13">
-        <v>0</v>
+        <v>78092671</v>
       </c>
       <c r="AY64" s="13">
-        <v>78092671</v>
+        <v>30540651</v>
       </c>
       <c r="AZ64" s="13">
-        <v>30540651</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="13">
-        <v>0</v>
+        <v>-158261782</v>
       </c>
       <c r="BB64" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>65</v>
       </c>
@@ -8745,40 +8780,40 @@
         <v>0</v>
       </c>
       <c r="AR65" s="11">
-        <v>0</v>
+        <v>236307284</v>
       </c>
       <c r="AS65" s="11">
-        <v>0</v>
+        <v>32734815</v>
       </c>
       <c r="AT65" s="11">
-        <v>32734815</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="11">
-        <v>0</v>
+        <v>76754102</v>
       </c>
       <c r="AV65" s="11">
-        <v>0</v>
+        <v>45653635</v>
       </c>
       <c r="AW65" s="11">
-        <v>45653635</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="11">
-        <v>0</v>
+        <v>54648859</v>
       </c>
       <c r="AY65" s="11">
-        <v>54648859</v>
+        <v>26599135</v>
       </c>
       <c r="AZ65" s="11">
-        <v>26599135</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="11">
-        <v>0</v>
+        <v>-203655731</v>
       </c>
       <c r="BB65" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>66</v>
       </c>
@@ -8904,40 +8939,40 @@
         <v>0</v>
       </c>
       <c r="AR66" s="13">
-        <v>0</v>
+        <v>1528545</v>
       </c>
       <c r="AS66" s="13">
-        <v>0</v>
+        <v>260612</v>
       </c>
       <c r="AT66" s="13">
-        <v>260612</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="13">
-        <v>0</v>
+        <v>369603</v>
       </c>
       <c r="AV66" s="13">
-        <v>0</v>
+        <v>350440</v>
       </c>
       <c r="AW66" s="13">
-        <v>350440</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="13">
-        <v>0</v>
+        <v>133009</v>
       </c>
       <c r="AY66" s="13">
-        <v>133009</v>
+        <v>-88162</v>
       </c>
       <c r="AZ66" s="13">
-        <v>-88162</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="13">
-        <v>0</v>
+        <v>-764890</v>
       </c>
       <c r="BB66" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>67</v>
       </c>
@@ -9063,40 +9098,40 @@
         <v>0</v>
       </c>
       <c r="AR67" s="11">
-        <v>0</v>
+        <v>76650966</v>
       </c>
       <c r="AS67" s="11">
-        <v>0</v>
+        <v>8219023</v>
       </c>
       <c r="AT67" s="11">
-        <v>8219023</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="11">
-        <v>0</v>
+        <v>24841563</v>
       </c>
       <c r="AV67" s="11">
-        <v>0</v>
+        <v>14302856</v>
       </c>
       <c r="AW67" s="11">
-        <v>14302856</v>
+        <v>0</v>
       </c>
       <c r="AX67" s="11">
-        <v>0</v>
+        <v>25773135</v>
       </c>
       <c r="AY67" s="11">
-        <v>25773135</v>
+        <v>12058628</v>
       </c>
       <c r="AZ67" s="11">
-        <v>12058628</v>
+        <v>0</v>
       </c>
       <c r="BA67" s="11">
-        <v>0</v>
+        <v>-76976182</v>
       </c>
       <c r="BB67" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>68</v>
       </c>
@@ -9222,40 +9257,40 @@
         <v>0</v>
       </c>
       <c r="AR68" s="13">
-        <v>0</v>
+        <v>74864145</v>
       </c>
       <c r="AS68" s="13">
-        <v>0</v>
+        <v>8482376</v>
       </c>
       <c r="AT68" s="13">
-        <v>8482376</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="13">
-        <v>0</v>
+        <v>21706627</v>
       </c>
       <c r="AV68" s="13">
-        <v>0</v>
+        <v>9898373</v>
       </c>
       <c r="AW68" s="13">
-        <v>9898373</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="13">
-        <v>0</v>
+        <v>22554584</v>
       </c>
       <c r="AY68" s="13">
-        <v>22554584</v>
+        <v>10764748</v>
       </c>
       <c r="AZ68" s="13">
-        <v>10764748</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="13">
-        <v>0</v>
+        <v>-64924332</v>
       </c>
       <c r="BB68" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>69</v>
       </c>
@@ -9381,40 +9416,40 @@
         <v>0</v>
       </c>
       <c r="AR69" s="11">
-        <v>0</v>
+        <v>512802055</v>
       </c>
       <c r="AS69" s="11">
-        <v>0</v>
+        <v>74058659</v>
       </c>
       <c r="AT69" s="11">
-        <v>74058659</v>
+        <v>0</v>
       </c>
       <c r="AU69" s="11">
-        <v>0</v>
+        <v>180228565</v>
       </c>
       <c r="AV69" s="11">
-        <v>0</v>
+        <v>107250270</v>
       </c>
       <c r="AW69" s="11">
-        <v>107250270</v>
+        <v>0</v>
       </c>
       <c r="AX69" s="11">
-        <v>0</v>
+        <v>192191970</v>
       </c>
       <c r="AY69" s="11">
-        <v>192191970</v>
+        <v>102416203</v>
       </c>
       <c r="AZ69" s="11">
-        <v>102416203</v>
+        <v>0</v>
       </c>
       <c r="BA69" s="11">
-        <v>0</v>
+        <v>-582087008</v>
       </c>
       <c r="BB69" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
         <v>78</v>
       </c>
@@ -9471,7 +9506,7 @@
       <c r="BA70" s="15"/>
       <c r="BB70" s="15"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="16" t="s">
         <v>71</v>
       </c>
@@ -9539,8 +9574,8 @@
       <c r="X71" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Y71" s="17" t="s">
-        <v>61</v>
+      <c r="Y71" s="17">
+        <v>0</v>
       </c>
       <c r="Z71" s="17">
         <v>0</v>
@@ -9630,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>79</v>
       </c>
@@ -9687,7 +9722,7 @@
       <c r="BA72" s="15"/>
       <c r="BB72" s="15"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>75</v>
       </c>
@@ -9755,8 +9790,8 @@
       <c r="X73" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Y73" s="17" t="s">
-        <v>61</v>
+      <c r="Y73" s="17">
+        <v>0</v>
       </c>
       <c r="Z73" s="17">
         <v>0</v>
@@ -9846,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>80</v>
       </c>
@@ -9903,7 +9938,7 @@
       <c r="BA74" s="9"/>
       <c r="BB74" s="9"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>81</v>
       </c>
@@ -9971,8 +10006,8 @@
       <c r="X75" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>61</v>
+      <c r="Y75" s="11">
+        <v>0</v>
       </c>
       <c r="Z75" s="11">
         <v>0</v>
@@ -10062,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
@@ -10117,10 +10152,10 @@
         <v>0</v>
       </c>
       <c r="U76" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V76" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76" s="19">
         <v>0</v>
@@ -10186,40 +10221,40 @@
         <v>0</v>
       </c>
       <c r="AR76" s="19">
-        <v>0</v>
+        <v>1243806083</v>
       </c>
       <c r="AS76" s="19">
-        <v>0</v>
+        <v>168600826</v>
       </c>
       <c r="AT76" s="19">
-        <v>168600826</v>
+        <v>0</v>
       </c>
       <c r="AU76" s="19">
-        <v>0</v>
+        <v>370900459</v>
       </c>
       <c r="AV76" s="19">
-        <v>0</v>
+        <v>209767593</v>
       </c>
       <c r="AW76" s="19">
-        <v>209767593</v>
+        <v>0</v>
       </c>
       <c r="AX76" s="19">
-        <v>0</v>
+        <v>406692341</v>
       </c>
       <c r="AY76" s="19">
-        <v>406692341</v>
+        <v>197963948</v>
       </c>
       <c r="AZ76" s="19">
-        <v>197963948</v>
+        <v>0</v>
       </c>
       <c r="BA76" s="19">
-        <v>0</v>
+        <v>-1185324341</v>
       </c>
       <c r="BB76" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -10274,7 +10309,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -10329,7 +10364,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -10384,7 +10419,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
     </row>
-    <row r="80" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>82</v>
       </c>
@@ -10541,7 +10576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -10596,7 +10631,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>83</v>
       </c>
@@ -10653,7 +10688,7 @@
       <c r="BA82" s="9"/>
       <c r="BB82" s="9"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>55</v>
       </c>
@@ -10779,40 +10814,40 @@
         <v>0</v>
       </c>
       <c r="AR83" s="11">
-        <v>0</v>
+        <v>71550793</v>
       </c>
       <c r="AS83" s="11">
-        <v>0</v>
+        <v>84829336</v>
       </c>
       <c r="AT83" s="11">
-        <v>84829336</v>
+        <v>0</v>
       </c>
       <c r="AU83" s="11">
-        <v>0</v>
+        <v>99751802</v>
       </c>
       <c r="AV83" s="11">
-        <v>0</v>
+        <v>86529630</v>
       </c>
       <c r="AW83" s="11">
-        <v>86529630</v>
+        <v>0</v>
       </c>
       <c r="AX83" s="11">
-        <v>0</v>
+        <v>37913577</v>
       </c>
       <c r="AY83" s="11">
-        <v>37913577</v>
+        <v>80361518</v>
       </c>
       <c r="AZ83" s="11">
-        <v>80361518</v>
+        <v>0</v>
       </c>
       <c r="BA83" s="11">
-        <v>0</v>
+        <v>456380022</v>
       </c>
       <c r="BB83" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>57</v>
       </c>
@@ -10916,11 +10951,11 @@
       <c r="AJ84" s="13">
         <v>0</v>
       </c>
-      <c r="AK84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL84" s="13" t="s">
-        <v>61</v>
+      <c r="AK84" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL84" s="13">
+        <v>0</v>
       </c>
       <c r="AM84" s="13">
         <v>0</v>
@@ -10938,40 +10973,40 @@
         <v>0</v>
       </c>
       <c r="AR84" s="13">
-        <v>0</v>
+        <v>125423458</v>
       </c>
       <c r="AS84" s="13">
-        <v>0</v>
+        <v>181630146</v>
       </c>
       <c r="AT84" s="13">
-        <v>181630146</v>
+        <v>0</v>
       </c>
       <c r="AU84" s="13">
-        <v>0</v>
+        <v>207229794</v>
       </c>
       <c r="AV84" s="13">
-        <v>0</v>
+        <v>240237231</v>
       </c>
       <c r="AW84" s="13">
-        <v>240237231</v>
+        <v>0</v>
       </c>
       <c r="AX84" s="13">
-        <v>0</v>
+        <v>101161767</v>
       </c>
       <c r="AY84" s="13">
-        <v>101161767</v>
+        <v>209225074</v>
       </c>
       <c r="AZ84" s="13">
-        <v>209225074</v>
+        <v>0</v>
       </c>
       <c r="BA84" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB84" s="13">
-        <v>0</v>
+        <v>497291895</v>
+      </c>
+      <c r="BB84" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>58</v>
       </c>
@@ -11028,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="U85" s="11">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="V85" s="11">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="W85" s="11">
         <v>0</v>
@@ -11097,40 +11132,40 @@
         <v>0</v>
       </c>
       <c r="AR85" s="11">
-        <v>0</v>
+        <v>44230455</v>
       </c>
       <c r="AS85" s="11">
-        <v>0</v>
+        <v>77443196</v>
       </c>
       <c r="AT85" s="11">
-        <v>77443196</v>
+        <v>0</v>
       </c>
       <c r="AU85" s="11">
-        <v>0</v>
+        <v>92182475</v>
       </c>
       <c r="AV85" s="11">
-        <v>0</v>
+        <v>109344353</v>
       </c>
       <c r="AW85" s="11">
-        <v>109344353</v>
+        <v>0</v>
       </c>
       <c r="AX85" s="11">
-        <v>0</v>
+        <v>29491784</v>
       </c>
       <c r="AY85" s="11">
-        <v>29491784</v>
+        <v>33467619</v>
       </c>
       <c r="AZ85" s="11">
-        <v>33467619</v>
+        <v>0</v>
       </c>
       <c r="BA85" s="11">
-        <v>0</v>
+        <v>399854430</v>
       </c>
       <c r="BB85" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>59</v>
       </c>
@@ -11256,40 +11291,40 @@
         <v>0</v>
       </c>
       <c r="AR86" s="13">
-        <v>0</v>
+        <v>81237312</v>
       </c>
       <c r="AS86" s="13">
-        <v>0</v>
+        <v>116089854</v>
       </c>
       <c r="AT86" s="13">
-        <v>116089854</v>
+        <v>0</v>
       </c>
       <c r="AU86" s="13">
-        <v>0</v>
+        <v>111072619</v>
       </c>
       <c r="AV86" s="13">
-        <v>0</v>
+        <v>99468645</v>
       </c>
       <c r="AW86" s="13">
-        <v>99468645</v>
+        <v>0</v>
       </c>
       <c r="AX86" s="13">
-        <v>0</v>
+        <v>30338011</v>
       </c>
       <c r="AY86" s="13">
-        <v>30338011</v>
+        <v>89349717</v>
       </c>
       <c r="AZ86" s="13">
-        <v>89349717</v>
+        <v>0</v>
       </c>
       <c r="BA86" s="13">
-        <v>0</v>
+        <v>563710515</v>
       </c>
       <c r="BB86" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>60</v>
       </c>
@@ -11408,20 +11443,20 @@
       <c r="AO87" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AP87" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ87" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR87" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS87" s="11" t="s">
-        <v>61</v>
+      <c r="AP87" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ87" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR87" s="11">
+        <v>109143791</v>
+      </c>
+      <c r="AS87" s="11">
+        <v>115158377</v>
       </c>
       <c r="AT87" s="11">
-        <v>115158377</v>
+        <v>0</v>
       </c>
       <c r="AU87" s="11">
         <v>0</v>
@@ -11448,7 +11483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>62</v>
       </c>
@@ -11574,40 +11609,40 @@
         <v>0</v>
       </c>
       <c r="AR88" s="13">
-        <v>0</v>
+        <v>89517445</v>
       </c>
       <c r="AS88" s="13">
-        <v>0</v>
+        <v>119763576</v>
       </c>
       <c r="AT88" s="13">
-        <v>119763576</v>
+        <v>0</v>
       </c>
       <c r="AU88" s="13">
-        <v>0</v>
+        <v>135313259</v>
       </c>
       <c r="AV88" s="13">
-        <v>0</v>
+        <v>121381226</v>
       </c>
       <c r="AW88" s="13">
-        <v>121381226</v>
+        <v>0</v>
       </c>
       <c r="AX88" s="13">
-        <v>0</v>
+        <v>56098173</v>
       </c>
       <c r="AY88" s="13">
-        <v>56098173</v>
+        <v>110849234</v>
       </c>
       <c r="AZ88" s="13">
-        <v>110849234</v>
+        <v>0</v>
       </c>
       <c r="BA88" s="13">
-        <v>0</v>
+        <v>1061580419</v>
       </c>
       <c r="BB88" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>63</v>
       </c>
@@ -11708,14 +11743,14 @@
       <c r="AI89" s="11">
         <v>0</v>
       </c>
-      <c r="AJ89" s="11">
-        <v>0</v>
+      <c r="AJ89" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AK89" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AL89" s="11" t="s">
-        <v>61</v>
+      <c r="AL89" s="11">
+        <v>0</v>
       </c>
       <c r="AM89" s="11">
         <v>0</v>
@@ -11726,47 +11761,47 @@
       <c r="AO89" s="11">
         <v>0</v>
       </c>
-      <c r="AP89" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ89" s="11" t="s">
-        <v>61</v>
+      <c r="AP89" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ89" s="11">
+        <v>0</v>
       </c>
       <c r="AR89" s="11">
-        <v>0</v>
+        <v>95288186</v>
       </c>
       <c r="AS89" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT89" s="11">
         <v>124653061</v>
       </c>
+      <c r="AT89" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AU89" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AV89" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW89" s="11">
+      <c r="AV89" s="11">
         <v>173492308</v>
       </c>
-      <c r="AX89" s="11" t="s">
-        <v>61</v>
+      <c r="AW89" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX89" s="11">
+        <v>130710900</v>
       </c>
       <c r="AY89" s="11">
-        <v>130710900</v>
+        <v>0</v>
       </c>
       <c r="AZ89" s="11">
         <v>0</v>
       </c>
       <c r="BA89" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB89" s="11">
-        <v>0</v>
+        <v>863488889</v>
+      </c>
+      <c r="BB89" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>64</v>
       </c>
@@ -11892,40 +11927,40 @@
         <v>0</v>
       </c>
       <c r="AR90" s="13">
-        <v>0</v>
+        <v>93704671</v>
       </c>
       <c r="AS90" s="13">
-        <v>0</v>
+        <v>135482174</v>
       </c>
       <c r="AT90" s="13">
-        <v>135482174</v>
+        <v>0</v>
       </c>
       <c r="AU90" s="13">
-        <v>0</v>
+        <v>148727801</v>
       </c>
       <c r="AV90" s="13">
-        <v>0</v>
+        <v>138657823</v>
       </c>
       <c r="AW90" s="13">
-        <v>138657823</v>
+        <v>0</v>
       </c>
       <c r="AX90" s="13">
-        <v>0</v>
+        <v>65846581</v>
       </c>
       <c r="AY90" s="13">
-        <v>65846581</v>
+        <v>97914589</v>
       </c>
       <c r="AZ90" s="13">
-        <v>97914589</v>
+        <v>0</v>
       </c>
       <c r="BA90" s="13">
-        <v>0</v>
+        <v>759697881</v>
       </c>
       <c r="BB90" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>65</v>
       </c>
@@ -12051,40 +12086,40 @@
         <v>0</v>
       </c>
       <c r="AR91" s="11">
-        <v>0</v>
+        <v>117448073</v>
       </c>
       <c r="AS91" s="11">
-        <v>0</v>
+        <v>176878975</v>
       </c>
       <c r="AT91" s="11">
-        <v>176878975</v>
+        <v>0</v>
       </c>
       <c r="AU91" s="11">
-        <v>0</v>
+        <v>189052306</v>
       </c>
       <c r="AV91" s="11">
-        <v>0</v>
+        <v>213336737</v>
       </c>
       <c r="AW91" s="11">
-        <v>213336737</v>
+        <v>0</v>
       </c>
       <c r="AX91" s="11">
-        <v>0</v>
+        <v>57954839</v>
       </c>
       <c r="AY91" s="11">
-        <v>57954839</v>
+        <v>151921889</v>
       </c>
       <c r="AZ91" s="11">
-        <v>151921889</v>
+        <v>0</v>
       </c>
       <c r="BA91" s="11">
-        <v>0</v>
+        <v>992416287</v>
       </c>
       <c r="BB91" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>66</v>
       </c>
@@ -12146,8 +12181,8 @@
       <c r="V92" s="13">
         <v>0</v>
       </c>
-      <c r="W92" s="13">
-        <v>0</v>
+      <c r="W92" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="X92" s="13" t="s">
         <v>61</v>
@@ -12155,11 +12190,11 @@
       <c r="Y92" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Z92" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA92" s="13">
-        <v>0</v>
+      <c r="Z92" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AB92" s="13" t="s">
         <v>61</v>
@@ -12167,20 +12202,20 @@
       <c r="AC92" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AD92" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE92" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF92" s="13" t="s">
-        <v>61</v>
+      <c r="AD92" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF92" s="13">
+        <v>0</v>
       </c>
       <c r="AG92" s="13">
         <v>0</v>
       </c>
-      <c r="AH92" s="13">
-        <v>0</v>
+      <c r="AH92" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AI92" s="13" t="s">
         <v>61</v>
@@ -12200,50 +12235,50 @@
       <c r="AN92" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AO92" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP92" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ92" s="13" t="s">
-        <v>61</v>
+      <c r="AO92" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP92" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ92" s="13">
+        <v>0</v>
       </c>
       <c r="AR92" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS92" s="13" t="s">
-        <v>61</v>
+        <v>130100009</v>
+      </c>
+      <c r="AS92" s="13">
+        <v>182373688</v>
       </c>
       <c r="AT92" s="13">
-        <v>182373688</v>
+        <v>0</v>
       </c>
       <c r="AU92" s="13">
-        <v>0</v>
+        <v>211201714</v>
       </c>
       <c r="AV92" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW92" s="13">
         <v>241017882</v>
       </c>
-      <c r="AX92" s="13" t="s">
-        <v>61</v>
+      <c r="AW92" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX92" s="13">
+        <v>-6281305</v>
       </c>
       <c r="AY92" s="13">
-        <v>-6281305</v>
-      </c>
-      <c r="AZ92" s="13">
         <v>213489669</v>
       </c>
-      <c r="BA92" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB92" s="13">
-        <v>0</v>
+      <c r="AZ92" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA92" s="13">
+        <v>140424087</v>
+      </c>
+      <c r="BB92" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>67</v>
       </c>
@@ -12369,40 +12404,40 @@
         <v>0</v>
       </c>
       <c r="AR93" s="11">
-        <v>0</v>
+        <v>112351744</v>
       </c>
       <c r="AS93" s="11">
-        <v>0</v>
+        <v>138223117</v>
       </c>
       <c r="AT93" s="11">
-        <v>138223117</v>
+        <v>0</v>
       </c>
       <c r="AU93" s="11">
-        <v>0</v>
+        <v>208164871</v>
       </c>
       <c r="AV93" s="11">
-        <v>0</v>
+        <v>237202826</v>
       </c>
       <c r="AW93" s="11">
-        <v>237202826</v>
+        <v>0</v>
       </c>
       <c r="AX93" s="11">
-        <v>0</v>
+        <v>77309799</v>
       </c>
       <c r="AY93" s="11">
-        <v>77309799</v>
+        <v>213594845</v>
       </c>
       <c r="AZ93" s="11">
-        <v>213594845</v>
+        <v>0</v>
       </c>
       <c r="BA93" s="11">
-        <v>0</v>
+        <v>1567328039</v>
       </c>
       <c r="BB93" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>68</v>
       </c>
@@ -12528,40 +12563,40 @@
         <v>0</v>
       </c>
       <c r="AR94" s="13">
-        <v>0</v>
+        <v>99252986</v>
       </c>
       <c r="AS94" s="13">
-        <v>0</v>
+        <v>122746198</v>
       </c>
       <c r="AT94" s="13">
-        <v>122746198</v>
+        <v>0</v>
       </c>
       <c r="AU94" s="13">
-        <v>0</v>
+        <v>151885938</v>
       </c>
       <c r="AV94" s="13">
-        <v>0</v>
+        <v>161780416</v>
       </c>
       <c r="AW94" s="13">
-        <v>161780416</v>
+        <v>0</v>
       </c>
       <c r="AX94" s="13">
-        <v>0</v>
+        <v>63306101</v>
       </c>
       <c r="AY94" s="13">
-        <v>63306101</v>
+        <v>130109828</v>
       </c>
       <c r="AZ94" s="13">
-        <v>130109828</v>
+        <v>0</v>
       </c>
       <c r="BA94" s="13">
-        <v>0</v>
+        <v>832341889</v>
       </c>
       <c r="BB94" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>69</v>
       </c>
@@ -12687,34 +12722,34 @@
         <v>0</v>
       </c>
       <c r="AR95" s="11">
-        <v>0</v>
+        <v>118897305</v>
       </c>
       <c r="AS95" s="11">
-        <v>0</v>
+        <v>190118239</v>
       </c>
       <c r="AT95" s="11">
-        <v>190118239</v>
+        <v>0</v>
       </c>
       <c r="AU95" s="11">
-        <v>0</v>
+        <v>220270424</v>
       </c>
       <c r="AV95" s="11">
-        <v>0</v>
+        <v>250815047</v>
       </c>
       <c r="AW95" s="11">
-        <v>250815047</v>
+        <v>0</v>
       </c>
       <c r="AX95" s="11">
-        <v>0</v>
+        <v>88530482</v>
       </c>
       <c r="AY95" s="11">
-        <v>88530482</v>
+        <v>218907212</v>
       </c>
       <c r="AZ95" s="11">
-        <v>218907212</v>
+        <v>0</v>
       </c>
       <c r="BA95" s="11">
-        <v>0</v>
+        <v>1303021367</v>
       </c>
       <c r="BB95" s="11">
         <v>0</v>

--- a/database/industries/palayesh/shetran/product/monthly.xlsx
+++ b/database/industries/palayesh/shetran/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shetran\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E368857-CC49-46A7-A9AD-C83D34789E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6B821-0655-4649-B2B5-08E51D42C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شتران-پالایش نفت تهران</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
     <t>ماه 9 منتهی به 1397/09</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
   </si>
   <si>
     <t>وکیوم باتوم</t>
@@ -757,12 +757,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -817,7 +817,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -986,7 +986,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1155,7 +1155,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1367,7 +1367,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1433,157 +1433,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>126799</v>
+        <v>107666</v>
       </c>
       <c r="F11" s="11">
-        <v>107666</v>
+        <v>53300</v>
       </c>
       <c r="G11" s="11">
-        <v>53300</v>
+        <v>97164</v>
       </c>
       <c r="H11" s="11">
-        <v>97164</v>
+        <v>132451</v>
       </c>
       <c r="I11" s="11">
-        <v>132451</v>
+        <v>58051</v>
       </c>
       <c r="J11" s="11">
-        <v>58051</v>
+        <v>99249</v>
       </c>
       <c r="K11" s="11">
-        <v>99249</v>
+        <v>69697</v>
       </c>
       <c r="L11" s="11">
-        <v>69697</v>
+        <v>175441</v>
       </c>
       <c r="M11" s="11">
-        <v>175441</v>
+        <v>79251</v>
       </c>
       <c r="N11" s="11">
-        <v>79251</v>
+        <v>83455</v>
       </c>
       <c r="O11" s="11">
-        <v>83455</v>
+        <v>73493</v>
       </c>
       <c r="P11" s="11">
-        <v>73493</v>
+        <v>90909</v>
       </c>
       <c r="Q11" s="11">
-        <v>90909</v>
+        <v>82201</v>
       </c>
       <c r="R11" s="11">
-        <v>82201</v>
+        <v>103589</v>
       </c>
       <c r="S11" s="11">
-        <v>103589</v>
+        <v>92318</v>
       </c>
       <c r="T11" s="11">
-        <v>92318</v>
+        <v>89131</v>
       </c>
       <c r="U11" s="11">
-        <v>89131</v>
+        <v>51312</v>
       </c>
       <c r="V11" s="11">
-        <v>51312</v>
+        <v>75955</v>
       </c>
       <c r="W11" s="11">
-        <v>75955</v>
+        <v>82814</v>
       </c>
       <c r="X11" s="11">
-        <v>82814</v>
+        <v>79489</v>
       </c>
       <c r="Y11" s="11">
-        <v>79489</v>
+        <v>112614</v>
       </c>
       <c r="Z11" s="11">
-        <v>112614</v>
+        <v>86096</v>
       </c>
       <c r="AA11" s="11">
-        <v>86096</v>
+        <v>72893</v>
       </c>
       <c r="AB11" s="11">
-        <v>72893</v>
+        <v>89017</v>
       </c>
       <c r="AC11" s="11">
-        <v>89017</v>
+        <v>75917</v>
       </c>
       <c r="AD11" s="11">
-        <v>75917</v>
+        <v>82161</v>
       </c>
       <c r="AE11" s="11">
-        <v>82161</v>
+        <v>76159</v>
       </c>
       <c r="AF11" s="11">
-        <v>76159</v>
+        <v>84929</v>
       </c>
       <c r="AG11" s="11">
-        <v>84929</v>
+        <v>67339</v>
       </c>
       <c r="AH11" s="11">
-        <v>67339</v>
+        <v>113454</v>
       </c>
       <c r="AI11" s="11">
-        <v>113454</v>
+        <v>53386</v>
       </c>
       <c r="AJ11" s="11">
-        <v>53386</v>
+        <v>43852</v>
       </c>
       <c r="AK11" s="11">
-        <v>43852</v>
+        <v>72868</v>
       </c>
       <c r="AL11" s="11">
-        <v>72868</v>
+        <v>85520</v>
       </c>
       <c r="AM11" s="11">
-        <v>85520</v>
+        <v>64673</v>
       </c>
       <c r="AN11" s="11">
-        <v>64673</v>
+        <v>82415</v>
       </c>
       <c r="AO11" s="11">
-        <v>82415</v>
+        <v>67316</v>
       </c>
       <c r="AP11" s="11">
-        <v>67316</v>
+        <v>75393</v>
       </c>
       <c r="AQ11" s="11">
-        <v>75393</v>
+        <v>82961</v>
       </c>
       <c r="AR11" s="11">
-        <v>82961</v>
+        <v>82817</v>
       </c>
       <c r="AS11" s="11">
-        <v>82817</v>
+        <v>47783</v>
       </c>
       <c r="AT11" s="11">
-        <v>47783</v>
+        <v>74293</v>
       </c>
       <c r="AU11" s="11">
-        <v>74293</v>
+        <v>89338</v>
       </c>
       <c r="AV11" s="11">
-        <v>89338</v>
+        <v>97187</v>
       </c>
       <c r="AW11" s="11">
-        <v>97187</v>
+        <v>79620</v>
       </c>
       <c r="AX11" s="11">
-        <v>79620</v>
+        <v>90806</v>
       </c>
       <c r="AY11" s="11">
-        <v>90806</v>
+        <v>87322</v>
       </c>
       <c r="AZ11" s="11">
-        <v>87322</v>
+        <v>93994</v>
       </c>
       <c r="BA11" s="11">
-        <v>93994</v>
+        <v>96829</v>
       </c>
       <c r="BB11" s="11">
-        <v>96829</v>
+        <v>85513</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1592,157 +1592,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>38336</v>
+        <v>30250</v>
       </c>
       <c r="F12" s="13">
-        <v>30250</v>
+        <v>16960</v>
       </c>
       <c r="G12" s="13">
-        <v>16960</v>
+        <v>42127</v>
       </c>
       <c r="H12" s="13">
-        <v>42127</v>
+        <v>47335</v>
       </c>
       <c r="I12" s="13">
-        <v>47335</v>
+        <v>44037</v>
       </c>
       <c r="J12" s="13">
-        <v>44037</v>
+        <v>35161</v>
       </c>
       <c r="K12" s="13">
-        <v>35161</v>
+        <v>40854</v>
       </c>
       <c r="L12" s="13">
-        <v>40854</v>
+        <v>21616</v>
       </c>
       <c r="M12" s="13">
-        <v>21616</v>
+        <v>3811</v>
       </c>
       <c r="N12" s="13">
-        <v>3811</v>
+        <v>2417</v>
       </c>
       <c r="O12" s="13">
-        <v>2417</v>
+        <v>13153</v>
       </c>
       <c r="P12" s="13">
-        <v>13153</v>
+        <v>13955</v>
       </c>
       <c r="Q12" s="13">
-        <v>13955</v>
+        <v>11123</v>
       </c>
       <c r="R12" s="13">
-        <v>11123</v>
+        <v>8880</v>
       </c>
       <c r="S12" s="13">
-        <v>8880</v>
+        <v>16589</v>
       </c>
       <c r="T12" s="13">
-        <v>16589</v>
+        <v>13030</v>
       </c>
       <c r="U12" s="13">
-        <v>13030</v>
+        <v>8937</v>
       </c>
       <c r="V12" s="13">
-        <v>8937</v>
+        <v>21300</v>
       </c>
       <c r="W12" s="13">
-        <v>21300</v>
+        <v>4784</v>
       </c>
       <c r="X12" s="13">
-        <v>4784</v>
+        <v>23219</v>
       </c>
       <c r="Y12" s="13">
-        <v>23219</v>
+        <v>8496</v>
       </c>
       <c r="Z12" s="13">
-        <v>8496</v>
+        <v>12549</v>
       </c>
       <c r="AA12" s="13">
-        <v>12549</v>
+        <v>10135</v>
       </c>
       <c r="AB12" s="13">
-        <v>10135</v>
+        <v>578</v>
       </c>
       <c r="AC12" s="13">
-        <v>578</v>
+        <v>9964</v>
       </c>
       <c r="AD12" s="13">
-        <v>9964</v>
+        <v>11088</v>
       </c>
       <c r="AE12" s="13">
-        <v>11088</v>
+        <v>8269</v>
       </c>
       <c r="AF12" s="13">
-        <v>8269</v>
+        <v>12316</v>
       </c>
       <c r="AG12" s="13">
-        <v>12316</v>
+        <v>12639</v>
       </c>
       <c r="AH12" s="13">
-        <v>12639</v>
+        <v>1505</v>
       </c>
       <c r="AI12" s="13">
-        <v>1505</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="13">
-        <v>0</v>
+        <v>1156</v>
       </c>
       <c r="AK12" s="13">
-        <v>1156</v>
+        <v>8106</v>
       </c>
       <c r="AL12" s="13">
-        <v>8106</v>
+        <v>1367</v>
       </c>
       <c r="AM12" s="13">
-        <v>1367</v>
+        <v>4448</v>
       </c>
       <c r="AN12" s="13">
-        <v>4448</v>
+        <v>6561</v>
       </c>
       <c r="AO12" s="13">
-        <v>6561</v>
+        <v>13973</v>
       </c>
       <c r="AP12" s="13">
-        <v>13973</v>
+        <v>5873</v>
       </c>
       <c r="AQ12" s="13">
-        <v>5873</v>
+        <v>13761</v>
       </c>
       <c r="AR12" s="13">
-        <v>13761</v>
+        <v>11555</v>
       </c>
       <c r="AS12" s="13">
-        <v>11555</v>
+        <v>10117</v>
       </c>
       <c r="AT12" s="13">
-        <v>10117</v>
+        <v>7942</v>
       </c>
       <c r="AU12" s="13">
-        <v>7942</v>
+        <v>8108</v>
       </c>
       <c r="AV12" s="13">
-        <v>8108</v>
+        <v>1967</v>
       </c>
       <c r="AW12" s="13">
-        <v>1967</v>
+        <v>7209</v>
       </c>
       <c r="AX12" s="13">
-        <v>7209</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="13">
-        <v>0</v>
+        <v>2073</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2073</v>
+        <v>9864</v>
       </c>
       <c r="BA12" s="13">
-        <v>9864</v>
+        <v>2080</v>
       </c>
       <c r="BB12" s="13">
-        <v>2080</v>
+        <v>1619</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1751,157 +1751,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>2326</v>
+        <v>2079</v>
       </c>
       <c r="F13" s="11">
-        <v>2079</v>
+        <v>2163</v>
       </c>
       <c r="G13" s="11">
-        <v>2163</v>
+        <v>849</v>
       </c>
       <c r="H13" s="11">
-        <v>849</v>
+        <v>555</v>
       </c>
       <c r="I13" s="11">
-        <v>555</v>
+        <v>2128</v>
       </c>
       <c r="J13" s="11">
-        <v>2128</v>
+        <v>2354</v>
       </c>
       <c r="K13" s="11">
-        <v>2354</v>
+        <v>2280</v>
       </c>
       <c r="L13" s="11">
-        <v>2280</v>
+        <v>2360</v>
       </c>
       <c r="M13" s="11">
-        <v>2360</v>
+        <v>2218</v>
       </c>
       <c r="N13" s="11">
-        <v>2218</v>
+        <v>2550</v>
       </c>
       <c r="O13" s="11">
-        <v>2550</v>
+        <v>2311</v>
       </c>
       <c r="P13" s="11">
-        <v>2311</v>
+        <v>1745</v>
       </c>
       <c r="Q13" s="11">
-        <v>1745</v>
+        <v>2186</v>
       </c>
       <c r="R13" s="11">
-        <v>2186</v>
+        <v>2306</v>
       </c>
       <c r="S13" s="11">
-        <v>2306</v>
+        <v>2210</v>
       </c>
       <c r="T13" s="11">
-        <v>2210</v>
+        <v>1631</v>
       </c>
       <c r="U13" s="11">
-        <v>1631</v>
+        <v>2375</v>
       </c>
       <c r="V13" s="11">
-        <v>2375</v>
+        <v>1671</v>
       </c>
       <c r="W13" s="11">
-        <v>1671</v>
+        <v>1940</v>
       </c>
       <c r="X13" s="11">
-        <v>1940</v>
+        <v>2072</v>
       </c>
       <c r="Y13" s="11">
+        <v>2036</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>1944</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>1909</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>1818</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>2131</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>1546</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>1617</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>3060</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>3979</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>2389</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>1867</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>2441</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>3904</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>3720</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>3169</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>1461</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>2675</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>2747</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>3521</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>3246</v>
+      </c>
+      <c r="AS13" s="11">
         <v>2072</v>
       </c>
-      <c r="Z13" s="11">
-        <v>2036</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>1944</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>1909</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>1818</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>2131</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>1546</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>1617</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>3060</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>3979</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>2389</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>1867</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>2441</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>3904</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>3720</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>3169</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>1461</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>2675</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>2747</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>3521</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>3246</v>
-      </c>
       <c r="AT13" s="11">
-        <v>2072</v>
+        <v>3900</v>
       </c>
       <c r="AU13" s="11">
-        <v>3900</v>
+        <v>3535</v>
       </c>
       <c r="AV13" s="11">
-        <v>3535</v>
+        <v>1236</v>
       </c>
       <c r="AW13" s="11">
-        <v>1236</v>
+        <v>2732</v>
       </c>
       <c r="AX13" s="11">
-        <v>2733</v>
+        <v>4186</v>
       </c>
       <c r="AY13" s="11">
-        <v>4185</v>
+        <v>4295</v>
       </c>
       <c r="AZ13" s="11">
-        <v>4295</v>
+        <v>3575</v>
       </c>
       <c r="BA13" s="11">
-        <v>3575</v>
+        <v>2279</v>
       </c>
       <c r="BB13" s="11">
-        <v>2279</v>
+        <v>3089</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -1910,157 +1910,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>50393</v>
+        <v>54106</v>
       </c>
       <c r="F14" s="13">
-        <v>54106</v>
+        <v>51486</v>
       </c>
       <c r="G14" s="13">
-        <v>51486</v>
+        <v>47171</v>
       </c>
       <c r="H14" s="13">
-        <v>47171</v>
+        <v>48821</v>
       </c>
       <c r="I14" s="13">
-        <v>48821</v>
+        <v>53454</v>
       </c>
       <c r="J14" s="13">
-        <v>53454</v>
+        <v>50826</v>
       </c>
       <c r="K14" s="13">
-        <v>50826</v>
+        <v>49644</v>
       </c>
       <c r="L14" s="13">
-        <v>49644</v>
+        <v>43539</v>
       </c>
       <c r="M14" s="13">
-        <v>43539</v>
+        <v>44386</v>
       </c>
       <c r="N14" s="13">
-        <v>44386</v>
+        <v>47886</v>
       </c>
       <c r="O14" s="13">
-        <v>47886</v>
+        <v>40837</v>
       </c>
       <c r="P14" s="13">
-        <v>40837</v>
+        <v>28479</v>
       </c>
       <c r="Q14" s="13">
-        <v>28479</v>
+        <v>47288</v>
       </c>
       <c r="R14" s="13">
-        <v>47288</v>
+        <v>45425</v>
       </c>
       <c r="S14" s="13">
-        <v>45425</v>
+        <v>33361</v>
       </c>
       <c r="T14" s="13">
-        <v>33361</v>
+        <v>38041</v>
       </c>
       <c r="U14" s="13">
-        <v>38041</v>
+        <v>46902</v>
       </c>
       <c r="V14" s="13">
-        <v>46902</v>
+        <v>46357</v>
       </c>
       <c r="W14" s="13">
-        <v>46357</v>
+        <v>42762</v>
       </c>
       <c r="X14" s="13">
-        <v>42762</v>
+        <v>45043</v>
       </c>
       <c r="Y14" s="13">
-        <v>45043</v>
+        <v>42923</v>
       </c>
       <c r="Z14" s="13">
-        <v>42923</v>
+        <v>43741</v>
       </c>
       <c r="AA14" s="13">
-        <v>43741</v>
+        <v>50130</v>
       </c>
       <c r="AB14" s="13">
-        <v>50130</v>
+        <v>51183</v>
       </c>
       <c r="AC14" s="13">
-        <v>51183</v>
+        <v>53834</v>
       </c>
       <c r="AD14" s="13">
-        <v>53834</v>
+        <v>57053</v>
       </c>
       <c r="AE14" s="13">
-        <v>57053</v>
+        <v>56590</v>
       </c>
       <c r="AF14" s="13">
-        <v>56590</v>
+        <v>51384</v>
       </c>
       <c r="AG14" s="13">
-        <v>51384</v>
+        <v>48216</v>
       </c>
       <c r="AH14" s="13">
-        <v>48216</v>
+        <v>46072</v>
       </c>
       <c r="AI14" s="13">
-        <v>46072</v>
+        <v>32110</v>
       </c>
       <c r="AJ14" s="13">
-        <v>32110</v>
+        <v>30552</v>
       </c>
       <c r="AK14" s="13">
-        <v>30552</v>
+        <v>47469</v>
       </c>
       <c r="AL14" s="13">
-        <v>47469</v>
+        <v>49864</v>
       </c>
       <c r="AM14" s="13">
-        <v>49864</v>
+        <v>46746</v>
       </c>
       <c r="AN14" s="13">
-        <v>46746</v>
+        <v>41941</v>
       </c>
       <c r="AO14" s="13">
-        <v>41941</v>
+        <v>33319</v>
       </c>
       <c r="AP14" s="13">
-        <v>33319</v>
+        <v>35613</v>
       </c>
       <c r="AQ14" s="13">
-        <v>35613</v>
+        <v>38559</v>
       </c>
       <c r="AR14" s="13">
-        <v>38559</v>
+        <v>36144</v>
       </c>
       <c r="AS14" s="13">
-        <v>36144</v>
+        <v>53996</v>
       </c>
       <c r="AT14" s="13">
-        <v>53996</v>
+        <v>43293</v>
       </c>
       <c r="AU14" s="13">
-        <v>43361</v>
+        <v>41250</v>
       </c>
       <c r="AV14" s="13">
-        <v>41250</v>
+        <v>38065</v>
       </c>
       <c r="AW14" s="13">
-        <v>38065</v>
+        <v>35854</v>
       </c>
       <c r="AX14" s="13">
-        <v>35855</v>
+        <v>39142</v>
       </c>
       <c r="AY14" s="13">
-        <v>39141</v>
+        <v>43224</v>
       </c>
       <c r="AZ14" s="13">
-        <v>43224</v>
+        <v>44866</v>
       </c>
       <c r="BA14" s="13">
-        <v>44866</v>
+        <v>37741</v>
       </c>
       <c r="BB14" s="13">
-        <v>37741</v>
+        <v>39241</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>60</v>
       </c>
@@ -2176,26 +2176,26 @@
       <c r="AN15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AO15" s="11" t="s">
-        <v>61</v>
+      <c r="AO15" s="11">
+        <v>153</v>
       </c>
       <c r="AP15" s="11">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="11">
         <v>0</v>
       </c>
       <c r="AR15" s="11">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="AS15" s="11">
-        <v>764</v>
+        <v>68</v>
       </c>
       <c r="AT15" s="11">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="11">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="11">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2228,157 +2228,157 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>13963</v>
+        <v>5339</v>
       </c>
       <c r="F16" s="13">
-        <v>5339</v>
+        <v>12605</v>
       </c>
       <c r="G16" s="13">
-        <v>12605</v>
+        <v>28978</v>
       </c>
       <c r="H16" s="13">
-        <v>28978</v>
+        <v>16654</v>
       </c>
       <c r="I16" s="13">
-        <v>16654</v>
+        <v>17374</v>
       </c>
       <c r="J16" s="13">
-        <v>17374</v>
+        <v>15870</v>
       </c>
       <c r="K16" s="13">
-        <v>15870</v>
+        <v>13114</v>
       </c>
       <c r="L16" s="13">
-        <v>13114</v>
+        <v>10737</v>
       </c>
       <c r="M16" s="13">
-        <v>10737</v>
+        <v>6346</v>
       </c>
       <c r="N16" s="13">
-        <v>6346</v>
+        <v>5618</v>
       </c>
       <c r="O16" s="13">
-        <v>5618</v>
+        <v>5055</v>
       </c>
       <c r="P16" s="13">
-        <v>5055</v>
+        <v>1079</v>
       </c>
       <c r="Q16" s="13">
-        <v>1079</v>
+        <v>7424</v>
       </c>
       <c r="R16" s="13">
-        <v>7424</v>
+        <v>6395</v>
       </c>
       <c r="S16" s="13">
-        <v>6395</v>
+        <v>10407</v>
       </c>
       <c r="T16" s="13">
-        <v>10407</v>
+        <v>17948</v>
       </c>
       <c r="U16" s="13">
-        <v>17948</v>
+        <v>7311</v>
       </c>
       <c r="V16" s="13">
-        <v>7311</v>
+        <v>15830</v>
       </c>
       <c r="W16" s="13">
-        <v>15830</v>
+        <v>21334</v>
       </c>
       <c r="X16" s="13">
-        <v>21334</v>
+        <v>7862</v>
       </c>
       <c r="Y16" s="13">
-        <v>7862</v>
+        <v>5122</v>
       </c>
       <c r="Z16" s="13">
-        <v>5122</v>
+        <v>11134</v>
       </c>
       <c r="AA16" s="13">
-        <v>11134</v>
+        <v>15936</v>
       </c>
       <c r="AB16" s="13">
-        <v>15936</v>
+        <v>15806</v>
       </c>
       <c r="AC16" s="13">
-        <v>15806</v>
+        <v>15568</v>
       </c>
       <c r="AD16" s="13">
-        <v>15568</v>
+        <v>12847</v>
       </c>
       <c r="AE16" s="13">
-        <v>12847</v>
+        <v>22615</v>
       </c>
       <c r="AF16" s="13">
-        <v>22615</v>
+        <v>7324</v>
       </c>
       <c r="AG16" s="13">
-        <v>7324</v>
+        <v>7056</v>
       </c>
       <c r="AH16" s="13">
-        <v>7056</v>
+        <v>5127</v>
       </c>
       <c r="AI16" s="13">
-        <v>5127</v>
+        <v>14432</v>
       </c>
       <c r="AJ16" s="13">
-        <v>14432</v>
+        <v>34669</v>
       </c>
       <c r="AK16" s="13">
-        <v>34669</v>
+        <v>46444</v>
       </c>
       <c r="AL16" s="13">
-        <v>46444</v>
+        <v>43968</v>
       </c>
       <c r="AM16" s="13">
-        <v>43968</v>
+        <v>35084</v>
       </c>
       <c r="AN16" s="13">
-        <v>35084</v>
+        <v>48794</v>
       </c>
       <c r="AO16" s="13">
-        <v>48794</v>
+        <v>39165</v>
       </c>
       <c r="AP16" s="13">
-        <v>39165</v>
+        <v>17401</v>
       </c>
       <c r="AQ16" s="13">
-        <v>17401</v>
+        <v>50215</v>
       </c>
       <c r="AR16" s="13">
-        <v>50215</v>
+        <v>23111</v>
       </c>
       <c r="AS16" s="13">
-        <v>23111</v>
+        <v>21878</v>
       </c>
       <c r="AT16" s="13">
-        <v>21878</v>
+        <v>10568</v>
       </c>
       <c r="AU16" s="13">
-        <v>10568</v>
+        <v>60594</v>
       </c>
       <c r="AV16" s="13">
-        <v>60594</v>
+        <v>42348</v>
       </c>
       <c r="AW16" s="13">
-        <v>42348</v>
+        <v>36767</v>
       </c>
       <c r="AX16" s="13">
-        <v>36767</v>
+        <v>25145</v>
       </c>
       <c r="AY16" s="13">
-        <v>25145</v>
+        <v>17980</v>
       </c>
       <c r="AZ16" s="13">
-        <v>17980</v>
+        <v>22787</v>
       </c>
       <c r="BA16" s="13">
-        <v>22787</v>
+        <v>25796</v>
       </c>
       <c r="BB16" s="13">
-        <v>25796</v>
+        <v>31057</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2387,157 +2387,157 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>984</v>
+        <v>474</v>
       </c>
       <c r="F17" s="11">
-        <v>474</v>
+        <v>1010</v>
       </c>
       <c r="G17" s="11">
-        <v>1010</v>
+        <v>1266</v>
       </c>
       <c r="H17" s="11">
-        <v>1266</v>
+        <v>742</v>
       </c>
       <c r="I17" s="11">
-        <v>742</v>
+        <v>1116</v>
       </c>
       <c r="J17" s="11">
-        <v>1116</v>
+        <v>2260</v>
       </c>
       <c r="K17" s="11">
-        <v>2260</v>
+        <v>780</v>
       </c>
       <c r="L17" s="11">
-        <v>780</v>
+        <v>952</v>
       </c>
       <c r="M17" s="11">
-        <v>952</v>
+        <v>304</v>
       </c>
       <c r="N17" s="11">
-        <v>304</v>
+        <v>992</v>
       </c>
       <c r="O17" s="11">
-        <v>992</v>
+        <v>339</v>
       </c>
       <c r="P17" s="11">
-        <v>339</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="11">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="R17" s="11">
-        <v>265</v>
+        <v>809</v>
       </c>
       <c r="S17" s="11">
-        <v>809</v>
+        <v>293</v>
       </c>
       <c r="T17" s="11">
-        <v>293</v>
+        <v>508</v>
       </c>
       <c r="U17" s="11">
-        <v>508</v>
+        <v>776</v>
       </c>
       <c r="V17" s="11">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="W17" s="11">
-        <v>803</v>
+        <v>699</v>
       </c>
       <c r="X17" s="11">
-        <v>699</v>
+        <v>1034</v>
       </c>
       <c r="Y17" s="11">
-        <v>1034</v>
+        <v>861</v>
       </c>
       <c r="Z17" s="11">
-        <v>861</v>
+        <v>1581</v>
       </c>
       <c r="AA17" s="11">
-        <v>1581</v>
+        <v>2349</v>
       </c>
       <c r="AB17" s="11">
-        <v>2349</v>
+        <v>1608</v>
       </c>
       <c r="AC17" s="11">
-        <v>1608</v>
+        <v>422</v>
       </c>
       <c r="AD17" s="11">
-        <v>422</v>
+        <v>972</v>
       </c>
       <c r="AE17" s="11">
-        <v>972</v>
+        <v>1182</v>
       </c>
       <c r="AF17" s="11">
-        <v>1182</v>
+        <v>344</v>
       </c>
       <c r="AG17" s="11">
-        <v>344</v>
+        <v>1446</v>
       </c>
       <c r="AH17" s="11">
-        <v>1446</v>
+        <v>181</v>
       </c>
       <c r="AI17" s="11">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="11">
         <v>0</v>
       </c>
       <c r="AK17" s="11">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AL17" s="11">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AM17" s="11">
-        <v>326</v>
+        <v>823</v>
       </c>
       <c r="AN17" s="11">
-        <v>823</v>
+        <v>199</v>
       </c>
       <c r="AO17" s="11">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="11">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="AQ17" s="11">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="AR17" s="11">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AS17" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="11">
         <v>0</v>
       </c>
       <c r="AU17" s="11">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AV17" s="11">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="11">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="AX17" s="11">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AZ17" s="11">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="BA17" s="11">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2546,157 +2546,157 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>146450</v>
+        <v>176826</v>
       </c>
       <c r="F18" s="13">
-        <v>176826</v>
+        <v>228894</v>
       </c>
       <c r="G18" s="13">
-        <v>228894</v>
+        <v>214082</v>
       </c>
       <c r="H18" s="13">
-        <v>214082</v>
+        <v>150411</v>
       </c>
       <c r="I18" s="13">
-        <v>150411</v>
+        <v>240539</v>
       </c>
       <c r="J18" s="13">
-        <v>240539</v>
+        <v>166584</v>
       </c>
       <c r="K18" s="13">
-        <v>166584</v>
+        <v>213601</v>
       </c>
       <c r="L18" s="13">
-        <v>213601</v>
+        <v>147595</v>
       </c>
       <c r="M18" s="13">
-        <v>147595</v>
+        <v>217803</v>
       </c>
       <c r="N18" s="13">
-        <v>217803</v>
+        <v>228227</v>
       </c>
       <c r="O18" s="13">
-        <v>228227</v>
+        <v>159536</v>
       </c>
       <c r="P18" s="13">
-        <v>159536</v>
+        <v>131869</v>
       </c>
       <c r="Q18" s="13">
-        <v>131869</v>
+        <v>211646</v>
       </c>
       <c r="R18" s="13">
-        <v>211646</v>
+        <v>178008</v>
       </c>
       <c r="S18" s="13">
-        <v>178008</v>
+        <v>198311</v>
       </c>
       <c r="T18" s="13">
-        <v>198311</v>
+        <v>147892</v>
       </c>
       <c r="U18" s="13">
-        <v>147892</v>
+        <v>215920</v>
       </c>
       <c r="V18" s="13">
-        <v>215920</v>
+        <v>174974</v>
       </c>
       <c r="W18" s="13">
-        <v>174974</v>
+        <v>168206</v>
       </c>
       <c r="X18" s="13">
-        <v>168206</v>
+        <v>201385</v>
       </c>
       <c r="Y18" s="13">
-        <v>201385</v>
+        <v>149698</v>
       </c>
       <c r="Z18" s="13">
-        <v>149698</v>
+        <v>200104</v>
       </c>
       <c r="AA18" s="13">
-        <v>200104</v>
+        <v>195552</v>
       </c>
       <c r="AB18" s="13">
-        <v>195552</v>
+        <v>167481</v>
       </c>
       <c r="AC18" s="13">
-        <v>167481</v>
+        <v>174419</v>
       </c>
       <c r="AD18" s="13">
-        <v>174419</v>
+        <v>178024</v>
       </c>
       <c r="AE18" s="13">
-        <v>178024</v>
+        <v>193561</v>
       </c>
       <c r="AF18" s="13">
-        <v>193561</v>
+        <v>153232</v>
       </c>
       <c r="AG18" s="13">
-        <v>153232</v>
+        <v>175199</v>
       </c>
       <c r="AH18" s="13">
-        <v>175199</v>
+        <v>131748</v>
       </c>
       <c r="AI18" s="13">
-        <v>131748</v>
+        <v>138347</v>
       </c>
       <c r="AJ18" s="13">
-        <v>138347</v>
+        <v>170876</v>
       </c>
       <c r="AK18" s="13">
-        <v>170876</v>
+        <v>223563</v>
       </c>
       <c r="AL18" s="13">
-        <v>223563</v>
+        <v>198504</v>
       </c>
       <c r="AM18" s="13">
-        <v>198504</v>
+        <v>205855</v>
       </c>
       <c r="AN18" s="13">
-        <v>205855</v>
+        <v>225835</v>
       </c>
       <c r="AO18" s="13">
-        <v>225835</v>
+        <v>237909</v>
       </c>
       <c r="AP18" s="13">
-        <v>237909</v>
+        <v>223654</v>
       </c>
       <c r="AQ18" s="13">
-        <v>223654</v>
+        <v>223056</v>
       </c>
       <c r="AR18" s="13">
-        <v>223056</v>
+        <v>223186</v>
       </c>
       <c r="AS18" s="13">
-        <v>223186</v>
+        <v>280773</v>
       </c>
       <c r="AT18" s="13">
-        <v>280773</v>
+        <v>223242</v>
       </c>
       <c r="AU18" s="13">
-        <v>223242</v>
+        <v>188479</v>
       </c>
       <c r="AV18" s="13">
-        <v>188479</v>
+        <v>198473</v>
       </c>
       <c r="AW18" s="13">
-        <v>198473</v>
+        <v>190023</v>
       </c>
       <c r="AX18" s="13">
-        <v>190023</v>
+        <v>239348</v>
       </c>
       <c r="AY18" s="13">
-        <v>239348</v>
+        <v>220058</v>
       </c>
       <c r="AZ18" s="13">
-        <v>220058</v>
+        <v>203470</v>
       </c>
       <c r="BA18" s="13">
-        <v>203470</v>
+        <v>191232</v>
       </c>
       <c r="BB18" s="13">
-        <v>191232</v>
+        <v>205082</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2705,157 +2705,157 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>196770</v>
+        <v>205881</v>
       </c>
       <c r="F19" s="11">
-        <v>205881</v>
+        <v>208356</v>
       </c>
       <c r="G19" s="11">
-        <v>208356</v>
+        <v>192561</v>
       </c>
       <c r="H19" s="11">
-        <v>192561</v>
+        <v>185458</v>
       </c>
       <c r="I19" s="11">
-        <v>185458</v>
+        <v>219091</v>
       </c>
       <c r="J19" s="11">
-        <v>219091</v>
+        <v>197853</v>
       </c>
       <c r="K19" s="11">
-        <v>197853</v>
+        <v>189297</v>
       </c>
       <c r="L19" s="11">
-        <v>189297</v>
+        <v>198899</v>
       </c>
       <c r="M19" s="11">
-        <v>198899</v>
+        <v>231542</v>
       </c>
       <c r="N19" s="11">
-        <v>231542</v>
+        <v>215198</v>
       </c>
       <c r="O19" s="11">
-        <v>215198</v>
+        <v>204240</v>
       </c>
       <c r="P19" s="11">
-        <v>204240</v>
+        <v>170838</v>
       </c>
       <c r="Q19" s="11">
-        <v>170838</v>
+        <v>202634</v>
       </c>
       <c r="R19" s="11">
-        <v>202634</v>
+        <v>202649</v>
       </c>
       <c r="S19" s="11">
-        <v>202649</v>
+        <v>195451</v>
       </c>
       <c r="T19" s="11">
-        <v>195451</v>
+        <v>163590</v>
       </c>
       <c r="U19" s="11">
-        <v>163590</v>
+        <v>198647</v>
       </c>
       <c r="V19" s="11">
-        <v>198647</v>
+        <v>188795</v>
       </c>
       <c r="W19" s="11">
-        <v>188795</v>
+        <v>189974</v>
       </c>
       <c r="X19" s="11">
-        <v>189974</v>
+        <v>196883</v>
       </c>
       <c r="Y19" s="11">
-        <v>196883</v>
+        <v>199920</v>
       </c>
       <c r="Z19" s="11">
-        <v>199920</v>
+        <v>207174</v>
       </c>
       <c r="AA19" s="11">
-        <v>207174</v>
+        <v>201134</v>
       </c>
       <c r="AB19" s="11">
-        <v>201134</v>
+        <v>198178</v>
       </c>
       <c r="AC19" s="11">
-        <v>198178</v>
+        <v>195914</v>
       </c>
       <c r="AD19" s="11">
-        <v>195914</v>
+        <v>203332</v>
       </c>
       <c r="AE19" s="11">
-        <v>203332</v>
+        <v>207901</v>
       </c>
       <c r="AF19" s="11">
-        <v>207901</v>
+        <v>211106</v>
       </c>
       <c r="AG19" s="11">
-        <v>211106</v>
+        <v>212955</v>
       </c>
       <c r="AH19" s="11">
-        <v>212955</v>
+        <v>190587</v>
       </c>
       <c r="AI19" s="11">
-        <v>190587</v>
+        <v>153803</v>
       </c>
       <c r="AJ19" s="11">
-        <v>153803</v>
+        <v>126800</v>
       </c>
       <c r="AK19" s="11">
-        <v>126800</v>
+        <v>174195</v>
       </c>
       <c r="AL19" s="11">
-        <v>174195</v>
+        <v>207277</v>
       </c>
       <c r="AM19" s="11">
-        <v>207277</v>
+        <v>175016</v>
       </c>
       <c r="AN19" s="11">
-        <v>175016</v>
+        <v>200941</v>
       </c>
       <c r="AO19" s="11">
-        <v>200941</v>
+        <v>196464</v>
       </c>
       <c r="AP19" s="11">
-        <v>196464</v>
+        <v>196235</v>
       </c>
       <c r="AQ19" s="11">
-        <v>196235</v>
+        <v>197542</v>
       </c>
       <c r="AR19" s="11">
-        <v>197542</v>
+        <v>184808</v>
       </c>
       <c r="AS19" s="11">
-        <v>184808</v>
+        <v>193636</v>
       </c>
       <c r="AT19" s="11">
-        <v>193636</v>
+        <v>195779</v>
       </c>
       <c r="AU19" s="11">
-        <v>195779</v>
+        <v>188785</v>
       </c>
       <c r="AV19" s="11">
-        <v>188785</v>
+        <v>149717</v>
       </c>
       <c r="AW19" s="11">
-        <v>149717</v>
+        <v>152187</v>
       </c>
       <c r="AX19" s="11">
-        <v>152186</v>
+        <v>206556</v>
       </c>
       <c r="AY19" s="11">
-        <v>206557</v>
+        <v>202901</v>
       </c>
       <c r="AZ19" s="11">
-        <v>202901</v>
+        <v>200909</v>
       </c>
       <c r="BA19" s="11">
-        <v>200909</v>
+        <v>182764</v>
       </c>
       <c r="BB19" s="11">
-        <v>182764</v>
+        <v>205728</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2864,31 +2864,31 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>4762</v>
+        <v>0</v>
       </c>
       <c r="F20" s="13">
-        <v>0</v>
+        <v>10387</v>
       </c>
       <c r="G20" s="13">
-        <v>10387</v>
+        <v>0</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
       </c>
       <c r="I20" s="13">
-        <v>0</v>
+        <v>4920</v>
       </c>
       <c r="J20" s="13">
-        <v>4920</v>
+        <v>220</v>
       </c>
       <c r="K20" s="13">
-        <v>220</v>
+        <v>8734</v>
       </c>
       <c r="L20" s="13">
-        <v>8734</v>
+        <v>1644</v>
       </c>
       <c r="M20" s="13">
-        <v>1644</v>
+        <v>0</v>
       </c>
       <c r="N20" s="13">
         <v>0</v>
@@ -2897,67 +2897,67 @@
         <v>0</v>
       </c>
       <c r="P20" s="13">
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="Q20" s="13">
-        <v>1281</v>
+        <v>0</v>
       </c>
       <c r="R20" s="13">
-        <v>0</v>
+        <v>5353</v>
       </c>
       <c r="S20" s="13">
-        <v>5353</v>
+        <v>0</v>
       </c>
       <c r="T20" s="13">
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="U20" s="13">
-        <v>3072</v>
+        <v>303</v>
       </c>
       <c r="V20" s="13">
-        <v>303</v>
+        <v>3724</v>
       </c>
       <c r="W20" s="13">
-        <v>3724</v>
+        <v>1052</v>
       </c>
       <c r="X20" s="13">
-        <v>1052</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="13">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="Z20" s="13">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="13">
-        <v>0</v>
+        <v>1605</v>
       </c>
       <c r="AB20" s="13">
-        <v>1605</v>
+        <v>3651</v>
       </c>
       <c r="AC20" s="13">
-        <v>3651</v>
+        <v>1773</v>
       </c>
       <c r="AD20" s="13">
-        <v>1773</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="13">
-        <v>0</v>
+        <v>4945</v>
       </c>
       <c r="AF20" s="13">
-        <v>4945</v>
+        <v>4329</v>
       </c>
       <c r="AG20" s="13">
-        <v>4329</v>
+        <v>3288</v>
       </c>
       <c r="AH20" s="13">
-        <v>3288</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AJ20" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="13">
         <v>0</v>
@@ -2972,25 +2972,25 @@
         <v>0</v>
       </c>
       <c r="AO20" s="13">
-        <v>0</v>
+        <v>4346</v>
       </c>
       <c r="AP20" s="13">
-        <v>4346</v>
+        <v>58</v>
       </c>
       <c r="AQ20" s="13">
-        <v>58</v>
+        <v>2917</v>
       </c>
       <c r="AR20" s="13">
-        <v>2917</v>
+        <v>1655</v>
       </c>
       <c r="AS20" s="13">
-        <v>1655</v>
+        <v>4536</v>
       </c>
       <c r="AT20" s="13">
-        <v>4536</v>
+        <v>4740</v>
       </c>
       <c r="AU20" s="13">
-        <v>4740</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="13">
         <v>0</v>
@@ -3002,19 +3002,19 @@
         <v>0</v>
       </c>
       <c r="AY20" s="13">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="AZ20" s="13">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="BA20" s="13">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3023,157 +3023,157 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>68922</v>
+        <v>74358</v>
       </c>
       <c r="F21" s="11">
-        <v>74358</v>
+        <v>75256</v>
       </c>
       <c r="G21" s="11">
-        <v>75256</v>
+        <v>44730</v>
       </c>
       <c r="H21" s="11">
-        <v>44730</v>
+        <v>44002</v>
       </c>
       <c r="I21" s="11">
-        <v>44002</v>
+        <v>75446</v>
       </c>
       <c r="J21" s="11">
-        <v>75446</v>
+        <v>69718</v>
       </c>
       <c r="K21" s="11">
-        <v>69718</v>
+        <v>44805</v>
       </c>
       <c r="L21" s="11">
-        <v>44805</v>
+        <v>61310</v>
       </c>
       <c r="M21" s="11">
-        <v>61310</v>
+        <v>69626</v>
       </c>
       <c r="N21" s="11">
-        <v>69626</v>
+        <v>56851</v>
       </c>
       <c r="O21" s="11">
-        <v>56851</v>
+        <v>51010</v>
       </c>
       <c r="P21" s="11">
-        <v>51010</v>
+        <v>40707</v>
       </c>
       <c r="Q21" s="11">
-        <v>40707</v>
+        <v>56742</v>
       </c>
       <c r="R21" s="11">
-        <v>56742</v>
+        <v>65770</v>
       </c>
       <c r="S21" s="11">
-        <v>65770</v>
+        <v>69765</v>
       </c>
       <c r="T21" s="11">
-        <v>69765</v>
+        <v>60850</v>
       </c>
       <c r="U21" s="11">
-        <v>60850</v>
+        <v>41514</v>
       </c>
       <c r="V21" s="11">
-        <v>41514</v>
+        <v>18019</v>
       </c>
       <c r="W21" s="11">
-        <v>18019</v>
+        <v>34240</v>
       </c>
       <c r="X21" s="11">
-        <v>34240</v>
+        <v>24738</v>
       </c>
       <c r="Y21" s="11">
-        <v>24738</v>
+        <v>18792</v>
       </c>
       <c r="Z21" s="11">
-        <v>18792</v>
+        <v>45470</v>
       </c>
       <c r="AA21" s="11">
-        <v>45470</v>
+        <v>60753</v>
       </c>
       <c r="AB21" s="11">
-        <v>60753</v>
+        <v>59216</v>
       </c>
       <c r="AC21" s="11">
-        <v>59216</v>
+        <v>50537</v>
       </c>
       <c r="AD21" s="11">
-        <v>50537</v>
+        <v>34337</v>
       </c>
       <c r="AE21" s="11">
-        <v>34337</v>
+        <v>49127</v>
       </c>
       <c r="AF21" s="11">
-        <v>49127</v>
+        <v>50094</v>
       </c>
       <c r="AG21" s="11">
-        <v>50094</v>
+        <v>61975</v>
       </c>
       <c r="AH21" s="11">
-        <v>61975</v>
+        <v>57665</v>
       </c>
       <c r="AI21" s="11">
-        <v>57665</v>
+        <v>49196</v>
       </c>
       <c r="AJ21" s="11">
-        <v>49196</v>
+        <v>68635</v>
       </c>
       <c r="AK21" s="11">
-        <v>68635</v>
+        <v>68238</v>
       </c>
       <c r="AL21" s="11">
-        <v>68238</v>
+        <v>73977</v>
       </c>
       <c r="AM21" s="11">
-        <v>73977</v>
+        <v>71702</v>
       </c>
       <c r="AN21" s="11">
-        <v>71702</v>
+        <v>60219</v>
       </c>
       <c r="AO21" s="11">
-        <v>60219</v>
+        <v>57746</v>
       </c>
       <c r="AP21" s="11">
-        <v>57746</v>
+        <v>65288</v>
       </c>
       <c r="AQ21" s="11">
-        <v>65288</v>
+        <v>62735</v>
       </c>
       <c r="AR21" s="11">
-        <v>62735</v>
+        <v>61515</v>
       </c>
       <c r="AS21" s="11">
-        <v>61515</v>
+        <v>57277</v>
       </c>
       <c r="AT21" s="11">
-        <v>57277</v>
+        <v>59722</v>
       </c>
       <c r="AU21" s="11">
-        <v>59722</v>
+        <v>64294</v>
       </c>
       <c r="AV21" s="11">
-        <v>64294</v>
+        <v>32830</v>
       </c>
       <c r="AW21" s="11">
-        <v>32830</v>
+        <v>49256</v>
       </c>
       <c r="AX21" s="11">
-        <v>49256</v>
+        <v>53645</v>
       </c>
       <c r="AY21" s="11">
-        <v>53645</v>
+        <v>51206</v>
       </c>
       <c r="AZ21" s="11">
-        <v>51206</v>
+        <v>48476</v>
       </c>
       <c r="BA21" s="11">
-        <v>48476</v>
+        <v>47026</v>
       </c>
       <c r="BB21" s="11">
-        <v>47026</v>
+        <v>57296</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3182,157 +3182,157 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>74509</v>
+        <v>81756</v>
       </c>
       <c r="F22" s="13">
-        <v>81756</v>
+        <v>82281</v>
       </c>
       <c r="G22" s="13">
-        <v>82281</v>
+        <v>62024</v>
       </c>
       <c r="H22" s="13">
-        <v>62024</v>
+        <v>72717</v>
       </c>
       <c r="I22" s="13">
-        <v>72717</v>
+        <v>70914</v>
       </c>
       <c r="J22" s="13">
-        <v>70914</v>
+        <v>73679</v>
       </c>
       <c r="K22" s="13">
-        <v>73679</v>
+        <v>70193</v>
       </c>
       <c r="L22" s="13">
-        <v>70193</v>
+        <v>70482</v>
       </c>
       <c r="M22" s="13">
-        <v>70482</v>
+        <v>69097</v>
       </c>
       <c r="N22" s="13">
-        <v>69097</v>
+        <v>85975</v>
       </c>
       <c r="O22" s="13">
-        <v>85975</v>
+        <v>53720</v>
       </c>
       <c r="P22" s="13">
-        <v>53720</v>
+        <v>39682</v>
       </c>
       <c r="Q22" s="13">
-        <v>39682</v>
+        <v>71351</v>
       </c>
       <c r="R22" s="13">
-        <v>71351</v>
+        <v>52476</v>
       </c>
       <c r="S22" s="13">
-        <v>52476</v>
+        <v>69296</v>
       </c>
       <c r="T22" s="13">
-        <v>69296</v>
+        <v>66465</v>
       </c>
       <c r="U22" s="13">
-        <v>66465</v>
+        <v>48250</v>
       </c>
       <c r="V22" s="13">
-        <v>48250</v>
+        <v>52740</v>
       </c>
       <c r="W22" s="13">
-        <v>52740</v>
+        <v>63139</v>
       </c>
       <c r="X22" s="13">
-        <v>63139</v>
+        <v>73672</v>
       </c>
       <c r="Y22" s="13">
-        <v>73672</v>
+        <v>83341</v>
       </c>
       <c r="Z22" s="13">
-        <v>83341</v>
+        <v>68103</v>
       </c>
       <c r="AA22" s="13">
-        <v>68103</v>
+        <v>65412</v>
       </c>
       <c r="AB22" s="13">
-        <v>65412</v>
+        <v>76436</v>
       </c>
       <c r="AC22" s="13">
-        <v>76436</v>
+        <v>71463</v>
       </c>
       <c r="AD22" s="13">
-        <v>71463</v>
+        <v>72917</v>
       </c>
       <c r="AE22" s="13">
-        <v>72917</v>
+        <v>79516</v>
       </c>
       <c r="AF22" s="13">
-        <v>79516</v>
+        <v>77550</v>
       </c>
       <c r="AG22" s="13">
-        <v>77550</v>
+        <v>65050</v>
       </c>
       <c r="AH22" s="13">
-        <v>65050</v>
+        <v>66347</v>
       </c>
       <c r="AI22" s="13">
-        <v>66347</v>
+        <v>55436</v>
       </c>
       <c r="AJ22" s="13">
-        <v>55436</v>
+        <v>42113</v>
       </c>
       <c r="AK22" s="13">
-        <v>42113</v>
+        <v>74906</v>
       </c>
       <c r="AL22" s="13">
-        <v>74906</v>
+        <v>82494</v>
       </c>
       <c r="AM22" s="13">
-        <v>82494</v>
+        <v>72350</v>
       </c>
       <c r="AN22" s="13">
-        <v>72350</v>
+        <v>74586</v>
       </c>
       <c r="AO22" s="13">
-        <v>74586</v>
+        <v>71941</v>
       </c>
       <c r="AP22" s="13">
-        <v>71941</v>
+        <v>79801</v>
       </c>
       <c r="AQ22" s="13">
-        <v>79801</v>
+        <v>68952</v>
       </c>
       <c r="AR22" s="13">
-        <v>68952</v>
+        <v>69010</v>
       </c>
       <c r="AS22" s="13">
-        <v>69010</v>
+        <v>70356</v>
       </c>
       <c r="AT22" s="13">
-        <v>70356</v>
+        <v>71871</v>
       </c>
       <c r="AU22" s="13">
-        <v>71871</v>
+        <v>61397</v>
       </c>
       <c r="AV22" s="13">
-        <v>61397</v>
+        <v>79285</v>
       </c>
       <c r="AW22" s="13">
-        <v>79285</v>
+        <v>73338</v>
       </c>
       <c r="AX22" s="13">
-        <v>73338</v>
+        <v>83286</v>
       </c>
       <c r="AY22" s="13">
-        <v>83286</v>
+        <v>82932</v>
       </c>
       <c r="AZ22" s="13">
-        <v>82932</v>
+        <v>78657</v>
       </c>
       <c r="BA22" s="13">
-        <v>78657</v>
+        <v>69617</v>
       </c>
       <c r="BB22" s="13">
-        <v>69617</v>
+        <v>77994</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3341,157 +3341,157 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>432367</v>
+        <v>419351</v>
       </c>
       <c r="F23" s="11">
-        <v>419351</v>
+        <v>393593</v>
       </c>
       <c r="G23" s="11">
-        <v>393593</v>
+        <v>430497</v>
       </c>
       <c r="H23" s="11">
-        <v>430497</v>
+        <v>410070</v>
       </c>
       <c r="I23" s="11">
-        <v>410070</v>
+        <v>415623</v>
       </c>
       <c r="J23" s="11">
-        <v>415623</v>
+        <v>427030</v>
       </c>
       <c r="K23" s="11">
-        <v>427030</v>
+        <v>423014</v>
       </c>
       <c r="L23" s="11">
-        <v>423014</v>
+        <v>442556</v>
       </c>
       <c r="M23" s="11">
-        <v>442556</v>
+        <v>480967</v>
       </c>
       <c r="N23" s="11">
-        <v>480967</v>
+        <v>471444</v>
       </c>
       <c r="O23" s="11">
-        <v>471444</v>
+        <v>413592</v>
       </c>
       <c r="P23" s="11">
-        <v>413592</v>
+        <v>333419</v>
       </c>
       <c r="Q23" s="11">
-        <v>333419</v>
+        <v>466585</v>
       </c>
       <c r="R23" s="11">
-        <v>466585</v>
+        <v>438759</v>
       </c>
       <c r="S23" s="11">
-        <v>438759</v>
+        <v>431597</v>
       </c>
       <c r="T23" s="11">
-        <v>431597</v>
+        <v>407844</v>
       </c>
       <c r="U23" s="11">
-        <v>407844</v>
+        <v>393508</v>
       </c>
       <c r="V23" s="11">
-        <v>393508</v>
+        <v>403334</v>
       </c>
       <c r="W23" s="11">
-        <v>403334</v>
+        <v>423813</v>
       </c>
       <c r="X23" s="11">
-        <v>423813</v>
+        <v>383491</v>
       </c>
       <c r="Y23" s="11">
-        <v>383491</v>
+        <v>416944</v>
       </c>
       <c r="Z23" s="11">
-        <v>416944</v>
+        <v>452374</v>
       </c>
       <c r="AA23" s="11">
-        <v>452374</v>
+        <v>441597</v>
       </c>
       <c r="AB23" s="11">
-        <v>441597</v>
+        <v>446322</v>
       </c>
       <c r="AC23" s="11">
-        <v>446322</v>
+        <v>419887</v>
       </c>
       <c r="AD23" s="11">
-        <v>419887</v>
+        <v>417179</v>
       </c>
       <c r="AE23" s="11">
-        <v>417179</v>
+        <v>474053</v>
       </c>
       <c r="AF23" s="11">
-        <v>474053</v>
+        <v>390342</v>
       </c>
       <c r="AG23" s="11">
-        <v>390342</v>
+        <v>419525</v>
       </c>
       <c r="AH23" s="11">
-        <v>419525</v>
+        <v>382843</v>
       </c>
       <c r="AI23" s="11">
-        <v>382843</v>
+        <v>310681</v>
       </c>
       <c r="AJ23" s="11">
-        <v>310681</v>
+        <v>288076</v>
       </c>
       <c r="AK23" s="11">
-        <v>288076</v>
+        <v>431591</v>
       </c>
       <c r="AL23" s="11">
-        <v>431591</v>
+        <v>461922</v>
       </c>
       <c r="AM23" s="11">
-        <v>461922</v>
+        <v>391224</v>
       </c>
       <c r="AN23" s="11">
-        <v>391224</v>
+        <v>408008</v>
       </c>
       <c r="AO23" s="11">
-        <v>408008</v>
+        <v>427295</v>
       </c>
       <c r="AP23" s="11">
-        <v>427295</v>
+        <v>391403</v>
       </c>
       <c r="AQ23" s="11">
-        <v>391403</v>
+        <v>432689</v>
       </c>
       <c r="AR23" s="11">
-        <v>432689</v>
+        <v>410656</v>
       </c>
       <c r="AS23" s="11">
-        <v>410656</v>
+        <v>447877</v>
       </c>
       <c r="AT23" s="11">
-        <v>447877</v>
+        <v>427697</v>
       </c>
       <c r="AU23" s="11">
-        <v>427697</v>
+        <v>434015</v>
       </c>
       <c r="AV23" s="11">
-        <v>434015</v>
+        <v>462373</v>
       </c>
       <c r="AW23" s="11">
-        <v>462373</v>
+        <v>406142</v>
       </c>
       <c r="AX23" s="11">
-        <v>406143</v>
+        <v>462603</v>
       </c>
       <c r="AY23" s="11">
-        <v>462602</v>
+        <v>455928</v>
       </c>
       <c r="AZ23" s="11">
-        <v>455928</v>
+        <v>438950</v>
       </c>
       <c r="BA23" s="11">
-        <v>438950</v>
+        <v>398633</v>
       </c>
       <c r="BB23" s="11">
-        <v>398633</v>
+        <v>425877</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>70</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="BA24" s="15"/>
       <c r="BB24" s="15"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3611,8 +3611,8 @@
       <c r="W25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="X25" s="17" t="s">
-        <v>61</v>
+      <c r="X25" s="17">
+        <v>0</v>
       </c>
       <c r="Y25" s="17">
         <v>0</v>
@@ -3705,164 +3705,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
-        <v>1156581</v>
+        <v>1158086</v>
       </c>
       <c r="F26" s="19">
-        <v>1158086</v>
+        <v>1136291</v>
       </c>
       <c r="G26" s="19">
-        <v>1136291</v>
+        <v>1161449</v>
       </c>
       <c r="H26" s="19">
-        <v>1161449</v>
+        <v>1109216</v>
       </c>
       <c r="I26" s="19">
-        <v>1109216</v>
+        <v>1202693</v>
       </c>
       <c r="J26" s="19">
-        <v>1202693</v>
+        <v>1140804</v>
       </c>
       <c r="K26" s="19">
-        <v>1140804</v>
+        <v>1126013</v>
       </c>
       <c r="L26" s="19">
-        <v>1126013</v>
+        <v>1177131</v>
       </c>
       <c r="M26" s="19">
-        <v>1177131</v>
+        <v>1205351</v>
       </c>
       <c r="N26" s="19">
-        <v>1205351</v>
+        <v>1200613</v>
       </c>
       <c r="O26" s="19">
-        <v>1200613</v>
+        <v>1017286</v>
       </c>
       <c r="P26" s="19">
-        <v>1017286</v>
+        <v>854087</v>
       </c>
       <c r="Q26" s="19">
-        <v>854087</v>
+        <v>1159445</v>
       </c>
       <c r="R26" s="19">
-        <v>1159445</v>
+        <v>1110419</v>
       </c>
       <c r="S26" s="19">
-        <v>1110419</v>
+        <v>1119598</v>
       </c>
       <c r="T26" s="19">
-        <v>1119598</v>
+        <v>1010002</v>
       </c>
       <c r="U26" s="19">
-        <v>1010002</v>
+        <v>1015755</v>
       </c>
       <c r="V26" s="19">
-        <v>1015755</v>
+        <v>1003502</v>
       </c>
       <c r="W26" s="19">
-        <v>1003502</v>
+        <v>1034757</v>
       </c>
       <c r="X26" s="19">
-        <v>1034757</v>
+        <v>1038888</v>
       </c>
       <c r="Y26" s="19">
-        <v>1038888</v>
+        <v>1040890</v>
       </c>
       <c r="Z26" s="19">
-        <v>1040890</v>
+        <v>1130270</v>
       </c>
       <c r="AA26" s="19">
-        <v>1130270</v>
+        <v>1119405</v>
       </c>
       <c r="AB26" s="19">
-        <v>1119405</v>
+        <v>1111294</v>
       </c>
       <c r="AC26" s="19">
-        <v>1111294</v>
+        <v>1071829</v>
       </c>
       <c r="AD26" s="19">
-        <v>1071829</v>
+        <v>1071456</v>
       </c>
       <c r="AE26" s="19">
-        <v>1071456</v>
+        <v>1175535</v>
       </c>
       <c r="AF26" s="19">
-        <v>1175535</v>
+        <v>1046010</v>
       </c>
       <c r="AG26" s="19">
-        <v>1046010</v>
+        <v>1078667</v>
       </c>
       <c r="AH26" s="19">
-        <v>1078667</v>
+        <v>997918</v>
       </c>
       <c r="AI26" s="19">
-        <v>997918</v>
+        <v>809295</v>
       </c>
       <c r="AJ26" s="19">
-        <v>809295</v>
+        <v>809170</v>
       </c>
       <c r="AK26" s="19">
-        <v>809170</v>
+        <v>1151410</v>
       </c>
       <c r="AL26" s="19">
-        <v>1151410</v>
+        <v>1208939</v>
       </c>
       <c r="AM26" s="19">
-        <v>1208939</v>
+        <v>1071090</v>
       </c>
       <c r="AN26" s="19">
-        <v>1071090</v>
+        <v>1150960</v>
       </c>
       <c r="AO26" s="19">
-        <v>1150960</v>
+        <v>1152302</v>
       </c>
       <c r="AP26" s="19">
-        <v>1152302</v>
+        <v>1093660</v>
       </c>
       <c r="AQ26" s="19">
-        <v>1093660</v>
+        <v>1176965</v>
       </c>
       <c r="AR26" s="19">
-        <v>1176965</v>
+        <v>1108516</v>
       </c>
       <c r="AS26" s="19">
-        <v>1108516</v>
+        <v>1190369</v>
       </c>
       <c r="AT26" s="19">
-        <v>1190369</v>
+        <v>1123047</v>
       </c>
       <c r="AU26" s="19">
-        <v>1123047</v>
+        <v>1139925</v>
       </c>
       <c r="AV26" s="19">
-        <v>1139925</v>
+        <v>1103481</v>
       </c>
       <c r="AW26" s="19">
-        <v>1103481</v>
+        <v>1033420</v>
       </c>
       <c r="AX26" s="19">
-        <v>1033422</v>
+        <v>1204717</v>
       </c>
       <c r="AY26" s="19">
-        <v>1204715</v>
+        <v>1168917</v>
       </c>
       <c r="AZ26" s="19">
-        <v>1168917</v>
+        <v>1145681</v>
       </c>
       <c r="BA26" s="19">
-        <v>1145681</v>
+        <v>1053997</v>
       </c>
       <c r="BB26" s="19">
-        <v>1053997</v>
+        <v>1132496</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3917,7 +3917,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3972,7 +3972,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4027,7 +4027,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>73</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4239,7 +4239,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>73</v>
       </c>
@@ -4296,7 +4296,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
@@ -4305,157 +4305,157 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>131722</v>
+        <v>101432</v>
       </c>
       <c r="F33" s="11">
-        <v>101432</v>
+        <v>57978</v>
       </c>
       <c r="G33" s="11">
-        <v>57978</v>
+        <v>99276</v>
       </c>
       <c r="H33" s="11">
-        <v>99276</v>
+        <v>133193</v>
       </c>
       <c r="I33" s="11">
-        <v>133193</v>
+        <v>55790</v>
       </c>
       <c r="J33" s="11">
-        <v>55790</v>
+        <v>97123</v>
       </c>
       <c r="K33" s="11">
-        <v>97123</v>
+        <v>67234</v>
       </c>
       <c r="L33" s="11">
-        <v>67234</v>
+        <v>177005</v>
       </c>
       <c r="M33" s="11">
-        <v>177005</v>
+        <v>80252</v>
       </c>
       <c r="N33" s="11">
-        <v>80252</v>
+        <v>84579</v>
       </c>
       <c r="O33" s="11">
-        <v>84579</v>
+        <v>74782</v>
       </c>
       <c r="P33" s="11">
-        <v>74782</v>
+        <v>85483</v>
       </c>
       <c r="Q33" s="11">
-        <v>85483</v>
+        <v>87240</v>
       </c>
       <c r="R33" s="11">
-        <v>87240</v>
+        <v>99723</v>
       </c>
       <c r="S33" s="11">
-        <v>99723</v>
+        <v>98625</v>
       </c>
       <c r="T33" s="11">
-        <v>98625</v>
+        <v>83925</v>
       </c>
       <c r="U33" s="11">
-        <v>83925</v>
+        <v>56342</v>
       </c>
       <c r="V33" s="11">
-        <v>56342</v>
+        <v>76395</v>
       </c>
       <c r="W33" s="11">
-        <v>76395</v>
+        <v>75572</v>
       </c>
       <c r="X33" s="11">
-        <v>75572</v>
+        <v>84811</v>
       </c>
       <c r="Y33" s="11">
-        <v>84811</v>
+        <v>108592</v>
       </c>
       <c r="Z33" s="11">
-        <v>108592</v>
+        <v>91509</v>
       </c>
       <c r="AA33" s="11">
-        <v>91509</v>
+        <v>71280</v>
       </c>
       <c r="AB33" s="11">
-        <v>71280</v>
+        <v>86175</v>
       </c>
       <c r="AC33" s="11">
-        <v>86175</v>
+        <v>79144</v>
       </c>
       <c r="AD33" s="11">
-        <v>79144</v>
+        <v>82857</v>
       </c>
       <c r="AE33" s="11">
-        <v>82857</v>
+        <v>72914</v>
       </c>
       <c r="AF33" s="11">
-        <v>72914</v>
+        <v>85671</v>
       </c>
       <c r="AG33" s="11">
-        <v>85671</v>
+        <v>71769</v>
       </c>
       <c r="AH33" s="11">
-        <v>71769</v>
+        <v>105283</v>
       </c>
       <c r="AI33" s="11">
-        <v>105283</v>
+        <v>59070</v>
       </c>
       <c r="AJ33" s="11">
-        <v>59070</v>
+        <v>39991</v>
       </c>
       <c r="AK33" s="11">
-        <v>39991</v>
+        <v>71845</v>
       </c>
       <c r="AL33" s="11">
-        <v>71845</v>
+        <v>84624</v>
       </c>
       <c r="AM33" s="11">
-        <v>84624</v>
+        <v>63951</v>
       </c>
       <c r="AN33" s="11">
-        <v>63951</v>
+        <v>83016</v>
       </c>
       <c r="AO33" s="11">
-        <v>83016</v>
+        <v>69348</v>
       </c>
       <c r="AP33" s="11">
-        <v>69348</v>
+        <v>75336</v>
       </c>
       <c r="AQ33" s="11">
-        <v>75336</v>
+        <v>86563</v>
       </c>
       <c r="AR33" s="11">
-        <v>86544</v>
+        <v>81757</v>
       </c>
       <c r="AS33" s="11">
-        <v>81757</v>
+        <v>45577</v>
       </c>
       <c r="AT33" s="11">
-        <v>45577</v>
+        <v>78622</v>
       </c>
       <c r="AU33" s="11">
-        <v>78703</v>
+        <v>87140</v>
       </c>
       <c r="AV33" s="11">
-        <v>87140</v>
+        <v>98435</v>
       </c>
       <c r="AW33" s="11">
-        <v>98435</v>
+        <v>75018</v>
       </c>
       <c r="AX33" s="11">
-        <v>75019</v>
+        <v>96850</v>
       </c>
       <c r="AY33" s="11">
-        <v>96850</v>
+        <v>84583</v>
       </c>
       <c r="AZ33" s="11">
-        <v>84583</v>
+        <v>92713</v>
       </c>
       <c r="BA33" s="11">
-        <v>92713</v>
+        <v>94952</v>
       </c>
       <c r="BB33" s="11">
-        <v>94952</v>
+        <v>90845</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>57</v>
       </c>
@@ -4464,157 +4464,157 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>31995</v>
+        <v>34181</v>
       </c>
       <c r="F34" s="13">
-        <v>34181</v>
+        <v>21756</v>
       </c>
       <c r="G34" s="13">
-        <v>21756</v>
+        <v>42047</v>
       </c>
       <c r="H34" s="13">
-        <v>42047</v>
+        <v>47426</v>
       </c>
       <c r="I34" s="13">
-        <v>47426</v>
+        <v>38046</v>
       </c>
       <c r="J34" s="13">
-        <v>38046</v>
+        <v>36877</v>
       </c>
       <c r="K34" s="13">
-        <v>36877</v>
+        <v>38239</v>
       </c>
       <c r="L34" s="13">
-        <v>38239</v>
+        <v>29239</v>
       </c>
       <c r="M34" s="13">
-        <v>29239</v>
+        <v>3593</v>
       </c>
       <c r="N34" s="13">
-        <v>3593</v>
+        <v>0</v>
       </c>
       <c r="O34" s="13">
-        <v>0</v>
+        <v>15266</v>
       </c>
       <c r="P34" s="13">
-        <v>15266</v>
+        <v>9856</v>
       </c>
       <c r="Q34" s="13">
-        <v>9856</v>
+        <v>15329</v>
       </c>
       <c r="R34" s="13">
-        <v>15329</v>
+        <v>9381</v>
       </c>
       <c r="S34" s="13">
-        <v>9381</v>
+        <v>14560</v>
       </c>
       <c r="T34" s="13">
-        <v>14560</v>
+        <v>10179</v>
       </c>
       <c r="U34" s="13">
-        <v>10179</v>
+        <v>10193</v>
       </c>
       <c r="V34" s="13">
-        <v>10193</v>
+        <v>24880</v>
       </c>
       <c r="W34" s="13">
-        <v>24880</v>
+        <v>4732</v>
       </c>
       <c r="X34" s="13">
-        <v>4732</v>
+        <v>19633</v>
       </c>
       <c r="Y34" s="13">
-        <v>19633</v>
+        <v>9966</v>
       </c>
       <c r="Z34" s="13">
-        <v>9966</v>
+        <v>9988</v>
       </c>
       <c r="AA34" s="13">
-        <v>9988</v>
+        <v>9807</v>
       </c>
       <c r="AB34" s="13">
-        <v>9807</v>
+        <v>5224</v>
       </c>
       <c r="AC34" s="13">
-        <v>5224</v>
+        <v>9937</v>
       </c>
       <c r="AD34" s="13">
+        <v>9720</v>
+      </c>
+      <c r="AE34" s="13">
         <v>9937</v>
       </c>
-      <c r="AE34" s="13">
-        <v>9720</v>
-      </c>
       <c r="AF34" s="13">
-        <v>9937</v>
+        <v>10080</v>
       </c>
       <c r="AG34" s="13">
-        <v>10080</v>
+        <v>9922</v>
       </c>
       <c r="AH34" s="13">
-        <v>9922</v>
+        <v>5154</v>
       </c>
       <c r="AI34" s="13">
-        <v>5154</v>
+        <v>49</v>
       </c>
       <c r="AJ34" s="13">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="13">
-        <v>0</v>
+        <v>9738</v>
       </c>
       <c r="AL34" s="13">
-        <v>9738</v>
+        <v>38</v>
       </c>
       <c r="AM34" s="13">
-        <v>38</v>
+        <v>5008</v>
       </c>
       <c r="AN34" s="13">
-        <v>5008</v>
+        <v>4968</v>
       </c>
       <c r="AO34" s="13">
-        <v>4968</v>
+        <v>14046</v>
       </c>
       <c r="AP34" s="13">
-        <v>14046</v>
+        <v>5047</v>
       </c>
       <c r="AQ34" s="13">
-        <v>5047</v>
+        <v>17782</v>
       </c>
       <c r="AR34" s="13">
-        <v>11687</v>
+        <v>9328</v>
       </c>
       <c r="AS34" s="13">
-        <v>9328</v>
+        <v>9529</v>
       </c>
       <c r="AT34" s="13">
-        <v>9529</v>
+        <v>9492</v>
       </c>
       <c r="AU34" s="13">
-        <v>-1722</v>
+        <v>3250</v>
       </c>
       <c r="AV34" s="13">
-        <v>3250</v>
+        <v>4997</v>
       </c>
       <c r="AW34" s="13">
-        <v>4997</v>
+        <v>5099</v>
       </c>
       <c r="AX34" s="13">
-        <v>1523</v>
+        <v>3956</v>
       </c>
       <c r="AY34" s="13">
-        <v>4511</v>
+        <v>4876</v>
       </c>
       <c r="AZ34" s="13">
-        <v>4876</v>
+        <v>9476</v>
       </c>
       <c r="BA34" s="13">
-        <v>9476</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>58</v>
       </c>
@@ -4623,157 +4623,157 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>2845</v>
+        <v>1646</v>
       </c>
       <c r="F35" s="11">
-        <v>1646</v>
+        <v>945</v>
       </c>
       <c r="G35" s="11">
-        <v>945</v>
+        <v>5353</v>
       </c>
       <c r="H35" s="11">
-        <v>5353</v>
+        <v>392</v>
       </c>
       <c r="I35" s="11">
-        <v>392</v>
+        <v>985</v>
       </c>
       <c r="J35" s="11">
-        <v>985</v>
+        <v>1432</v>
       </c>
       <c r="K35" s="11">
-        <v>1432</v>
+        <v>1125</v>
       </c>
       <c r="L35" s="11">
-        <v>1125</v>
+        <v>946</v>
       </c>
       <c r="M35" s="11">
-        <v>946</v>
+        <v>4071</v>
       </c>
       <c r="N35" s="11">
-        <v>4071</v>
+        <v>1256</v>
       </c>
       <c r="O35" s="11">
-        <v>1256</v>
+        <v>1727</v>
       </c>
       <c r="P35" s="11">
-        <v>1727</v>
+        <v>2039</v>
       </c>
       <c r="Q35" s="11">
-        <v>2039</v>
+        <v>1308</v>
       </c>
       <c r="R35" s="11">
-        <v>1308</v>
+        <v>3114</v>
       </c>
       <c r="S35" s="11">
-        <v>3114</v>
+        <v>2150</v>
       </c>
       <c r="T35" s="11">
-        <v>2150</v>
+        <v>4978</v>
       </c>
       <c r="U35" s="11">
-        <v>4978</v>
+        <v>665</v>
       </c>
       <c r="V35" s="11">
-        <v>665</v>
+        <v>1627</v>
       </c>
       <c r="W35" s="11">
-        <v>1627</v>
+        <v>2520</v>
       </c>
       <c r="X35" s="11">
-        <v>2520</v>
+        <v>2373</v>
       </c>
       <c r="Y35" s="11">
-        <v>2373</v>
+        <v>1385</v>
       </c>
       <c r="Z35" s="11">
-        <v>1385</v>
+        <v>2502</v>
       </c>
       <c r="AA35" s="11">
-        <v>2502</v>
+        <v>2555</v>
       </c>
       <c r="AB35" s="11">
-        <v>2555</v>
+        <v>1882</v>
       </c>
       <c r="AC35" s="11">
-        <v>1882</v>
+        <v>1593</v>
       </c>
       <c r="AD35" s="11">
-        <v>1593</v>
+        <v>1660</v>
       </c>
       <c r="AE35" s="11">
-        <v>1660</v>
+        <v>2951</v>
       </c>
       <c r="AF35" s="11">
-        <v>2951</v>
+        <v>2456</v>
       </c>
       <c r="AG35" s="11">
-        <v>2456</v>
+        <v>1324</v>
       </c>
       <c r="AH35" s="11">
-        <v>1324</v>
+        <v>2058</v>
       </c>
       <c r="AI35" s="11">
-        <v>2058</v>
+        <v>1886</v>
       </c>
       <c r="AJ35" s="11">
-        <v>1886</v>
+        <v>1936</v>
       </c>
       <c r="AK35" s="11">
-        <v>1936</v>
+        <v>1872</v>
       </c>
       <c r="AL35" s="11">
-        <v>1872</v>
+        <v>8928</v>
       </c>
       <c r="AM35" s="11">
-        <v>8928</v>
+        <v>2444</v>
       </c>
       <c r="AN35" s="11">
-        <v>2444</v>
+        <v>2185</v>
       </c>
       <c r="AO35" s="11">
-        <v>2185</v>
+        <v>2746</v>
       </c>
       <c r="AP35" s="11">
-        <v>2746</v>
+        <v>2715</v>
       </c>
       <c r="AQ35" s="11">
-        <v>2715</v>
+        <v>1518</v>
       </c>
       <c r="AR35" s="11">
-        <v>1517</v>
+        <v>3116</v>
       </c>
       <c r="AS35" s="11">
-        <v>3116</v>
+        <v>1615</v>
       </c>
       <c r="AT35" s="11">
-        <v>1615</v>
+        <v>4057</v>
       </c>
       <c r="AU35" s="11">
-        <v>4057</v>
+        <v>3630</v>
       </c>
       <c r="AV35" s="11">
-        <v>3630</v>
+        <v>2345</v>
       </c>
       <c r="AW35" s="11">
-        <v>2345</v>
+        <v>1985</v>
       </c>
       <c r="AX35" s="11">
-        <v>1985</v>
+        <v>3922</v>
       </c>
       <c r="AY35" s="11">
-        <v>3922</v>
+        <v>5114</v>
       </c>
       <c r="AZ35" s="11">
-        <v>5114</v>
+        <v>3634</v>
       </c>
       <c r="BA35" s="11">
-        <v>3634</v>
+        <v>3870</v>
       </c>
       <c r="BB35" s="11">
-        <v>3870</v>
+        <v>2483</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>59</v>
       </c>
@@ -4782,157 +4782,157 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>50610</v>
+        <v>52126</v>
       </c>
       <c r="F36" s="13">
-        <v>52126</v>
+        <v>51027</v>
       </c>
       <c r="G36" s="13">
-        <v>51027</v>
+        <v>45552</v>
       </c>
       <c r="H36" s="13">
-        <v>45552</v>
+        <v>51959</v>
       </c>
       <c r="I36" s="13">
-        <v>51959</v>
+        <v>51152</v>
       </c>
       <c r="J36" s="13">
-        <v>51152</v>
+        <v>52002</v>
       </c>
       <c r="K36" s="13">
-        <v>52002</v>
+        <v>48802</v>
       </c>
       <c r="L36" s="13">
-        <v>48802</v>
+        <v>46257</v>
       </c>
       <c r="M36" s="13">
-        <v>46257</v>
+        <v>44179</v>
       </c>
       <c r="N36" s="13">
-        <v>44179</v>
+        <v>48601</v>
       </c>
       <c r="O36" s="13">
-        <v>48601</v>
+        <v>41654</v>
       </c>
       <c r="P36" s="13">
-        <v>41654</v>
+        <v>22499</v>
       </c>
       <c r="Q36" s="13">
-        <v>22499</v>
+        <v>48387</v>
       </c>
       <c r="R36" s="13">
-        <v>48387</v>
+        <v>44988</v>
       </c>
       <c r="S36" s="13">
-        <v>44988</v>
+        <v>37872</v>
       </c>
       <c r="T36" s="13">
-        <v>37872</v>
+        <v>36589</v>
       </c>
       <c r="U36" s="13">
-        <v>36589</v>
+        <v>48432</v>
       </c>
       <c r="V36" s="13">
-        <v>48432</v>
+        <v>46321</v>
       </c>
       <c r="W36" s="13">
-        <v>46321</v>
+        <v>39239</v>
       </c>
       <c r="X36" s="13">
-        <v>39239</v>
+        <v>45325</v>
       </c>
       <c r="Y36" s="13">
-        <v>45325</v>
+        <v>45177</v>
       </c>
       <c r="Z36" s="13">
-        <v>45177</v>
+        <v>43737</v>
       </c>
       <c r="AA36" s="13">
-        <v>43737</v>
+        <v>49702</v>
       </c>
       <c r="AB36" s="13">
-        <v>49702</v>
+        <v>47247</v>
       </c>
       <c r="AC36" s="13">
-        <v>47247</v>
+        <v>58199</v>
       </c>
       <c r="AD36" s="13">
-        <v>58199</v>
+        <v>56791</v>
       </c>
       <c r="AE36" s="13">
-        <v>56791</v>
+        <v>53401</v>
       </c>
       <c r="AF36" s="13">
-        <v>53401</v>
+        <v>49983</v>
       </c>
       <c r="AG36" s="13">
-        <v>49983</v>
+        <v>47625</v>
       </c>
       <c r="AH36" s="13">
-        <v>47625</v>
+        <v>49775</v>
       </c>
       <c r="AI36" s="13">
-        <v>49775</v>
+        <v>35255</v>
       </c>
       <c r="AJ36" s="13">
-        <v>35255</v>
+        <v>30120</v>
       </c>
       <c r="AK36" s="13">
-        <v>30120</v>
+        <v>47791</v>
       </c>
       <c r="AL36" s="13">
-        <v>47791</v>
+        <v>47499</v>
       </c>
       <c r="AM36" s="13">
-        <v>47499</v>
+        <v>46860</v>
       </c>
       <c r="AN36" s="13">
-        <v>46860</v>
+        <v>38611</v>
       </c>
       <c r="AO36" s="13">
-        <v>38611</v>
+        <v>34366</v>
       </c>
       <c r="AP36" s="13">
-        <v>34366</v>
+        <v>39897</v>
       </c>
       <c r="AQ36" s="13">
-        <v>39897</v>
+        <v>34635</v>
       </c>
       <c r="AR36" s="13">
-        <v>25705</v>
+        <v>41000</v>
       </c>
       <c r="AS36" s="13">
-        <v>41000</v>
+        <v>51223</v>
       </c>
       <c r="AT36" s="13">
-        <v>51223</v>
+        <v>44460</v>
       </c>
       <c r="AU36" s="13">
-        <v>41948</v>
+        <v>43342</v>
       </c>
       <c r="AV36" s="13">
-        <v>43342</v>
+        <v>40588</v>
       </c>
       <c r="AW36" s="13">
-        <v>40588</v>
+        <v>35457</v>
       </c>
       <c r="AX36" s="13">
-        <v>43212</v>
+        <v>41500</v>
       </c>
       <c r="AY36" s="13">
-        <v>41670</v>
+        <v>43631</v>
       </c>
       <c r="AZ36" s="13">
-        <v>43631</v>
+        <v>45961</v>
       </c>
       <c r="BA36" s="13">
-        <v>45961</v>
+        <v>37461</v>
       </c>
       <c r="BB36" s="13">
-        <v>37461</v>
+        <v>38266</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>60</v>
       </c>
@@ -5048,26 +5048,26 @@
       <c r="AN37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AO37" s="11" t="s">
-        <v>61</v>
+      <c r="AO37" s="11">
+        <v>153</v>
       </c>
       <c r="AP37" s="11">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="11">
         <v>0</v>
       </c>
       <c r="AR37" s="11">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="AS37" s="11">
-        <v>764</v>
+        <v>68</v>
       </c>
       <c r="AT37" s="11">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="11">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="11">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>62</v>
       </c>
@@ -5100,157 +5100,157 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>13963</v>
+        <v>5339</v>
       </c>
       <c r="F38" s="13">
-        <v>5339</v>
+        <v>12605</v>
       </c>
       <c r="G38" s="13">
-        <v>12605</v>
+        <v>28978</v>
       </c>
       <c r="H38" s="13">
-        <v>28978</v>
+        <v>16654</v>
       </c>
       <c r="I38" s="13">
-        <v>16654</v>
+        <v>17374</v>
       </c>
       <c r="J38" s="13">
-        <v>17374</v>
+        <v>15870</v>
       </c>
       <c r="K38" s="13">
-        <v>15870</v>
+        <v>13114</v>
       </c>
       <c r="L38" s="13">
-        <v>13114</v>
+        <v>10737</v>
       </c>
       <c r="M38" s="13">
-        <v>10737</v>
+        <v>6346</v>
       </c>
       <c r="N38" s="13">
-        <v>6346</v>
+        <v>5618</v>
       </c>
       <c r="O38" s="13">
-        <v>5618</v>
+        <v>5055</v>
       </c>
       <c r="P38" s="13">
-        <v>5055</v>
+        <v>1079</v>
       </c>
       <c r="Q38" s="13">
-        <v>1079</v>
+        <v>7424</v>
       </c>
       <c r="R38" s="13">
-        <v>7424</v>
+        <v>6395</v>
       </c>
       <c r="S38" s="13">
-        <v>6395</v>
+        <v>10407</v>
       </c>
       <c r="T38" s="13">
-        <v>10407</v>
+        <v>17948</v>
       </c>
       <c r="U38" s="13">
-        <v>17948</v>
+        <v>7311</v>
       </c>
       <c r="V38" s="13">
-        <v>7311</v>
+        <v>15830</v>
       </c>
       <c r="W38" s="13">
-        <v>15830</v>
+        <v>21334</v>
       </c>
       <c r="X38" s="13">
-        <v>21334</v>
+        <v>7862</v>
       </c>
       <c r="Y38" s="13">
-        <v>7862</v>
+        <v>5122</v>
       </c>
       <c r="Z38" s="13">
-        <v>5122</v>
+        <v>11134</v>
       </c>
       <c r="AA38" s="13">
-        <v>11134</v>
+        <v>15936</v>
       </c>
       <c r="AB38" s="13">
-        <v>15936</v>
+        <v>15806</v>
       </c>
       <c r="AC38" s="13">
-        <v>15806</v>
+        <v>15568</v>
       </c>
       <c r="AD38" s="13">
-        <v>15568</v>
+        <v>12847</v>
       </c>
       <c r="AE38" s="13">
-        <v>12847</v>
+        <v>22615</v>
       </c>
       <c r="AF38" s="13">
-        <v>22615</v>
+        <v>7324</v>
       </c>
       <c r="AG38" s="13">
-        <v>7324</v>
+        <v>7056</v>
       </c>
       <c r="AH38" s="13">
-        <v>7056</v>
+        <v>5127</v>
       </c>
       <c r="AI38" s="13">
-        <v>5127</v>
+        <v>14432</v>
       </c>
       <c r="AJ38" s="13">
-        <v>14432</v>
+        <v>34669</v>
       </c>
       <c r="AK38" s="13">
-        <v>34669</v>
+        <v>46444</v>
       </c>
       <c r="AL38" s="13">
-        <v>46444</v>
+        <v>43968</v>
       </c>
       <c r="AM38" s="13">
-        <v>43968</v>
+        <v>35084</v>
       </c>
       <c r="AN38" s="13">
-        <v>35084</v>
+        <v>48794</v>
       </c>
       <c r="AO38" s="13">
-        <v>48794</v>
+        <v>39165</v>
       </c>
       <c r="AP38" s="13">
-        <v>39165</v>
+        <v>17401</v>
       </c>
       <c r="AQ38" s="13">
-        <v>17401</v>
+        <v>50215</v>
       </c>
       <c r="AR38" s="13">
-        <v>50215</v>
+        <v>23111</v>
       </c>
       <c r="AS38" s="13">
-        <v>23111</v>
+        <v>21878</v>
       </c>
       <c r="AT38" s="13">
-        <v>21878</v>
+        <v>10568</v>
       </c>
       <c r="AU38" s="13">
-        <v>10568</v>
+        <v>60594</v>
       </c>
       <c r="AV38" s="13">
-        <v>60594</v>
+        <v>42348</v>
       </c>
       <c r="AW38" s="13">
-        <v>42348</v>
+        <v>36767</v>
       </c>
       <c r="AX38" s="13">
-        <v>36767</v>
+        <v>25145</v>
       </c>
       <c r="AY38" s="13">
-        <v>25145</v>
+        <v>17980</v>
       </c>
       <c r="AZ38" s="13">
-        <v>17980</v>
+        <v>22787</v>
       </c>
       <c r="BA38" s="13">
-        <v>22787</v>
+        <v>25796</v>
       </c>
       <c r="BB38" s="13">
-        <v>25796</v>
+        <v>31057</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -5259,157 +5259,157 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>984</v>
+        <v>474</v>
       </c>
       <c r="F39" s="11">
-        <v>474</v>
+        <v>1010</v>
       </c>
       <c r="G39" s="11">
-        <v>1010</v>
+        <v>1266</v>
       </c>
       <c r="H39" s="11">
-        <v>1266</v>
+        <v>742</v>
       </c>
       <c r="I39" s="11">
-        <v>742</v>
+        <v>1116</v>
       </c>
       <c r="J39" s="11">
-        <v>1116</v>
+        <v>2260</v>
       </c>
       <c r="K39" s="11">
-        <v>2260</v>
+        <v>780</v>
       </c>
       <c r="L39" s="11">
-        <v>780</v>
+        <v>952</v>
       </c>
       <c r="M39" s="11">
-        <v>952</v>
+        <v>304</v>
       </c>
       <c r="N39" s="11">
-        <v>304</v>
+        <v>992</v>
       </c>
       <c r="O39" s="11">
-        <v>992</v>
+        <v>339</v>
       </c>
       <c r="P39" s="11">
-        <v>339</v>
+        <v>124</v>
       </c>
       <c r="Q39" s="11">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="R39" s="11">
-        <v>265</v>
+        <v>809</v>
       </c>
       <c r="S39" s="11">
-        <v>809</v>
+        <v>293</v>
       </c>
       <c r="T39" s="11">
-        <v>293</v>
+        <v>508</v>
       </c>
       <c r="U39" s="11">
-        <v>508</v>
+        <v>776</v>
       </c>
       <c r="V39" s="11">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="W39" s="11">
-        <v>803</v>
+        <v>699</v>
       </c>
       <c r="X39" s="11">
-        <v>699</v>
+        <v>1034</v>
       </c>
       <c r="Y39" s="11">
-        <v>1034</v>
+        <v>861</v>
       </c>
       <c r="Z39" s="11">
-        <v>861</v>
+        <v>1581</v>
       </c>
       <c r="AA39" s="11">
-        <v>1581</v>
+        <v>2349</v>
       </c>
       <c r="AB39" s="11">
-        <v>2349</v>
+        <v>1608</v>
       </c>
       <c r="AC39" s="11">
-        <v>1608</v>
+        <v>422</v>
       </c>
       <c r="AD39" s="11">
-        <v>422</v>
+        <v>972</v>
       </c>
       <c r="AE39" s="11">
-        <v>972</v>
+        <v>1182</v>
       </c>
       <c r="AF39" s="11">
-        <v>1182</v>
+        <v>344</v>
       </c>
       <c r="AG39" s="11">
-        <v>344</v>
+        <v>1446</v>
       </c>
       <c r="AH39" s="11">
-        <v>1446</v>
+        <v>181</v>
       </c>
       <c r="AI39" s="11">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="11">
         <v>0</v>
       </c>
       <c r="AK39" s="11">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AL39" s="11">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AM39" s="11">
-        <v>326</v>
+        <v>823</v>
       </c>
       <c r="AN39" s="11">
-        <v>823</v>
+        <v>199</v>
       </c>
       <c r="AO39" s="11">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="11">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="AQ39" s="11">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="AR39" s="11">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AS39" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="11">
         <v>0</v>
       </c>
       <c r="AU39" s="11">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AV39" s="11">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="11">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="AX39" s="11">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AZ39" s="11">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="BA39" s="11">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>64</v>
       </c>
@@ -5418,157 +5418,157 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>134024</v>
+        <v>176456</v>
       </c>
       <c r="F40" s="13">
-        <v>176456</v>
+        <v>231288</v>
       </c>
       <c r="G40" s="13">
-        <v>231288</v>
+        <v>225163</v>
       </c>
       <c r="H40" s="13">
-        <v>225163</v>
+        <v>158251</v>
       </c>
       <c r="I40" s="13">
-        <v>158251</v>
+        <v>219269</v>
       </c>
       <c r="J40" s="13">
-        <v>219269</v>
+        <v>183950</v>
       </c>
       <c r="K40" s="13">
-        <v>183950</v>
+        <v>191408</v>
       </c>
       <c r="L40" s="13">
-        <v>191408</v>
+        <v>180622</v>
       </c>
       <c r="M40" s="13">
-        <v>180622</v>
+        <v>230995</v>
       </c>
       <c r="N40" s="13">
-        <v>230995</v>
+        <v>187269</v>
       </c>
       <c r="O40" s="13">
-        <v>187269</v>
+        <v>161646</v>
       </c>
       <c r="P40" s="13">
-        <v>161646</v>
+        <v>165096</v>
       </c>
       <c r="Q40" s="13">
-        <v>165096</v>
+        <v>173879</v>
       </c>
       <c r="R40" s="13">
-        <v>173879</v>
+        <v>214531</v>
       </c>
       <c r="S40" s="13">
-        <v>214531</v>
+        <v>203757</v>
       </c>
       <c r="T40" s="13">
-        <v>203757</v>
+        <v>153373</v>
       </c>
       <c r="U40" s="13">
-        <v>153373</v>
+        <v>215585</v>
       </c>
       <c r="V40" s="13">
-        <v>215585</v>
+        <v>163026</v>
       </c>
       <c r="W40" s="13">
-        <v>163026</v>
+        <v>170636</v>
       </c>
       <c r="X40" s="13">
-        <v>170636</v>
+        <v>211040</v>
       </c>
       <c r="Y40" s="13">
-        <v>211040</v>
+        <v>138402</v>
       </c>
       <c r="Z40" s="13">
-        <v>138402</v>
+        <v>184487</v>
       </c>
       <c r="AA40" s="13">
-        <v>184487</v>
+        <v>213567</v>
       </c>
       <c r="AB40" s="13">
-        <v>213567</v>
+        <v>163676</v>
       </c>
       <c r="AC40" s="13">
-        <v>163676</v>
+        <v>161451</v>
       </c>
       <c r="AD40" s="13">
-        <v>161451</v>
+        <v>196931</v>
       </c>
       <c r="AE40" s="13">
-        <v>196931</v>
+        <v>182662</v>
       </c>
       <c r="AF40" s="13">
-        <v>182662</v>
+        <v>169087</v>
       </c>
       <c r="AG40" s="13">
-        <v>169087</v>
+        <v>170300</v>
       </c>
       <c r="AH40" s="13">
-        <v>170300</v>
+        <v>122720</v>
       </c>
       <c r="AI40" s="13">
-        <v>122720</v>
+        <v>145215</v>
       </c>
       <c r="AJ40" s="13">
-        <v>145215</v>
+        <v>164449</v>
       </c>
       <c r="AK40" s="13">
-        <v>164449</v>
+        <v>226034</v>
       </c>
       <c r="AL40" s="13">
-        <v>226034</v>
+        <v>190888</v>
       </c>
       <c r="AM40" s="13">
-        <v>190888</v>
+        <v>216864</v>
       </c>
       <c r="AN40" s="13">
-        <v>216864</v>
+        <v>215016</v>
       </c>
       <c r="AO40" s="13">
-        <v>215016</v>
+        <v>239992</v>
       </c>
       <c r="AP40" s="13">
-        <v>239992</v>
+        <v>228548</v>
       </c>
       <c r="AQ40" s="13">
-        <v>228548</v>
+        <v>244926</v>
       </c>
       <c r="AR40" s="13">
-        <v>289947</v>
+        <v>209273</v>
       </c>
       <c r="AS40" s="13">
-        <v>209273</v>
+        <v>271284</v>
       </c>
       <c r="AT40" s="13">
-        <v>271284</v>
+        <v>232236</v>
       </c>
       <c r="AU40" s="13">
-        <v>-17646</v>
+        <v>85862</v>
       </c>
       <c r="AV40" s="13">
-        <v>85862</v>
+        <v>188550</v>
       </c>
       <c r="AW40" s="13">
-        <v>188550</v>
+        <v>193942</v>
       </c>
       <c r="AX40" s="13">
-        <v>420951</v>
+        <v>215938</v>
       </c>
       <c r="AY40" s="13">
-        <v>296910</v>
+        <v>216490</v>
       </c>
       <c r="AZ40" s="13">
-        <v>216490</v>
+        <v>208322</v>
       </c>
       <c r="BA40" s="13">
-        <v>208322</v>
+        <v>199670</v>
       </c>
       <c r="BB40" s="13">
-        <v>199670</v>
+        <v>201676</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>65</v>
       </c>
@@ -5577,157 +5577,157 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>201834</v>
+        <v>189039</v>
       </c>
       <c r="F41" s="11">
-        <v>189039</v>
+        <v>215200</v>
       </c>
       <c r="G41" s="11">
-        <v>215200</v>
+        <v>197116</v>
       </c>
       <c r="H41" s="11">
-        <v>197116</v>
+        <v>182279</v>
       </c>
       <c r="I41" s="11">
-        <v>182279</v>
+        <v>223394</v>
       </c>
       <c r="J41" s="11">
-        <v>223394</v>
+        <v>210093</v>
       </c>
       <c r="K41" s="11">
-        <v>210093</v>
+        <v>183290</v>
       </c>
       <c r="L41" s="11">
-        <v>183290</v>
+        <v>199091</v>
       </c>
       <c r="M41" s="11">
-        <v>199091</v>
+        <v>233795</v>
       </c>
       <c r="N41" s="11">
-        <v>233795</v>
+        <v>214390</v>
       </c>
       <c r="O41" s="11">
-        <v>214390</v>
+        <v>210542</v>
       </c>
       <c r="P41" s="11">
-        <v>210542</v>
+        <v>161784</v>
       </c>
       <c r="Q41" s="11">
-        <v>161784</v>
+        <v>205866</v>
       </c>
       <c r="R41" s="11">
-        <v>205866</v>
+        <v>203075</v>
       </c>
       <c r="S41" s="11">
-        <v>203075</v>
+        <v>192666</v>
       </c>
       <c r="T41" s="11">
-        <v>192666</v>
+        <v>152930</v>
       </c>
       <c r="U41" s="11">
-        <v>152930</v>
+        <v>213504</v>
       </c>
       <c r="V41" s="11">
-        <v>213504</v>
+        <v>192930</v>
       </c>
       <c r="W41" s="11">
-        <v>192930</v>
+        <v>181097</v>
       </c>
       <c r="X41" s="11">
-        <v>181097</v>
+        <v>199166</v>
       </c>
       <c r="Y41" s="11">
-        <v>199166</v>
+        <v>200208</v>
       </c>
       <c r="Z41" s="11">
-        <v>200208</v>
+        <v>206747</v>
       </c>
       <c r="AA41" s="11">
-        <v>206747</v>
+        <v>197504</v>
       </c>
       <c r="AB41" s="11">
-        <v>197504</v>
+        <v>194636</v>
       </c>
       <c r="AC41" s="11">
-        <v>194636</v>
+        <v>203605</v>
       </c>
       <c r="AD41" s="11">
-        <v>203605</v>
+        <v>202235</v>
       </c>
       <c r="AE41" s="11">
-        <v>202235</v>
+        <v>207290</v>
       </c>
       <c r="AF41" s="11">
-        <v>207290</v>
+        <v>204811</v>
       </c>
       <c r="AG41" s="11">
-        <v>204811</v>
+        <v>213598</v>
       </c>
       <c r="AH41" s="11">
-        <v>213598</v>
+        <v>193936</v>
       </c>
       <c r="AI41" s="11">
-        <v>193936</v>
+        <v>157089</v>
       </c>
       <c r="AJ41" s="11">
-        <v>157089</v>
+        <v>129700</v>
       </c>
       <c r="AK41" s="11">
-        <v>129700</v>
+        <v>169683</v>
       </c>
       <c r="AL41" s="11">
-        <v>169683</v>
+        <v>206199</v>
       </c>
       <c r="AM41" s="11">
-        <v>206199</v>
+        <v>181718</v>
       </c>
       <c r="AN41" s="11">
-        <v>181718</v>
+        <v>197777</v>
       </c>
       <c r="AO41" s="11">
-        <v>197777</v>
+        <v>197679</v>
       </c>
       <c r="AP41" s="11">
-        <v>197679</v>
+        <v>196712</v>
       </c>
       <c r="AQ41" s="11">
-        <v>196712</v>
+        <v>200215</v>
       </c>
       <c r="AR41" s="11">
-        <v>167924</v>
+        <v>185069</v>
       </c>
       <c r="AS41" s="11">
-        <v>185069</v>
+        <v>194424</v>
       </c>
       <c r="AT41" s="11">
-        <v>194424</v>
+        <v>197207</v>
       </c>
       <c r="AU41" s="11">
-        <v>211570</v>
+        <v>213998</v>
       </c>
       <c r="AV41" s="11">
-        <v>213998</v>
+        <v>151646</v>
       </c>
       <c r="AW41" s="11">
-        <v>151646</v>
+        <v>149616</v>
       </c>
       <c r="AX41" s="11">
-        <v>156207</v>
+        <v>161692</v>
       </c>
       <c r="AY41" s="11">
-        <v>173768</v>
+        <v>205442</v>
       </c>
       <c r="AZ41" s="11">
-        <v>205442</v>
+        <v>205212</v>
       </c>
       <c r="BA41" s="11">
-        <v>205212</v>
+        <v>176995</v>
       </c>
       <c r="BB41" s="11">
-        <v>176995</v>
+        <v>209151</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>66</v>
       </c>
@@ -5736,13 +5736,13 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>4896</v>
+        <v>0</v>
       </c>
       <c r="F42" s="13">
-        <v>0</v>
+        <v>5322</v>
       </c>
       <c r="G42" s="13">
-        <v>5322</v>
+        <v>0</v>
       </c>
       <c r="H42" s="13">
         <v>0</v>
@@ -5751,16 +5751,16 @@
         <v>0</v>
       </c>
       <c r="J42" s="13">
-        <v>0</v>
+        <v>5085</v>
       </c>
       <c r="K42" s="13">
-        <v>5085</v>
+        <v>5192</v>
       </c>
       <c r="L42" s="13">
-        <v>5192</v>
+        <v>5247</v>
       </c>
       <c r="M42" s="13">
-        <v>5247</v>
+        <v>0</v>
       </c>
       <c r="N42" s="13">
         <v>0</v>
@@ -5775,19 +5775,19 @@
         <v>0</v>
       </c>
       <c r="R42" s="13">
-        <v>0</v>
+        <v>4981</v>
       </c>
       <c r="S42" s="13">
-        <v>4981</v>
+        <v>0</v>
       </c>
       <c r="T42" s="13">
-        <v>0</v>
+        <v>5387</v>
       </c>
       <c r="U42" s="13">
-        <v>5387</v>
+        <v>5332</v>
       </c>
       <c r="V42" s="13">
-        <v>5332</v>
+        <v>0</v>
       </c>
       <c r="W42" s="13">
         <v>0</v>
@@ -5796,10 +5796,10 @@
         <v>0</v>
       </c>
       <c r="Y42" s="13">
-        <v>0</v>
+        <v>4816</v>
       </c>
       <c r="Z42" s="13">
-        <v>4816</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="13">
         <v>0</v>
@@ -5808,19 +5808,19 @@
         <v>0</v>
       </c>
       <c r="AC42" s="13">
-        <v>0</v>
+        <v>5288</v>
       </c>
       <c r="AD42" s="13">
-        <v>5288</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="13">
-        <v>0</v>
+        <v>4823</v>
       </c>
       <c r="AF42" s="13">
-        <v>4823</v>
+        <v>4830</v>
       </c>
       <c r="AG42" s="13">
-        <v>4830</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="13">
         <v>0</v>
@@ -5841,52 +5841,52 @@
         <v>0</v>
       </c>
       <c r="AN42" s="13">
-        <v>0</v>
+        <v>4513</v>
       </c>
       <c r="AO42" s="13">
-        <v>4513</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="13">
-        <v>0</v>
+        <v>4533</v>
       </c>
       <c r="AQ42" s="13">
-        <v>4533</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="13">
-        <v>2703</v>
+        <v>1429</v>
       </c>
       <c r="AS42" s="13">
-        <v>1429</v>
+        <v>4672</v>
       </c>
       <c r="AT42" s="13">
-        <v>4672</v>
+        <v>4770</v>
       </c>
       <c r="AU42" s="13">
-        <v>-2922</v>
+        <v>1454</v>
       </c>
       <c r="AV42" s="13">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="AW42" s="13">
         <v>0</v>
       </c>
       <c r="AX42" s="13">
-        <v>701</v>
+        <v>244</v>
       </c>
       <c r="AY42" s="13">
-        <v>-435</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="13">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="BA42" s="13">
-        <v>5447</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>67</v>
       </c>
@@ -5895,157 +5895,157 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>64705</v>
+        <v>74079</v>
       </c>
       <c r="F43" s="11">
-        <v>74079</v>
+        <v>69477</v>
       </c>
       <c r="G43" s="11">
-        <v>69477</v>
+        <v>54301</v>
       </c>
       <c r="H43" s="11">
-        <v>54301</v>
+        <v>40115</v>
       </c>
       <c r="I43" s="11">
-        <v>40115</v>
+        <v>68603</v>
       </c>
       <c r="J43" s="11">
-        <v>68603</v>
+        <v>73640</v>
       </c>
       <c r="K43" s="11">
-        <v>73640</v>
+        <v>58501</v>
       </c>
       <c r="L43" s="11">
-        <v>58501</v>
+        <v>44221</v>
       </c>
       <c r="M43" s="11">
-        <v>44221</v>
+        <v>72996</v>
       </c>
       <c r="N43" s="11">
-        <v>72996</v>
+        <v>53129</v>
       </c>
       <c r="O43" s="11">
-        <v>53129</v>
+        <v>59523</v>
       </c>
       <c r="P43" s="11">
-        <v>59523</v>
+        <v>43216</v>
       </c>
       <c r="Q43" s="11">
-        <v>43216</v>
+        <v>49495</v>
       </c>
       <c r="R43" s="11">
-        <v>49495</v>
+        <v>65271</v>
       </c>
       <c r="S43" s="11">
-        <v>65271</v>
+        <v>64376</v>
       </c>
       <c r="T43" s="11">
-        <v>64376</v>
+        <v>68797</v>
       </c>
       <c r="U43" s="11">
-        <v>68797</v>
+        <v>39339</v>
       </c>
       <c r="V43" s="11">
-        <v>39339</v>
+        <v>24933</v>
       </c>
       <c r="W43" s="11">
-        <v>24933</v>
+        <v>29575</v>
       </c>
       <c r="X43" s="11">
-        <v>29575</v>
+        <v>34662</v>
       </c>
       <c r="Y43" s="11">
-        <v>34662</v>
+        <v>9312</v>
       </c>
       <c r="Z43" s="11">
-        <v>9312</v>
+        <v>44181</v>
       </c>
       <c r="AA43" s="11">
-        <v>44181</v>
+        <v>68872</v>
       </c>
       <c r="AB43" s="11">
-        <v>68872</v>
+        <v>53276</v>
       </c>
       <c r="AC43" s="11">
-        <v>53276</v>
+        <v>53475</v>
       </c>
       <c r="AD43" s="11">
-        <v>53475</v>
+        <v>33817</v>
       </c>
       <c r="AE43" s="11">
-        <v>33817</v>
+        <v>49203</v>
       </c>
       <c r="AF43" s="11">
-        <v>49203</v>
+        <v>48879</v>
       </c>
       <c r="AG43" s="11">
-        <v>48879</v>
+        <v>63497</v>
       </c>
       <c r="AH43" s="11">
-        <v>63497</v>
+        <v>59047</v>
       </c>
       <c r="AI43" s="11">
-        <v>59047</v>
+        <v>47759</v>
       </c>
       <c r="AJ43" s="11">
-        <v>47759</v>
+        <v>68437</v>
       </c>
       <c r="AK43" s="11">
-        <v>68437</v>
+        <v>68519</v>
       </c>
       <c r="AL43" s="11">
-        <v>68519</v>
+        <v>73268</v>
       </c>
       <c r="AM43" s="11">
-        <v>73268</v>
+        <v>68445</v>
       </c>
       <c r="AN43" s="11">
-        <v>68445</v>
+        <v>63881</v>
       </c>
       <c r="AO43" s="11">
-        <v>63881</v>
+        <v>58056</v>
       </c>
       <c r="AP43" s="11">
-        <v>58056</v>
+        <v>64326</v>
       </c>
       <c r="AQ43" s="11">
-        <v>64326</v>
+        <v>64106</v>
       </c>
       <c r="AR43" s="11">
-        <v>47006</v>
+        <v>59462</v>
       </c>
       <c r="AS43" s="11">
-        <v>59462</v>
+        <v>57123</v>
       </c>
       <c r="AT43" s="11">
-        <v>57123</v>
+        <v>57772</v>
       </c>
       <c r="AU43" s="11">
-        <v>62213</v>
+        <v>60298</v>
       </c>
       <c r="AV43" s="11">
-        <v>60298</v>
+        <v>33531</v>
       </c>
       <c r="AW43" s="11">
-        <v>33531</v>
+        <v>48476</v>
       </c>
       <c r="AX43" s="11">
-        <v>72915</v>
+        <v>52344</v>
       </c>
       <c r="AY43" s="11">
-        <v>56329</v>
+        <v>48776</v>
       </c>
       <c r="AZ43" s="11">
-        <v>48776</v>
+        <v>49113</v>
       </c>
       <c r="BA43" s="11">
-        <v>49113</v>
+        <v>48648</v>
       </c>
       <c r="BB43" s="11">
-        <v>48648</v>
+        <v>53347</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>68</v>
       </c>
@@ -6054,157 +6054,157 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>74836</v>
+        <v>81533</v>
       </c>
       <c r="F44" s="13">
-        <v>81533</v>
+        <v>77312</v>
       </c>
       <c r="G44" s="13">
-        <v>77312</v>
+        <v>66721</v>
       </c>
       <c r="H44" s="13">
-        <v>66721</v>
+        <v>72833</v>
       </c>
       <c r="I44" s="13">
-        <v>72833</v>
+        <v>71348</v>
       </c>
       <c r="J44" s="13">
-        <v>71348</v>
+        <v>69249</v>
       </c>
       <c r="K44" s="13">
-        <v>69249</v>
+        <v>70081</v>
       </c>
       <c r="L44" s="13">
-        <v>70081</v>
+        <v>74329</v>
       </c>
       <c r="M44" s="13">
-        <v>74329</v>
+        <v>69204</v>
       </c>
       <c r="N44" s="13">
-        <v>69204</v>
+        <v>81667</v>
       </c>
       <c r="O44" s="13">
-        <v>81667</v>
+        <v>53637</v>
       </c>
       <c r="P44" s="13">
-        <v>53637</v>
+        <v>40129</v>
       </c>
       <c r="Q44" s="13">
-        <v>40129</v>
+        <v>71049</v>
       </c>
       <c r="R44" s="13">
-        <v>71049</v>
+        <v>56951</v>
       </c>
       <c r="S44" s="13">
-        <v>56951</v>
+        <v>69438</v>
       </c>
       <c r="T44" s="13">
-        <v>69438</v>
+        <v>66186</v>
       </c>
       <c r="U44" s="13">
-        <v>66186</v>
+        <v>48275</v>
       </c>
       <c r="V44" s="13">
-        <v>48275</v>
+        <v>52750</v>
       </c>
       <c r="W44" s="13">
-        <v>52750</v>
+        <v>63087</v>
       </c>
       <c r="X44" s="13">
-        <v>63087</v>
+        <v>73470</v>
       </c>
       <c r="Y44" s="13">
-        <v>73470</v>
+        <v>83915</v>
       </c>
       <c r="Z44" s="13">
-        <v>83915</v>
+        <v>67884</v>
       </c>
       <c r="AA44" s="13">
-        <v>67884</v>
+        <v>65298</v>
       </c>
       <c r="AB44" s="13">
-        <v>65298</v>
+        <v>76662</v>
       </c>
       <c r="AC44" s="13">
-        <v>76662</v>
+        <v>71385</v>
       </c>
       <c r="AD44" s="13">
-        <v>71385</v>
+        <v>72879</v>
       </c>
       <c r="AE44" s="13">
-        <v>72879</v>
+        <v>79631</v>
       </c>
       <c r="AF44" s="13">
-        <v>79631</v>
+        <v>77297</v>
       </c>
       <c r="AG44" s="13">
-        <v>77297</v>
+        <v>65531</v>
       </c>
       <c r="AH44" s="13">
-        <v>65531</v>
+        <v>66082</v>
       </c>
       <c r="AI44" s="13">
-        <v>66082</v>
+        <v>55702</v>
       </c>
       <c r="AJ44" s="13">
-        <v>55702</v>
+        <v>41694</v>
       </c>
       <c r="AK44" s="13">
-        <v>41694</v>
+        <v>74969</v>
       </c>
       <c r="AL44" s="13">
-        <v>74969</v>
+        <v>83023</v>
       </c>
       <c r="AM44" s="13">
-        <v>83023</v>
+        <v>72123</v>
       </c>
       <c r="AN44" s="13">
-        <v>72123</v>
+        <v>74811</v>
       </c>
       <c r="AO44" s="13">
-        <v>74811</v>
+        <v>71739</v>
       </c>
       <c r="AP44" s="13">
-        <v>71739</v>
+        <v>79523</v>
       </c>
       <c r="AQ44" s="13">
-        <v>79523</v>
+        <v>69063</v>
       </c>
       <c r="AR44" s="13">
-        <v>69079</v>
+        <v>69105</v>
       </c>
       <c r="AS44" s="13">
-        <v>69105</v>
+        <v>70340</v>
       </c>
       <c r="AT44" s="13">
-        <v>70340</v>
+        <v>71916</v>
       </c>
       <c r="AU44" s="13">
-        <v>72574</v>
+        <v>61184</v>
       </c>
       <c r="AV44" s="13">
-        <v>61184</v>
+        <v>79164</v>
       </c>
       <c r="AW44" s="13">
-        <v>79164</v>
+        <v>73345</v>
       </c>
       <c r="AX44" s="13">
-        <v>73208</v>
+        <v>82735</v>
       </c>
       <c r="AY44" s="13">
-        <v>82739</v>
+        <v>83419</v>
       </c>
       <c r="AZ44" s="13">
-        <v>83419</v>
+        <v>78002</v>
       </c>
       <c r="BA44" s="13">
-        <v>78002</v>
+        <v>70239</v>
       </c>
       <c r="BB44" s="13">
-        <v>70239</v>
+        <v>78457</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>69</v>
       </c>
@@ -6213,157 +6213,157 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>434518</v>
+        <v>415163</v>
       </c>
       <c r="F45" s="11">
-        <v>415163</v>
+        <v>399322</v>
       </c>
       <c r="G45" s="11">
-        <v>399322</v>
+        <v>426988</v>
       </c>
       <c r="H45" s="11">
-        <v>426988</v>
+        <v>414328</v>
       </c>
       <c r="I45" s="11">
-        <v>414328</v>
+        <v>408579</v>
       </c>
       <c r="J45" s="11">
-        <v>408579</v>
+        <v>441699</v>
       </c>
       <c r="K45" s="11">
-        <v>441699</v>
+        <v>422732</v>
       </c>
       <c r="L45" s="11">
-        <v>422732</v>
+        <v>434186</v>
       </c>
       <c r="M45" s="11">
-        <v>434186</v>
+        <v>490212</v>
       </c>
       <c r="N45" s="11">
-        <v>490212</v>
+        <v>466230</v>
       </c>
       <c r="O45" s="11">
-        <v>466230</v>
+        <v>418653</v>
       </c>
       <c r="P45" s="11">
-        <v>418653</v>
+        <v>330888</v>
       </c>
       <c r="Q45" s="11">
-        <v>330888</v>
+        <v>465219</v>
       </c>
       <c r="R45" s="11">
-        <v>465219</v>
+        <v>450131</v>
       </c>
       <c r="S45" s="11">
-        <v>450131</v>
+        <v>413490</v>
       </c>
       <c r="T45" s="11">
-        <v>413490</v>
+        <v>415518</v>
       </c>
       <c r="U45" s="11">
-        <v>415518</v>
+        <v>401775</v>
       </c>
       <c r="V45" s="11">
-        <v>401775</v>
+        <v>399066</v>
       </c>
       <c r="W45" s="11">
-        <v>399066</v>
+        <v>418682</v>
       </c>
       <c r="X45" s="11">
-        <v>418682</v>
+        <v>386900</v>
       </c>
       <c r="Y45" s="11">
-        <v>386900</v>
+        <v>414177</v>
       </c>
       <c r="Z45" s="11">
-        <v>414177</v>
+        <v>457687</v>
       </c>
       <c r="AA45" s="11">
-        <v>457687</v>
+        <v>428900</v>
       </c>
       <c r="AB45" s="11">
-        <v>428900</v>
+        <v>456574</v>
       </c>
       <c r="AC45" s="11">
-        <v>456574</v>
+        <v>420706</v>
       </c>
       <c r="AD45" s="11">
-        <v>420706</v>
+        <v>419830</v>
       </c>
       <c r="AE45" s="11">
-        <v>419830</v>
+        <v>469868</v>
       </c>
       <c r="AF45" s="11">
-        <v>469868</v>
+        <v>389504</v>
       </c>
       <c r="AG45" s="11">
-        <v>389504</v>
+        <v>416892</v>
       </c>
       <c r="AH45" s="11">
-        <v>416892</v>
+        <v>385525</v>
       </c>
       <c r="AI45" s="11">
-        <v>385525</v>
+        <v>319038</v>
       </c>
       <c r="AJ45" s="11">
-        <v>319038</v>
+        <v>271548</v>
       </c>
       <c r="AK45" s="11">
-        <v>271548</v>
+        <v>433873</v>
       </c>
       <c r="AL45" s="11">
-        <v>433873</v>
+        <v>471762</v>
       </c>
       <c r="AM45" s="11">
-        <v>471762</v>
+        <v>394365</v>
       </c>
       <c r="AN45" s="11">
-        <v>394365</v>
+        <v>405902</v>
       </c>
       <c r="AO45" s="11">
-        <v>405902</v>
+        <v>429147</v>
       </c>
       <c r="AP45" s="11">
-        <v>429147</v>
+        <v>387969</v>
       </c>
       <c r="AQ45" s="11">
-        <v>387969</v>
+        <v>433915</v>
       </c>
       <c r="AR45" s="11">
-        <v>396962</v>
+        <v>389540</v>
       </c>
       <c r="AS45" s="11">
-        <v>389540</v>
+        <v>452184</v>
       </c>
       <c r="AT45" s="11">
-        <v>452184</v>
+        <v>429883</v>
       </c>
       <c r="AU45" s="11">
-        <v>366031</v>
+        <v>427607</v>
       </c>
       <c r="AV45" s="11">
-        <v>427607</v>
+        <v>466203</v>
       </c>
       <c r="AW45" s="11">
-        <v>466203</v>
+        <v>407284</v>
       </c>
       <c r="AX45" s="11">
-        <v>427663</v>
+        <v>440482</v>
       </c>
       <c r="AY45" s="11">
-        <v>469891</v>
+        <v>452133</v>
       </c>
       <c r="AZ45" s="11">
-        <v>452133</v>
+        <v>446721</v>
       </c>
       <c r="BA45" s="11">
-        <v>446721</v>
+        <v>397455</v>
       </c>
       <c r="BB45" s="11">
-        <v>397455</v>
+        <v>423149</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>70</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="BA46" s="15"/>
       <c r="BB46" s="15"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>71</v>
       </c>
@@ -6483,8 +6483,8 @@
       <c r="W47" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="X47" s="17" t="s">
-        <v>61</v>
+      <c r="X47" s="17">
+        <v>0</v>
       </c>
       <c r="Y47" s="17">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>74</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="BA48" s="15"/>
       <c r="BB48" s="15"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>75</v>
       </c>
@@ -6697,8 +6697,8 @@
       <c r="W49" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="X49" s="17" t="s">
-        <v>61</v>
+      <c r="X49" s="17">
+        <v>0</v>
       </c>
       <c r="Y49" s="17">
         <v>0</v>
@@ -6791,164 +6791,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19">
-        <v>1146932</v>
+        <v>1131468</v>
       </c>
       <c r="F50" s="19">
-        <v>1131468</v>
+        <v>1143242</v>
       </c>
       <c r="G50" s="19">
-        <v>1143242</v>
+        <v>1192761</v>
       </c>
       <c r="H50" s="19">
-        <v>1192761</v>
+        <v>1118172</v>
       </c>
       <c r="I50" s="19">
-        <v>1118172</v>
+        <v>1155656</v>
       </c>
       <c r="J50" s="19">
-        <v>1155656</v>
+        <v>1189280</v>
       </c>
       <c r="K50" s="19">
-        <v>1189280</v>
+        <v>1100498</v>
       </c>
       <c r="L50" s="19">
-        <v>1100498</v>
+        <v>1202832</v>
       </c>
       <c r="M50" s="19">
-        <v>1202832</v>
+        <v>1235947</v>
       </c>
       <c r="N50" s="19">
-        <v>1235947</v>
+        <v>1143731</v>
       </c>
       <c r="O50" s="19">
-        <v>1143731</v>
+        <v>1042824</v>
       </c>
       <c r="P50" s="19">
-        <v>1042824</v>
+        <v>862193</v>
       </c>
       <c r="Q50" s="19">
-        <v>862193</v>
+        <v>1125461</v>
       </c>
       <c r="R50" s="19">
-        <v>1125461</v>
+        <v>1159350</v>
       </c>
       <c r="S50" s="19">
-        <v>1159350</v>
+        <v>1107634</v>
       </c>
       <c r="T50" s="19">
-        <v>1107634</v>
+        <v>1016318</v>
       </c>
       <c r="U50" s="19">
-        <v>1016318</v>
+        <v>1047529</v>
       </c>
       <c r="V50" s="19">
-        <v>1047529</v>
+        <v>998561</v>
       </c>
       <c r="W50" s="19">
-        <v>998561</v>
+        <v>1007173</v>
       </c>
       <c r="X50" s="19">
-        <v>1007173</v>
+        <v>1066276</v>
       </c>
       <c r="Y50" s="19">
-        <v>1066276</v>
+        <v>1021933</v>
       </c>
       <c r="Z50" s="19">
-        <v>1021933</v>
+        <v>1121437</v>
       </c>
       <c r="AA50" s="19">
-        <v>1121437</v>
+        <v>1125770</v>
       </c>
       <c r="AB50" s="19">
-        <v>1125770</v>
+        <v>1102766</v>
       </c>
       <c r="AC50" s="19">
-        <v>1102766</v>
+        <v>1080773</v>
       </c>
       <c r="AD50" s="19">
-        <v>1080773</v>
+        <v>1090539</v>
       </c>
       <c r="AE50" s="19">
-        <v>1090539</v>
+        <v>1156477</v>
       </c>
       <c r="AF50" s="19">
-        <v>1156477</v>
+        <v>1050266</v>
       </c>
       <c r="AG50" s="19">
-        <v>1050266</v>
+        <v>1068960</v>
       </c>
       <c r="AH50" s="19">
-        <v>1068960</v>
+        <v>994888</v>
       </c>
       <c r="AI50" s="19">
-        <v>994888</v>
+        <v>835495</v>
       </c>
       <c r="AJ50" s="19">
-        <v>835495</v>
+        <v>782544</v>
       </c>
       <c r="AK50" s="19">
-        <v>782544</v>
+        <v>1150894</v>
       </c>
       <c r="AL50" s="19">
-        <v>1150894</v>
+        <v>1210523</v>
       </c>
       <c r="AM50" s="19">
-        <v>1210523</v>
+        <v>1087685</v>
       </c>
       <c r="AN50" s="19">
-        <v>1087685</v>
+        <v>1139673</v>
       </c>
       <c r="AO50" s="19">
-        <v>1139673</v>
+        <v>1156437</v>
       </c>
       <c r="AP50" s="19">
-        <v>1156437</v>
+        <v>1102201</v>
       </c>
       <c r="AQ50" s="19">
-        <v>1102201</v>
+        <v>1202995</v>
       </c>
       <c r="AR50" s="19">
-        <v>1149346</v>
+        <v>1073003</v>
       </c>
       <c r="AS50" s="19">
-        <v>1073003</v>
+        <v>1179917</v>
       </c>
       <c r="AT50" s="19">
-        <v>1179917</v>
+        <v>1140983</v>
       </c>
       <c r="AU50" s="19">
-        <v>825306</v>
+        <v>1048489</v>
       </c>
       <c r="AV50" s="19">
-        <v>1048489</v>
+        <v>1107807</v>
       </c>
       <c r="AW50" s="19">
-        <v>1107807</v>
+        <v>1027281</v>
       </c>
       <c r="AX50" s="19">
-        <v>1310443</v>
+        <v>1124808</v>
       </c>
       <c r="AY50" s="19">
-        <v>1251300</v>
+        <v>1162487</v>
       </c>
       <c r="AZ50" s="19">
-        <v>1162487</v>
+        <v>1167478</v>
       </c>
       <c r="BA50" s="19">
-        <v>1167478</v>
+        <v>1055086</v>
       </c>
       <c r="BB50" s="19">
-        <v>1055086</v>
+        <v>1128431</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -7003,7 +7003,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -7058,7 +7058,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7113,7 +7113,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>76</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7325,7 +7325,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>76</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>55</v>
       </c>
@@ -7508,40 +7508,40 @@
         <v>0</v>
       </c>
       <c r="AR57" s="11">
-        <v>58011737</v>
+        <v>6935392</v>
       </c>
       <c r="AS57" s="11">
-        <v>6935392</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="11">
         <v>0</v>
       </c>
       <c r="AU57" s="11">
-        <v>12397154</v>
+        <v>7540192</v>
       </c>
       <c r="AV57" s="11">
-        <v>7540192</v>
+        <v>0</v>
       </c>
       <c r="AW57" s="11">
         <v>0</v>
       </c>
       <c r="AX57" s="11">
-        <v>14592002</v>
+        <v>7783013</v>
       </c>
       <c r="AY57" s="11">
-        <v>7783013</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="11">
         <v>0</v>
       </c>
       <c r="BA57" s="11">
-        <v>-42312361</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>57</v>
       </c>
@@ -7667,40 +7667,40 @@
         <v>0</v>
       </c>
       <c r="AR58" s="13">
-        <v>8234928</v>
+        <v>1694246</v>
       </c>
       <c r="AS58" s="13">
-        <v>1694246</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="13">
         <v>0</v>
       </c>
       <c r="AU58" s="13">
-        <v>1617843</v>
+        <v>780771</v>
       </c>
       <c r="AV58" s="13">
-        <v>780771</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="13">
         <v>0</v>
       </c>
       <c r="AX58" s="13">
-        <v>1372625</v>
+        <v>828820</v>
       </c>
       <c r="AY58" s="13">
-        <v>941099</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="13">
         <v>0</v>
       </c>
       <c r="BA58" s="13">
-        <v>-4712338</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>58</v>
       </c>
@@ -7754,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="T59" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59" s="11">
         <v>0</v>
@@ -7826,40 +7826,40 @@
         <v>0</v>
       </c>
       <c r="AR59" s="11">
-        <v>1309708</v>
+        <v>241313</v>
       </c>
       <c r="AS59" s="11">
-        <v>241313</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="11">
         <v>0</v>
       </c>
       <c r="AU59" s="11">
-        <v>522859</v>
+        <v>396920</v>
       </c>
       <c r="AV59" s="11">
-        <v>396920</v>
+        <v>0</v>
       </c>
       <c r="AW59" s="11">
         <v>0</v>
       </c>
       <c r="AX59" s="11">
-        <v>402032</v>
+        <v>131260</v>
       </c>
       <c r="AY59" s="11">
-        <v>131260</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="11">
         <v>0</v>
       </c>
       <c r="BA59" s="11">
-        <v>-1453071</v>
+        <v>0</v>
       </c>
       <c r="BB59" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7985,40 +7985,40 @@
         <v>0</v>
       </c>
       <c r="AR60" s="13">
-        <v>36029073</v>
+        <v>4759684</v>
       </c>
       <c r="AS60" s="13">
-        <v>4759684</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="13">
         <v>0</v>
       </c>
       <c r="AU60" s="13">
-        <v>10348747</v>
+        <v>4311170</v>
       </c>
       <c r="AV60" s="13">
-        <v>4311170</v>
+        <v>0</v>
       </c>
       <c r="AW60" s="13">
         <v>0</v>
       </c>
       <c r="AX60" s="13">
-        <v>7218713</v>
+        <v>3650515</v>
       </c>
       <c r="AY60" s="13">
-        <v>4030069</v>
+        <v>0</v>
       </c>
       <c r="AZ60" s="13">
         <v>0</v>
       </c>
       <c r="BA60" s="13">
-        <v>-25908699</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
@@ -8134,8 +8134,8 @@
       <c r="AN61" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AO61" s="11" t="s">
-        <v>61</v>
+      <c r="AO61" s="11">
+        <v>0</v>
       </c>
       <c r="AP61" s="11">
         <v>0</v>
@@ -8144,10 +8144,10 @@
         <v>0</v>
       </c>
       <c r="AR61" s="11">
-        <v>16699</v>
+        <v>87981</v>
       </c>
       <c r="AS61" s="11">
-        <v>87981</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="11">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>62</v>
       </c>
@@ -8303,40 +8303,40 @@
         <v>0</v>
       </c>
       <c r="AR62" s="13">
-        <v>30646745</v>
+        <v>2767856</v>
       </c>
       <c r="AS62" s="13">
-        <v>2767856</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="13">
         <v>0</v>
       </c>
       <c r="AU62" s="13">
-        <v>4390374</v>
+        <v>7354974</v>
       </c>
       <c r="AV62" s="13">
-        <v>7354974</v>
+        <v>0</v>
       </c>
       <c r="AW62" s="13">
         <v>0</v>
       </c>
       <c r="AX62" s="13">
-        <v>9657581</v>
+        <v>2787304</v>
       </c>
       <c r="AY62" s="13">
-        <v>2787304</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="13">
         <v>0</v>
       </c>
       <c r="BA62" s="13">
-        <v>-24190233</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>63</v>
       </c>
@@ -8462,25 +8462,25 @@
         <v>0</v>
       </c>
       <c r="AR63" s="11">
-        <v>319406</v>
+        <v>6108</v>
       </c>
       <c r="AS63" s="11">
-        <v>6108</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="11">
         <v>0</v>
       </c>
       <c r="AU63" s="11">
-        <v>0</v>
+        <v>22554</v>
       </c>
       <c r="AV63" s="11">
-        <v>22554</v>
+        <v>0</v>
       </c>
       <c r="AW63" s="11">
         <v>0</v>
       </c>
       <c r="AX63" s="11">
-        <v>55160</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="11">
         <v>0</v>
@@ -8489,13 +8489,13 @@
         <v>0</v>
       </c>
       <c r="BA63" s="11">
-        <v>-77714</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>64</v>
       </c>
@@ -8621,40 +8621,40 @@
         <v>0</v>
       </c>
       <c r="AR64" s="13">
-        <v>207084792</v>
+        <v>28352761</v>
       </c>
       <c r="AS64" s="13">
-        <v>28352761</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="13">
         <v>0</v>
       </c>
       <c r="AU64" s="13">
-        <v>37723022</v>
+        <v>11905438</v>
       </c>
       <c r="AV64" s="13">
-        <v>11905438</v>
+        <v>0</v>
       </c>
       <c r="AW64" s="13">
         <v>0</v>
       </c>
       <c r="AX64" s="13">
-        <v>78092671</v>
+        <v>21345605</v>
       </c>
       <c r="AY64" s="13">
-        <v>30540651</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="13">
         <v>0</v>
       </c>
       <c r="BA64" s="13">
-        <v>-158261782</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>65</v>
       </c>
@@ -8780,40 +8780,40 @@
         <v>0</v>
       </c>
       <c r="AR65" s="11">
-        <v>236307284</v>
+        <v>32734815</v>
       </c>
       <c r="AS65" s="11">
-        <v>32734815</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="11">
         <v>0</v>
       </c>
       <c r="AU65" s="11">
-        <v>76754102</v>
+        <v>45653635</v>
       </c>
       <c r="AV65" s="11">
-        <v>45653635</v>
+        <v>0</v>
       </c>
       <c r="AW65" s="11">
         <v>0</v>
       </c>
       <c r="AX65" s="11">
-        <v>54648859</v>
+        <v>24599044</v>
       </c>
       <c r="AY65" s="11">
-        <v>26599135</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="11">
         <v>0</v>
       </c>
       <c r="BA65" s="11">
-        <v>-203655731</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>66</v>
       </c>
@@ -8939,40 +8939,40 @@
         <v>0</v>
       </c>
       <c r="AR66" s="13">
-        <v>1528545</v>
+        <v>260612</v>
       </c>
       <c r="AS66" s="13">
-        <v>260612</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="13">
         <v>0</v>
       </c>
       <c r="AU66" s="13">
-        <v>369603</v>
+        <v>350440</v>
       </c>
       <c r="AV66" s="13">
-        <v>350440</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="13">
         <v>0</v>
       </c>
       <c r="AX66" s="13">
-        <v>133009</v>
+        <v>51503</v>
       </c>
       <c r="AY66" s="13">
-        <v>-88162</v>
+        <v>0</v>
       </c>
       <c r="AZ66" s="13">
         <v>0</v>
       </c>
       <c r="BA66" s="13">
-        <v>-764890</v>
+        <v>0</v>
       </c>
       <c r="BB66" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>67</v>
       </c>
@@ -9098,40 +9098,40 @@
         <v>0</v>
       </c>
       <c r="AR67" s="11">
-        <v>76650966</v>
+        <v>8219023</v>
       </c>
       <c r="AS67" s="11">
-        <v>8219023</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="11">
         <v>0</v>
       </c>
       <c r="AU67" s="11">
-        <v>24841563</v>
+        <v>14302856</v>
       </c>
       <c r="AV67" s="11">
-        <v>14302856</v>
+        <v>0</v>
       </c>
       <c r="AW67" s="11">
         <v>0</v>
       </c>
       <c r="AX67" s="11">
-        <v>25773135</v>
+        <v>11183636</v>
       </c>
       <c r="AY67" s="11">
-        <v>12058628</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="11">
         <v>0</v>
       </c>
       <c r="BA67" s="11">
-        <v>-76976182</v>
+        <v>0</v>
       </c>
       <c r="BB67" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>68</v>
       </c>
@@ -9257,40 +9257,40 @@
         <v>0</v>
       </c>
       <c r="AR68" s="13">
-        <v>74864145</v>
+        <v>8482376</v>
       </c>
       <c r="AS68" s="13">
-        <v>8482376</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="13">
         <v>0</v>
       </c>
       <c r="AU68" s="13">
-        <v>21706627</v>
+        <v>9898373</v>
       </c>
       <c r="AV68" s="13">
-        <v>9898373</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="13">
         <v>0</v>
       </c>
       <c r="AX68" s="13">
-        <v>22554584</v>
+        <v>10764748</v>
       </c>
       <c r="AY68" s="13">
-        <v>10764748</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="13">
         <v>0</v>
       </c>
       <c r="BA68" s="13">
-        <v>-64924332</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>69</v>
       </c>
@@ -9416,40 +9416,40 @@
         <v>0</v>
       </c>
       <c r="AR69" s="11">
-        <v>512802055</v>
+        <v>74058659</v>
       </c>
       <c r="AS69" s="11">
-        <v>74058659</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="11">
         <v>0</v>
       </c>
       <c r="AU69" s="11">
-        <v>180228565</v>
+        <v>107250270</v>
       </c>
       <c r="AV69" s="11">
-        <v>107250270</v>
+        <v>0</v>
       </c>
       <c r="AW69" s="11">
         <v>0</v>
       </c>
       <c r="AX69" s="11">
-        <v>192191970</v>
+        <v>96541697</v>
       </c>
       <c r="AY69" s="11">
-        <v>102416203</v>
+        <v>0</v>
       </c>
       <c r="AZ69" s="11">
         <v>0</v>
       </c>
       <c r="BA69" s="11">
-        <v>-582087008</v>
+        <v>0</v>
       </c>
       <c r="BB69" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>78</v>
       </c>
@@ -9506,7 +9506,7 @@
       <c r="BA70" s="15"/>
       <c r="BB70" s="15"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
         <v>71</v>
       </c>
@@ -9571,8 +9571,8 @@
       <c r="W71" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="X71" s="17" t="s">
-        <v>61</v>
+      <c r="X71" s="17">
+        <v>0</v>
       </c>
       <c r="Y71" s="17">
         <v>0</v>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>79</v>
       </c>
@@ -9722,7 +9722,7 @@
       <c r="BA72" s="15"/>
       <c r="BB72" s="15"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
         <v>75</v>
       </c>
@@ -9787,8 +9787,8 @@
       <c r="W73" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="X73" s="17" t="s">
-        <v>61</v>
+      <c r="X73" s="17">
+        <v>0</v>
       </c>
       <c r="Y73" s="17">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>80</v>
       </c>
@@ -9938,7 +9938,7 @@
       <c r="BA74" s="9"/>
       <c r="BB74" s="9"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>81</v>
       </c>
@@ -10003,8 +10003,8 @@
       <c r="W75" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="X75" s="11" t="s">
-        <v>61</v>
+      <c r="X75" s="11">
+        <v>0</v>
       </c>
       <c r="Y75" s="11">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
@@ -10149,10 +10149,10 @@
         <v>0</v>
       </c>
       <c r="T76" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76" s="19">
         <v>0</v>
@@ -10221,40 +10221,40 @@
         <v>0</v>
       </c>
       <c r="AR76" s="19">
-        <v>1243806083</v>
+        <v>168600826</v>
       </c>
       <c r="AS76" s="19">
-        <v>168600826</v>
+        <v>0</v>
       </c>
       <c r="AT76" s="19">
         <v>0</v>
       </c>
       <c r="AU76" s="19">
-        <v>370900459</v>
+        <v>209767593</v>
       </c>
       <c r="AV76" s="19">
-        <v>209767593</v>
+        <v>0</v>
       </c>
       <c r="AW76" s="19">
         <v>0</v>
       </c>
       <c r="AX76" s="19">
-        <v>406692341</v>
+        <v>179667145</v>
       </c>
       <c r="AY76" s="19">
-        <v>197963948</v>
+        <v>0</v>
       </c>
       <c r="AZ76" s="19">
         <v>0</v>
       </c>
       <c r="BA76" s="19">
-        <v>-1185324341</v>
+        <v>0</v>
       </c>
       <c r="BB76" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -10309,7 +10309,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -10364,7 +10364,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -10419,7 +10419,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
     </row>
-    <row r="80" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>82</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -10631,7 +10631,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>83</v>
       </c>
@@ -10688,7 +10688,7 @@
       <c r="BA82" s="9"/>
       <c r="BB82" s="9"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>55</v>
       </c>
@@ -10814,40 +10814,40 @@
         <v>0</v>
       </c>
       <c r="AR83" s="11">
-        <v>71550793</v>
+        <v>84829336</v>
       </c>
       <c r="AS83" s="11">
-        <v>84829336</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="11">
         <v>0</v>
       </c>
       <c r="AU83" s="11">
-        <v>99751802</v>
+        <v>86529630</v>
       </c>
       <c r="AV83" s="11">
-        <v>86529630</v>
+        <v>0</v>
       </c>
       <c r="AW83" s="11">
         <v>0</v>
       </c>
       <c r="AX83" s="11">
-        <v>37913577</v>
+        <v>80361518</v>
       </c>
       <c r="AY83" s="11">
-        <v>80361518</v>
+        <v>0</v>
       </c>
       <c r="AZ83" s="11">
         <v>0</v>
       </c>
       <c r="BA83" s="11">
-        <v>456380022</v>
+        <v>0</v>
       </c>
       <c r="BB83" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>57</v>
       </c>
@@ -10948,11 +10948,11 @@
       <c r="AI84" s="13">
         <v>0</v>
       </c>
-      <c r="AJ84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK84" s="13" t="s">
-        <v>61</v>
+      <c r="AJ84" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK84" s="13">
+        <v>0</v>
       </c>
       <c r="AL84" s="13">
         <v>0</v>
@@ -10973,40 +10973,40 @@
         <v>0</v>
       </c>
       <c r="AR84" s="13">
-        <v>125423458</v>
+        <v>181630146</v>
       </c>
       <c r="AS84" s="13">
-        <v>181630146</v>
+        <v>0</v>
       </c>
       <c r="AT84" s="13">
         <v>0</v>
       </c>
       <c r="AU84" s="13">
-        <v>207229794</v>
+        <v>240237231</v>
       </c>
       <c r="AV84" s="13">
-        <v>240237231</v>
+        <v>0</v>
       </c>
       <c r="AW84" s="13">
         <v>0</v>
       </c>
       <c r="AX84" s="13">
-        <v>101161767</v>
+        <v>209509606</v>
       </c>
       <c r="AY84" s="13">
-        <v>209225074</v>
+        <v>0</v>
       </c>
       <c r="AZ84" s="13">
         <v>0</v>
       </c>
-      <c r="BA84" s="13">
-        <v>497291895</v>
+      <c r="BA84" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="BB84" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>58</v>
       </c>
@@ -11060,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="T85" s="11">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="U85" s="11">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="V85" s="11">
         <v>0</v>
@@ -11132,40 +11132,40 @@
         <v>0</v>
       </c>
       <c r="AR85" s="11">
-        <v>44230455</v>
+        <v>77443196</v>
       </c>
       <c r="AS85" s="11">
-        <v>77443196</v>
+        <v>0</v>
       </c>
       <c r="AT85" s="11">
         <v>0</v>
       </c>
       <c r="AU85" s="11">
-        <v>92182475</v>
+        <v>109344353</v>
       </c>
       <c r="AV85" s="11">
-        <v>109344353</v>
+        <v>0</v>
       </c>
       <c r="AW85" s="11">
         <v>0</v>
       </c>
       <c r="AX85" s="11">
-        <v>29491784</v>
+        <v>33467619</v>
       </c>
       <c r="AY85" s="11">
-        <v>33467619</v>
+        <v>0</v>
       </c>
       <c r="AZ85" s="11">
         <v>0</v>
       </c>
       <c r="BA85" s="11">
-        <v>399854430</v>
+        <v>0</v>
       </c>
       <c r="BB85" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>59</v>
       </c>
@@ -11291,40 +11291,40 @@
         <v>0</v>
       </c>
       <c r="AR86" s="13">
-        <v>81237312</v>
+        <v>116089854</v>
       </c>
       <c r="AS86" s="13">
-        <v>116089854</v>
+        <v>0</v>
       </c>
       <c r="AT86" s="13">
         <v>0</v>
       </c>
       <c r="AU86" s="13">
-        <v>111072619</v>
+        <v>99468645</v>
       </c>
       <c r="AV86" s="13">
-        <v>99468645</v>
+        <v>0</v>
       </c>
       <c r="AW86" s="13">
         <v>0</v>
       </c>
       <c r="AX86" s="13">
-        <v>30338011</v>
+        <v>87964217</v>
       </c>
       <c r="AY86" s="13">
-        <v>89349717</v>
+        <v>0</v>
       </c>
       <c r="AZ86" s="13">
         <v>0</v>
       </c>
       <c r="BA86" s="13">
-        <v>563710515</v>
+        <v>0</v>
       </c>
       <c r="BB86" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>60</v>
       </c>
@@ -11440,26 +11440,26 @@
       <c r="AN87" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AO87" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP87" s="11">
-        <v>0</v>
+      <c r="AO87" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP87" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AQ87" s="11" t="s">
         <v>61</v>
       </c>
       <c r="AR87" s="11">
-        <v>109143791</v>
+        <v>115158377</v>
       </c>
       <c r="AS87" s="11">
-        <v>115158377</v>
-      </c>
-      <c r="AT87" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU87" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT87" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU87" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AV87" s="11" t="s">
         <v>61</v>
@@ -11483,7 +11483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>62</v>
       </c>
@@ -11609,40 +11609,40 @@
         <v>0</v>
       </c>
       <c r="AR88" s="13">
-        <v>89517445</v>
+        <v>119763576</v>
       </c>
       <c r="AS88" s="13">
-        <v>119763576</v>
+        <v>0</v>
       </c>
       <c r="AT88" s="13">
         <v>0</v>
       </c>
       <c r="AU88" s="13">
-        <v>135313259</v>
+        <v>121381226</v>
       </c>
       <c r="AV88" s="13">
-        <v>121381226</v>
+        <v>0</v>
       </c>
       <c r="AW88" s="13">
         <v>0</v>
       </c>
       <c r="AX88" s="13">
-        <v>56098173</v>
+        <v>110849234</v>
       </c>
       <c r="AY88" s="13">
-        <v>110849234</v>
+        <v>0</v>
       </c>
       <c r="AZ88" s="13">
         <v>0</v>
       </c>
       <c r="BA88" s="13">
-        <v>1061580419</v>
+        <v>0</v>
       </c>
       <c r="BB88" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>63</v>
       </c>
@@ -11740,14 +11740,14 @@
       <c r="AH89" s="11">
         <v>0</v>
       </c>
-      <c r="AI89" s="11">
-        <v>0</v>
+      <c r="AI89" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AJ89" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AK89" s="11" t="s">
-        <v>61</v>
+      <c r="AK89" s="11">
+        <v>0</v>
       </c>
       <c r="AL89" s="11">
         <v>0</v>
@@ -11758,35 +11758,35 @@
       <c r="AN89" s="11">
         <v>0</v>
       </c>
-      <c r="AO89" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP89" s="11" t="s">
-        <v>61</v>
+      <c r="AO89" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP89" s="11">
+        <v>0</v>
       </c>
       <c r="AQ89" s="11">
         <v>0</v>
       </c>
       <c r="AR89" s="11">
-        <v>95288186</v>
-      </c>
-      <c r="AS89" s="11">
         <v>124653061</v>
       </c>
+      <c r="AS89" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AT89" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AU89" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV89" s="11">
+      <c r="AU89" s="11">
         <v>173492308</v>
       </c>
-      <c r="AW89" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX89" s="11">
-        <v>130710900</v>
+      <c r="AV89" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX89" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AY89" s="11">
         <v>0</v>
@@ -11794,14 +11794,14 @@
       <c r="AZ89" s="11">
         <v>0</v>
       </c>
-      <c r="BA89" s="11">
-        <v>863488889</v>
+      <c r="BA89" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="BB89" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>64</v>
       </c>
@@ -11927,40 +11927,40 @@
         <v>0</v>
       </c>
       <c r="AR90" s="13">
-        <v>93704671</v>
+        <v>135482174</v>
       </c>
       <c r="AS90" s="13">
-        <v>135482174</v>
+        <v>0</v>
       </c>
       <c r="AT90" s="13">
         <v>0</v>
       </c>
       <c r="AU90" s="13">
-        <v>148727801</v>
+        <v>138657823</v>
       </c>
       <c r="AV90" s="13">
-        <v>138657823</v>
+        <v>0</v>
       </c>
       <c r="AW90" s="13">
         <v>0</v>
       </c>
       <c r="AX90" s="13">
-        <v>65846581</v>
+        <v>98850619</v>
       </c>
       <c r="AY90" s="13">
-        <v>97914589</v>
+        <v>0</v>
       </c>
       <c r="AZ90" s="13">
         <v>0</v>
       </c>
       <c r="BA90" s="13">
-        <v>759697881</v>
+        <v>0</v>
       </c>
       <c r="BB90" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>65</v>
       </c>
@@ -12086,40 +12086,40 @@
         <v>0</v>
       </c>
       <c r="AR91" s="11">
-        <v>117448073</v>
+        <v>176878975</v>
       </c>
       <c r="AS91" s="11">
-        <v>176878975</v>
+        <v>0</v>
       </c>
       <c r="AT91" s="11">
         <v>0</v>
       </c>
       <c r="AU91" s="11">
-        <v>189052306</v>
+        <v>213336737</v>
       </c>
       <c r="AV91" s="11">
-        <v>213336737</v>
+        <v>0</v>
       </c>
       <c r="AW91" s="11">
         <v>0</v>
       </c>
       <c r="AX91" s="11">
-        <v>57954839</v>
+        <v>152135195</v>
       </c>
       <c r="AY91" s="11">
-        <v>151921889</v>
+        <v>0</v>
       </c>
       <c r="AZ91" s="11">
         <v>0</v>
       </c>
       <c r="BA91" s="11">
-        <v>992416287</v>
+        <v>0</v>
       </c>
       <c r="BB91" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>66</v>
       </c>
@@ -12178,8 +12178,8 @@
       <c r="U92" s="13">
         <v>0</v>
       </c>
-      <c r="V92" s="13">
-        <v>0</v>
+      <c r="V92" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="W92" s="13" t="s">
         <v>61</v>
@@ -12187,11 +12187,11 @@
       <c r="X92" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Y92" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z92" s="13">
-        <v>0</v>
+      <c r="Y92" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AA92" s="13" t="s">
         <v>61</v>
@@ -12199,20 +12199,20 @@
       <c r="AB92" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AC92" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD92" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE92" s="13" t="s">
-        <v>61</v>
+      <c r="AC92" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE92" s="13">
+        <v>0</v>
       </c>
       <c r="AF92" s="13">
         <v>0</v>
       </c>
-      <c r="AG92" s="13">
-        <v>0</v>
+      <c r="AG92" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AH92" s="13" t="s">
         <v>61</v>
@@ -12232,53 +12232,53 @@
       <c r="AM92" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AN92" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO92" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP92" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ92" s="13">
-        <v>0</v>
+      <c r="AN92" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO92" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP92" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ92" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AR92" s="13">
-        <v>130100009</v>
+        <v>182373688</v>
       </c>
       <c r="AS92" s="13">
-        <v>182373688</v>
+        <v>0</v>
       </c>
       <c r="AT92" s="13">
         <v>0</v>
       </c>
       <c r="AU92" s="13">
-        <v>211201714</v>
-      </c>
-      <c r="AV92" s="13">
         <v>241017882</v>
       </c>
+      <c r="AV92" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AW92" s="13" t="s">
         <v>61</v>
       </c>
       <c r="AX92" s="13">
-        <v>-6281305</v>
-      </c>
-      <c r="AY92" s="13">
-        <v>213489669</v>
-      </c>
-      <c r="AZ92" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA92" s="13">
-        <v>140424087</v>
+        <v>211077869</v>
+      </c>
+      <c r="AY92" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ92" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA92" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="BB92" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>67</v>
       </c>
@@ -12404,40 +12404,40 @@
         <v>0</v>
       </c>
       <c r="AR93" s="11">
-        <v>112351744</v>
+        <v>138223117</v>
       </c>
       <c r="AS93" s="11">
-        <v>138223117</v>
+        <v>0</v>
       </c>
       <c r="AT93" s="11">
         <v>0</v>
       </c>
       <c r="AU93" s="11">
-        <v>208164871</v>
+        <v>237202826</v>
       </c>
       <c r="AV93" s="11">
-        <v>237202826</v>
+        <v>0</v>
       </c>
       <c r="AW93" s="11">
         <v>0</v>
       </c>
       <c r="AX93" s="11">
-        <v>77309799</v>
+        <v>213656503</v>
       </c>
       <c r="AY93" s="11">
-        <v>213594845</v>
+        <v>0</v>
       </c>
       <c r="AZ93" s="11">
         <v>0</v>
       </c>
       <c r="BA93" s="11">
-        <v>1567328039</v>
+        <v>0</v>
       </c>
       <c r="BB93" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>68</v>
       </c>
@@ -12563,40 +12563,40 @@
         <v>0</v>
       </c>
       <c r="AR94" s="13">
-        <v>99252986</v>
+        <v>122746198</v>
       </c>
       <c r="AS94" s="13">
-        <v>122746198</v>
+        <v>0</v>
       </c>
       <c r="AT94" s="13">
         <v>0</v>
       </c>
       <c r="AU94" s="13">
-        <v>151885938</v>
+        <v>161780416</v>
       </c>
       <c r="AV94" s="13">
-        <v>161780416</v>
+        <v>0</v>
       </c>
       <c r="AW94" s="13">
         <v>0</v>
       </c>
       <c r="AX94" s="13">
-        <v>63306101</v>
+        <v>130111174</v>
       </c>
       <c r="AY94" s="13">
-        <v>130109828</v>
+        <v>0</v>
       </c>
       <c r="AZ94" s="13">
         <v>0</v>
       </c>
       <c r="BA94" s="13">
-        <v>832341889</v>
+        <v>0</v>
       </c>
       <c r="BB94" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>69</v>
       </c>
@@ -12722,34 +12722,34 @@
         <v>0</v>
       </c>
       <c r="AR95" s="11">
-        <v>118897305</v>
+        <v>190118239</v>
       </c>
       <c r="AS95" s="11">
-        <v>190118239</v>
+        <v>0</v>
       </c>
       <c r="AT95" s="11">
         <v>0</v>
       </c>
       <c r="AU95" s="11">
-        <v>220270424</v>
+        <v>250815047</v>
       </c>
       <c r="AV95" s="11">
-        <v>250815047</v>
+        <v>0</v>
       </c>
       <c r="AW95" s="11">
         <v>0</v>
       </c>
       <c r="AX95" s="11">
-        <v>88530482</v>
+        <v>219172854</v>
       </c>
       <c r="AY95" s="11">
-        <v>218907212</v>
+        <v>0</v>
       </c>
       <c r="AZ95" s="11">
         <v>0</v>
       </c>
       <c r="BA95" s="11">
-        <v>1303021367</v>
+        <v>0</v>
       </c>
       <c r="BB95" s="11">
         <v>0</v>
